--- a/hw4/ABC_alpha0.9/generated_spreadsheet.xlsx
+++ b/hw4/ABC_alpha0.9/generated_spreadsheet.xlsx
@@ -4823,62 +4823,62 @@
     </row>
     <row r="62" spans="1:11">
       <c r="D62">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="D63">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="D64">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73">
-        <v>9750</v>
+        <v>9416.666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -4945,7 +4945,7 @@
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>7595.3</v>
+        <v>2621.7</v>
       </c>
       <c r="D3">
         <v>8217</v>
@@ -4980,31 +4980,31 @@
         <v>3000</v>
       </c>
       <c r="C4">
-        <v>7135.77</v>
+        <v>2962.17</v>
       </c>
       <c r="D4">
-        <v>7595.3</v>
+        <v>2621.7</v>
       </c>
       <c r="E4">
-        <v>4595.3</v>
+        <v>-378.3000000000002</v>
       </c>
       <c r="F4">
-        <v>4595.3</v>
+        <v>378.3000000000002</v>
       </c>
       <c r="G4">
-        <v>29883935.545</v>
+        <v>19397099.945</v>
       </c>
       <c r="H4">
-        <v>5406.15</v>
+        <v>3297.65</v>
       </c>
       <c r="I4">
-        <v>153.1766666666667</v>
+        <v>12.61000000000001</v>
       </c>
       <c r="J4">
-        <v>232.0133333333333</v>
+        <v>161.73</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1.770563886403954</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5015,31 +5015,31 @@
         <v>3000</v>
       </c>
       <c r="C5">
-        <v>6722.193</v>
+        <v>2996.217</v>
       </c>
       <c r="D5">
-        <v>7135.77</v>
+        <v>2962.17</v>
       </c>
       <c r="E5">
-        <v>4135.77</v>
+        <v>-37.82999999999993</v>
       </c>
       <c r="F5">
-        <v>4135.77</v>
+        <v>37.82999999999993</v>
       </c>
       <c r="G5">
-        <v>25624154.86096667</v>
+        <v>12931876.99963333</v>
       </c>
       <c r="H5">
-        <v>4982.69</v>
+        <v>2211.043333333334</v>
       </c>
       <c r="I5">
-        <v>137.859</v>
+        <v>1.260999999999997</v>
       </c>
       <c r="J5">
-        <v>200.6285555555556</v>
+        <v>108.2403333333333</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2.623589466812802</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5050,31 +5050,31 @@
         <v>3000</v>
       </c>
       <c r="C6">
-        <v>6349.9737</v>
+        <v>2999.6217</v>
       </c>
       <c r="D6">
-        <v>6722.193</v>
+        <v>2996.217</v>
       </c>
       <c r="E6">
-        <v>3722.193</v>
+        <v>-3.782999999999902</v>
       </c>
       <c r="F6">
-        <v>3722.193</v>
+        <v>3.782999999999902</v>
       </c>
       <c r="G6">
-        <v>22681796.32803725</v>
+        <v>9698911.327497251</v>
       </c>
       <c r="H6">
-        <v>4667.56575</v>
+        <v>1659.22825</v>
       </c>
       <c r="I6">
-        <v>124.0731</v>
+        <v>0.1260999999999967</v>
       </c>
       <c r="J6">
-        <v>181.4896916666667</v>
+        <v>81.211775</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3.493845406742562</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5085,31 +5085,31 @@
         <v>4000</v>
       </c>
       <c r="C7">
-        <v>6114.97633</v>
+        <v>3899.96217</v>
       </c>
       <c r="D7">
-        <v>6349.9737</v>
+        <v>2999.6217</v>
       </c>
       <c r="E7">
-        <v>2349.9737</v>
+        <v>-1000.3783</v>
       </c>
       <c r="F7">
-        <v>2349.9737</v>
+        <v>1000.3783</v>
       </c>
       <c r="G7">
-        <v>19249912.34056814</v>
+        <v>7959280.410619979</v>
       </c>
       <c r="H7">
-        <v>4204.04734</v>
+        <v>1527.45826</v>
       </c>
       <c r="I7">
-        <v>58.74934250000001</v>
+        <v>25.00945750000001</v>
       </c>
       <c r="J7">
-        <v>156.9416218333333</v>
+        <v>69.9713115</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>3.140320639596396</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5120,31 +5120,31 @@
         <v>6000</v>
       </c>
       <c r="C8">
-        <v>6103.478697</v>
+        <v>5789.996217</v>
       </c>
       <c r="D8">
-        <v>6114.97633</v>
+        <v>3899.96217</v>
       </c>
       <c r="E8">
-        <v>114.9763300000004</v>
+        <v>-2100.03783</v>
       </c>
       <c r="F8">
-        <v>114.9763300000004</v>
+        <v>2100.03783</v>
       </c>
       <c r="G8">
-        <v>16043796.87655016</v>
+        <v>7367760.156755167</v>
       </c>
       <c r="H8">
-        <v>3522.535505</v>
+        <v>1622.888188333334</v>
       </c>
       <c r="I8">
-        <v>1.916272166666674</v>
+        <v>35.0006305</v>
       </c>
       <c r="J8">
-        <v>131.1040635555555</v>
+        <v>64.14286466666667</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>1.661649206264428</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5155,31 +5155,31 @@
         <v>7000</v>
       </c>
       <c r="C9">
-        <v>6193.1308273</v>
+        <v>6878.9996217</v>
       </c>
       <c r="D9">
-        <v>6103.478697</v>
+        <v>5789.996217</v>
       </c>
       <c r="E9">
-        <v>-896.5213029999995</v>
+        <v>-1210.003783</v>
       </c>
       <c r="F9">
-        <v>896.5213029999995</v>
+        <v>1210.003783</v>
       </c>
       <c r="G9">
-        <v>13866647.38657626</v>
+        <v>6524381.442200758</v>
       </c>
       <c r="H9">
-        <v>3147.390619</v>
+        <v>1563.904701857143</v>
       </c>
       <c r="I9">
-        <v>12.80744718571428</v>
+        <v>17.28576832857143</v>
       </c>
       <c r="J9">
-        <v>114.2045469312925</v>
+        <v>57.44899376122449</v>
       </c>
       <c r="K9">
-        <v>6.430308206685293</v>
+        <v>0.9506123264637389</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5190,31 +5190,31 @@
         <v>6000</v>
       </c>
       <c r="C10">
-        <v>6173.81774457</v>
+        <v>6087.89996217</v>
       </c>
       <c r="D10">
-        <v>6193.1308273</v>
+        <v>6878.9996217</v>
       </c>
       <c r="E10">
-        <v>193.1308273000004</v>
+        <v>878.9996216999998</v>
       </c>
       <c r="F10">
-        <v>193.1308273000004</v>
+        <v>878.9996216999998</v>
       </c>
       <c r="G10">
-        <v>12137978.90281092</v>
+        <v>5805413.803794256</v>
       </c>
       <c r="H10">
-        <v>2778.1081450375</v>
+        <v>1478.2915668375</v>
       </c>
       <c r="I10">
-        <v>3.218847121666673</v>
+        <v>14.649993695</v>
       </c>
       <c r="J10">
-        <v>100.3313344550893</v>
+        <v>52.09911875294642</v>
       </c>
       <c r="K10">
-        <v>7.354581422900009</v>
+        <v>1.6002707190983</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5225,31 +5225,31 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>6556.435970113001</v>
+        <v>9608.789996216999</v>
       </c>
       <c r="D11">
-        <v>6173.81774457</v>
+        <v>6087.89996217</v>
       </c>
       <c r="E11">
-        <v>-3826.18225543</v>
+        <v>-3912.10003783</v>
       </c>
       <c r="F11">
-        <v>3826.18225543</v>
+        <v>3912.10003783</v>
       </c>
       <c r="G11">
-        <v>12415944.65269498</v>
+        <v>6860870.79292706</v>
       </c>
       <c r="H11">
-        <v>2894.56082397</v>
+        <v>1748.714730281111</v>
       </c>
       <c r="I11">
-        <v>38.2618225543</v>
+        <v>39.1210003783</v>
       </c>
       <c r="J11">
-        <v>93.43472202166826</v>
+        <v>50.65710560020793</v>
       </c>
       <c r="K11">
-        <v>5.736842757408268</v>
+        <v>-0.8843256720788347</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5260,31 +5260,31 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>7100.792373101701</v>
+        <v>11760.8789996217</v>
       </c>
       <c r="D12">
-        <v>6556.435970113001</v>
+        <v>9608.789996216999</v>
       </c>
       <c r="E12">
-        <v>-5443.564029886999</v>
+        <v>-2391.210003783001</v>
       </c>
       <c r="F12">
-        <v>5443.564029886999</v>
+        <v>2391.210003783001</v>
       </c>
       <c r="G12">
-        <v>14137589.12217344</v>
+        <v>6746572.241853544</v>
       </c>
       <c r="H12">
-        <v>3149.4611445617</v>
+        <v>1812.9642576313</v>
       </c>
       <c r="I12">
-        <v>45.36303358239166</v>
+        <v>19.926750031525</v>
       </c>
       <c r="J12">
-        <v>88.62755317774059</v>
+        <v>47.58407004333964</v>
       </c>
       <c r="K12">
-        <v>3.544122551966391</v>
+        <v>-2.171936548852688</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5295,31 +5295,31 @@
         <v>14000</v>
       </c>
       <c r="C13">
-        <v>7790.71313579153</v>
+        <v>13776.08789996217</v>
       </c>
       <c r="D13">
-        <v>7100.792373101701</v>
+        <v>11760.8789996217</v>
       </c>
       <c r="E13">
-        <v>-6899.207626898299</v>
+        <v>-2239.1210003783</v>
       </c>
       <c r="F13">
-        <v>6899.207626898299</v>
+        <v>2239.1210003783</v>
       </c>
       <c r="G13">
-        <v>17179541.55461691</v>
+        <v>6589035.024806414</v>
       </c>
       <c r="H13">
-        <v>3490.347188410482</v>
+        <v>1851.705779699209</v>
       </c>
       <c r="I13">
-        <v>49.28005447784499</v>
+        <v>15.99372143127357</v>
       </c>
       <c r="J13">
-        <v>85.05050784138645</v>
+        <v>44.71222016951545</v>
       </c>
       <c r="K13">
-        <v>1.221330833860694</v>
+        <v>-3.335715857783117</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5330,31 +5330,31 @@
         <v>8000</v>
       </c>
       <c r="C14">
-        <v>7811.641822212378</v>
+        <v>8577.608789996217</v>
       </c>
       <c r="D14">
-        <v>7790.71313579153</v>
+        <v>13776.08789996217</v>
       </c>
       <c r="E14">
-        <v>-209.2868642084695</v>
+        <v>5776.087899962169</v>
       </c>
       <c r="F14">
-        <v>209.2868642084695</v>
+        <v>5776.087899962169</v>
       </c>
       <c r="G14">
-        <v>15751563.17435969</v>
+        <v>8820214.725079995</v>
       </c>
       <c r="H14">
-        <v>3216.925494726981</v>
+        <v>2178.737623054456</v>
       </c>
       <c r="I14">
-        <v>2.616085802605869</v>
+        <v>72.20109874952712</v>
       </c>
       <c r="J14">
-        <v>78.18097267148806</v>
+        <v>47.00296005118309</v>
       </c>
       <c r="K14">
-        <v>1.260079471694528</v>
+        <v>-0.183903022139678</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5365,31 +5365,31 @@
         <v>3000</v>
       </c>
       <c r="C15">
-        <v>7330.47763999114</v>
+        <v>3557.760878999622</v>
       </c>
       <c r="D15">
-        <v>7811.641822212378</v>
+        <v>8577.608789996217</v>
       </c>
       <c r="E15">
-        <v>4811.641822212378</v>
+        <v>5577.608789996217</v>
       </c>
       <c r="F15">
-        <v>4811.641822212378</v>
+        <v>5577.608789996217</v>
       </c>
       <c r="G15">
-        <v>16320819.62442919</v>
+        <v>10534792.039631</v>
       </c>
       <c r="H15">
-        <v>3339.595981456626</v>
+        <v>2440.189251280745</v>
       </c>
       <c r="I15">
-        <v>160.3880607404126</v>
+        <v>185.9202929998739</v>
       </c>
       <c r="J15">
-        <v>84.50459483063611</v>
+        <v>57.68890873954391</v>
       </c>
       <c r="K15">
-        <v>2.654579670509089</v>
+        <v>2.121529038762032</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5400,31 +5400,31 @@
         <v>4000</v>
       </c>
       <c r="C16">
-        <v>6997.429875992026</v>
+        <v>3955.776087899962</v>
       </c>
       <c r="D16">
-        <v>7330.47763999114</v>
+        <v>3557.760878999622</v>
       </c>
       <c r="E16">
-        <v>3330.47763999114</v>
+        <v>-442.2391210003784</v>
       </c>
       <c r="F16">
-        <v>3330.47763999114</v>
+        <v>442.2391210003784</v>
       </c>
       <c r="G16">
-        <v>15947338.31629003</v>
+        <v>9796276.568239015</v>
       </c>
       <c r="H16">
-        <v>3338.944671351949</v>
+        <v>2297.47852768929</v>
       </c>
       <c r="I16">
-        <v>83.26194099977849</v>
+        <v>11.05597802500946</v>
       </c>
       <c r="J16">
-        <v>84.4158338427177</v>
+        <v>54.35798511707717</v>
       </c>
       <c r="K16">
-        <v>3.652561644617391</v>
+        <v>2.060821539180462</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5435,31 +5435,31 @@
         <v>3000</v>
       </c>
       <c r="C17">
-        <v>6597.686888392824</v>
+        <v>3095.577608789996</v>
       </c>
       <c r="D17">
-        <v>6997.429875992026</v>
+        <v>3955.776087899962</v>
       </c>
       <c r="E17">
-        <v>3997.429875992026</v>
+        <v>955.776087899962</v>
       </c>
       <c r="F17">
-        <v>3997.429875992026</v>
+        <v>955.776087899962</v>
       </c>
       <c r="G17">
-        <v>15949478.80276894</v>
+        <v>9204091.992369836</v>
       </c>
       <c r="H17">
-        <v>3382.843684994621</v>
+        <v>2208.031698370002</v>
       </c>
       <c r="I17">
-        <v>133.2476625330675</v>
+        <v>31.85920292999874</v>
       </c>
       <c r="J17">
-        <v>87.67128908874103</v>
+        <v>52.85806630460527</v>
       </c>
       <c r="K17">
-        <v>4.786839896830032</v>
+        <v>2.577168311382235</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5470,31 +5470,31 @@
         <v>5000</v>
       </c>
       <c r="C18">
-        <v>6437.918199553542</v>
+        <v>4809.557760879</v>
       </c>
       <c r="D18">
-        <v>6597.686888392824</v>
+        <v>3095.577608789996</v>
       </c>
       <c r="E18">
-        <v>1597.686888392824</v>
+        <v>-1904.422391210004</v>
       </c>
       <c r="F18">
-        <v>1597.686888392824</v>
+        <v>1904.422391210004</v>
       </c>
       <c r="G18">
-        <v>15112174.08967977</v>
+        <v>8855512.783105599</v>
       </c>
       <c r="H18">
-        <v>3271.271385207009</v>
+        <v>2189.056116672502</v>
       </c>
       <c r="I18">
-        <v>31.95373776785647</v>
+        <v>38.08844782420007</v>
       </c>
       <c r="J18">
-        <v>84.18894213118574</v>
+        <v>51.93496514957995</v>
       </c>
       <c r="K18">
-        <v>5.438502621615658</v>
+        <v>1.729533977462252</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5505,31 +5505,31 @@
         <v>5000</v>
       </c>
       <c r="C19">
-        <v>6294.126379598188</v>
+        <v>4980.9557760879</v>
       </c>
       <c r="D19">
-        <v>6437.918199553542</v>
+        <v>4809.557760879</v>
       </c>
       <c r="E19">
-        <v>1437.918199553542</v>
+        <v>-190.4422391210001</v>
       </c>
       <c r="F19">
-        <v>1437.918199553542</v>
+        <v>190.4422391210001</v>
       </c>
       <c r="G19">
-        <v>14344846.71667551</v>
+        <v>8336733.692713588</v>
       </c>
       <c r="H19">
-        <v>3163.427080168569</v>
+        <v>2071.49059446359</v>
       </c>
       <c r="I19">
-        <v>28.75836399107083</v>
+        <v>3.808844782420001</v>
       </c>
       <c r="J19">
-        <v>80.92831988764956</v>
+        <v>49.10401689268819</v>
       </c>
       <c r="K19">
-        <v>6.078450906791096</v>
+        <v>1.73575718994116</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5540,31 +5540,31 @@
         <v>8000</v>
       </c>
       <c r="C20">
-        <v>6464.713741638369</v>
+        <v>7698.09557760879</v>
       </c>
       <c r="D20">
-        <v>6294.126379598188</v>
+        <v>4980.9557760879</v>
       </c>
       <c r="E20">
-        <v>-1705.873620401812</v>
+        <v>-3019.0442239121</v>
       </c>
       <c r="F20">
-        <v>1705.873620401812</v>
+        <v>3019.0442239121</v>
       </c>
       <c r="G20">
-        <v>13709577.72179258</v>
+        <v>8379950.044559334</v>
       </c>
       <c r="H20">
-        <v>3082.451887959305</v>
+        <v>2124.132462766285</v>
       </c>
       <c r="I20">
-        <v>21.32342025502265</v>
+        <v>37.73805279890126</v>
       </c>
       <c r="J20">
-        <v>77.61693657472586</v>
+        <v>48.47257444303336</v>
       </c>
       <c r="K20">
-        <v>5.684715681066836</v>
+        <v>0.2714333872439866</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5575,31 +5575,31 @@
         <v>3000</v>
       </c>
       <c r="C21">
-        <v>6118.242367474532</v>
+        <v>3469.809557760879</v>
       </c>
       <c r="D21">
-        <v>6464.713741638369</v>
+        <v>7698.09557760879</v>
       </c>
       <c r="E21">
-        <v>3464.713741638369</v>
+        <v>4698.09557760879</v>
       </c>
       <c r="F21">
-        <v>3464.713741638369</v>
+        <v>4698.09557760879</v>
       </c>
       <c r="G21">
-        <v>13619823.17388233</v>
+        <v>9100589.624127122</v>
       </c>
       <c r="H21">
-        <v>3102.570932889782</v>
+        <v>2259.604205652733</v>
       </c>
       <c r="I21">
-        <v>115.4904580546123</v>
+        <v>156.603185920293</v>
       </c>
       <c r="J21">
-        <v>79.61027981050935</v>
+        <v>54.16365925762597</v>
       </c>
       <c r="K21">
-        <v>6.76457582412356</v>
+        <v>2.334327416162983</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5610,31 +5610,31 @@
         <v>8000</v>
       </c>
       <c r="C22">
-        <v>6306.418130727079</v>
+        <v>7546.980955776088</v>
       </c>
       <c r="D22">
-        <v>6118.242367474532</v>
+        <v>3469.809557760879</v>
       </c>
       <c r="E22">
-        <v>-1881.757632525468</v>
+        <v>-4530.190442239122</v>
       </c>
       <c r="F22">
-        <v>1881.757632525468</v>
+        <v>4530.190442239122</v>
       </c>
       <c r="G22">
-        <v>13115882.6045666</v>
+        <v>9671691.4150685</v>
       </c>
       <c r="H22">
-        <v>3041.530267871567</v>
+        <v>2373.133517482052</v>
       </c>
       <c r="I22">
-        <v>23.52197040656835</v>
+        <v>56.62738052798903</v>
       </c>
       <c r="J22">
-        <v>76.8058643403123</v>
+        <v>54.28684532114413</v>
       </c>
       <c r="K22">
-        <v>6.281646740309871</v>
+        <v>0.3137057393564299</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5645,31 +5645,31 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>6875.776317654371</v>
+        <v>11554.69809557761</v>
       </c>
       <c r="D23">
-        <v>6306.418130727079</v>
+        <v>7546.980955776088</v>
       </c>
       <c r="E23">
-        <v>-5693.581869272921</v>
+        <v>-4453.019044223912</v>
       </c>
       <c r="F23">
-        <v>5693.581869272921</v>
+        <v>4453.019044223912</v>
       </c>
       <c r="G23">
-        <v>14034977.45683073</v>
+        <v>10155390.80521861</v>
       </c>
       <c r="H23">
-        <v>3167.818439366869</v>
+        <v>2472.175685422141</v>
       </c>
       <c r="I23">
-        <v>47.44651557727434</v>
+        <v>37.10849203519926</v>
       </c>
       <c r="J23">
-        <v>75.40780011350097</v>
+        <v>53.4688284980039</v>
       </c>
       <c r="K23">
-        <v>4.23390326187284</v>
+        <v>-1.500117269739031</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -5680,31 +5680,31 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>7388.198685888934</v>
+        <v>11955.46980955776</v>
       </c>
       <c r="D24">
-        <v>6875.776317654371</v>
+        <v>11554.69809557761</v>
       </c>
       <c r="E24">
-        <v>-5124.223682345629</v>
+        <v>-445.3019044223911</v>
       </c>
       <c r="F24">
-        <v>5124.223682345629</v>
+        <v>445.3019044223911</v>
       </c>
       <c r="G24">
-        <v>14590554.31546169</v>
+        <v>9702795.486166956</v>
       </c>
       <c r="H24">
-        <v>3256.745950411358</v>
+        <v>2380.045059013061</v>
       </c>
       <c r="I24">
-        <v>42.7018640195469</v>
+        <v>3.710849203519926</v>
       </c>
       <c r="J24">
-        <v>73.92116665468488</v>
+        <v>51.20710216643645</v>
       </c>
       <c r="K24">
-        <v>2.544875549799589</v>
+        <v>-1.745284329060375</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -5715,31 +5715,31 @@
         <v>16000</v>
       </c>
       <c r="C25">
-        <v>8249.378817300041</v>
+        <v>15595.54698095578</v>
       </c>
       <c r="D25">
-        <v>7388.198685888934</v>
+        <v>11955.46980955776</v>
       </c>
       <c r="E25">
-        <v>-8611.801314111066</v>
+        <v>-4044.530190442239</v>
       </c>
       <c r="F25">
-        <v>8611.801314111066</v>
+        <v>4044.530190442239</v>
       </c>
       <c r="G25">
-        <v>17180665.94842967</v>
+        <v>9992161.963350948</v>
       </c>
       <c r="H25">
-        <v>3489.574444485259</v>
+        <v>2452.413977770851</v>
       </c>
       <c r="I25">
-        <v>53.82375821319416</v>
+        <v>25.278313690264</v>
       </c>
       <c r="J25">
-        <v>73.04736628766355</v>
+        <v>50.07976353703765</v>
       </c>
       <c r="K25">
-        <v>-0.09278729488407254</v>
+        <v>-3.342985975739432</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -5750,31 +5750,31 @@
         <v>10000</v>
       </c>
       <c r="C26">
-        <v>8424.440935570037</v>
+        <v>10559.55469809558</v>
       </c>
       <c r="D26">
-        <v>8249.378817300041</v>
+        <v>15595.54698095578</v>
       </c>
       <c r="E26">
-        <v>-1750.621182699959</v>
+        <v>5595.546980955776</v>
       </c>
       <c r="F26">
-        <v>1750.621182699959</v>
+        <v>5595.546980955776</v>
       </c>
       <c r="G26">
-        <v>16592499.63913334</v>
+        <v>10880411.29888146</v>
       </c>
       <c r="H26">
-        <v>3417.118058577538</v>
+        <v>2583.377852903557</v>
       </c>
       <c r="I26">
-        <v>17.50621182699959</v>
+        <v>55.95546980955777</v>
       </c>
       <c r="J26">
-        <v>70.7331515184692</v>
+        <v>50.32458463172598</v>
       </c>
       <c r="K26">
-        <v>-0.6070639995867942</v>
+        <v>-1.007533044581188</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -5785,31 +5785,31 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>7781.996842013034</v>
+        <v>2855.955469809557</v>
       </c>
       <c r="D27">
-        <v>8424.440935570037</v>
+        <v>10559.55469809558</v>
       </c>
       <c r="E27">
-        <v>6424.440935570037</v>
+        <v>8559.554698095577</v>
       </c>
       <c r="F27">
-        <v>6424.440935570037</v>
+        <v>8559.554698095577</v>
       </c>
       <c r="G27">
-        <v>17579737.30695312</v>
+        <v>13375833.9121138</v>
       </c>
       <c r="H27">
-        <v>3537.410973657237</v>
+        <v>2822.424926711238</v>
       </c>
       <c r="I27">
-        <v>321.2220467785019</v>
+        <v>427.9777349047788</v>
       </c>
       <c r="J27">
-        <v>80.75270732887051</v>
+        <v>65.43071064264809</v>
       </c>
       <c r="K27">
-        <v>1.229721853712777</v>
+        <v>2.110495867678211</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -5820,31 +5820,31 @@
         <v>5000</v>
       </c>
       <c r="C28">
-        <v>7503.79715781173</v>
+        <v>4785.595546980956</v>
       </c>
       <c r="D28">
-        <v>7781.996842013034</v>
+        <v>2855.955469809557</v>
       </c>
       <c r="E28">
-        <v>2781.996842013034</v>
+        <v>-2144.044530190443</v>
       </c>
       <c r="F28">
-        <v>2781.996842013034</v>
+        <v>2144.044530190443</v>
       </c>
       <c r="G28">
-        <v>17201266.88856918</v>
+        <v>13038183.64424172</v>
       </c>
       <c r="H28">
-        <v>3508.356583978614</v>
+        <v>2796.333372998899</v>
       </c>
       <c r="I28">
-        <v>55.63993684026067</v>
+        <v>42.88089060380886</v>
       </c>
       <c r="J28">
-        <v>79.78683154084706</v>
+        <v>64.56340987192351</v>
       </c>
       <c r="K28">
-        <v>2.032868738158517</v>
+        <v>1.363453889754475</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -5855,31 +5855,31 @@
         <v>5000</v>
       </c>
       <c r="C29">
-        <v>7253.417442030557</v>
+        <v>4978.559554698096</v>
       </c>
       <c r="D29">
-        <v>7503.79715781173</v>
+        <v>4785.595546980956</v>
       </c>
       <c r="E29">
-        <v>2503.79715781173</v>
+        <v>-214.404453019044</v>
       </c>
       <c r="F29">
-        <v>2503.79715781173</v>
+        <v>214.404453019044</v>
       </c>
       <c r="G29">
-        <v>16796368.1226024</v>
+        <v>12556990.51925034</v>
       </c>
       <c r="H29">
-        <v>3471.150679305767</v>
+        <v>2700.706375962608</v>
       </c>
       <c r="I29">
-        <v>50.0759431562346</v>
+        <v>4.28808906038088</v>
       </c>
       <c r="J29">
-        <v>78.68642826734289</v>
+        <v>62.33099058260711</v>
       </c>
       <c r="K29">
-        <v>2.77597444476874</v>
+        <v>1.332342972739505</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -5890,31 +5890,31 @@
         <v>3000</v>
       </c>
       <c r="C30">
-        <v>6828.075697827501</v>
+        <v>3197.855955469809</v>
       </c>
       <c r="D30">
-        <v>7253.417442030557</v>
+        <v>4978.559554698096</v>
       </c>
       <c r="E30">
-        <v>4253.417442030557</v>
+        <v>1978.559554698096</v>
       </c>
       <c r="F30">
-        <v>4253.417442030557</v>
+        <v>1978.559554698096</v>
       </c>
       <c r="G30">
-        <v>16842624.97308695</v>
+        <v>12248337.21183022</v>
       </c>
       <c r="H30">
-        <v>3499.088777974509</v>
+        <v>2674.915418060304</v>
       </c>
       <c r="I30">
-        <v>141.7805814010186</v>
+        <v>65.95198515660319</v>
       </c>
       <c r="J30">
-        <v>80.93979087925989</v>
+        <v>62.46031181739268</v>
       </c>
       <c r="K30">
-        <v>3.96938857600663</v>
+        <v>2.08486095616012</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -5925,31 +5925,31 @@
         <v>4000</v>
       </c>
       <c r="C31">
-        <v>6545.268128044751</v>
+        <v>3919.785595546981</v>
       </c>
       <c r="D31">
-        <v>6828.075697827501</v>
+        <v>3197.855955469809</v>
       </c>
       <c r="E31">
-        <v>2828.075697827501</v>
+        <v>-802.1440445301905</v>
       </c>
       <c r="F31">
-        <v>2828.075697827501</v>
+        <v>802.1440445301905</v>
       </c>
       <c r="G31">
-        <v>16537638.3241061</v>
+        <v>11848168.17239384</v>
       </c>
       <c r="H31">
-        <v>3475.950395900474</v>
+        <v>2610.337094835128</v>
       </c>
       <c r="I31">
-        <v>70.70189244568753</v>
+        <v>20.05360111325476</v>
       </c>
       <c r="J31">
-        <v>80.58675989879187</v>
+        <v>60.99801144828447</v>
       </c>
       <c r="K31">
-        <v>4.809423845423362</v>
+        <v>1.82914409064705</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5960,31 +5960,31 @@
         <v>6000</v>
       </c>
       <c r="C32">
-        <v>6490.741315240276</v>
+        <v>5791.978559554698</v>
       </c>
       <c r="D32">
-        <v>6545.268128044751</v>
+        <v>3919.785595546981</v>
       </c>
       <c r="E32">
-        <v>545.2681280447514</v>
+        <v>-2080.214404453019</v>
       </c>
       <c r="F32">
-        <v>545.2681280447514</v>
+        <v>2080.214404453019</v>
       </c>
       <c r="G32">
-        <v>15996294.29101795</v>
+        <v>11597472.29893051</v>
       </c>
       <c r="H32">
-        <v>3378.26098697195</v>
+        <v>2592.666338489057</v>
       </c>
       <c r="I32">
-        <v>9.08780213407919</v>
+        <v>34.67024007421698</v>
       </c>
       <c r="J32">
-        <v>78.20346130663478</v>
+        <v>60.12041906914889</v>
       </c>
       <c r="K32">
-        <v>5.109903265073166</v>
+        <v>1.039265341305628</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5995,31 +5995,31 @@
         <v>7000</v>
       </c>
       <c r="C33">
-        <v>6541.667183716248</v>
+        <v>6879.19785595547</v>
       </c>
       <c r="D33">
-        <v>6490.741315240276</v>
+        <v>5791.978559554698</v>
       </c>
       <c r="E33">
-        <v>-509.258684759724</v>
+        <v>-1208.021440445302</v>
       </c>
       <c r="F33">
-        <v>509.258684759724</v>
+        <v>1208.021440445302</v>
       </c>
       <c r="G33">
-        <v>15488650.74640457</v>
+        <v>11270434.99253196</v>
       </c>
       <c r="H33">
-        <v>3285.712525610265</v>
+        <v>2548.000374036033</v>
       </c>
       <c r="I33">
-        <v>7.275124067996057</v>
+        <v>17.25744914921859</v>
       </c>
       <c r="J33">
-        <v>75.91545042796901</v>
+        <v>58.73774262011889</v>
       </c>
       <c r="K33">
-        <v>5.098841737448073</v>
+        <v>0.5833777898398067</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6030,31 +6030,31 @@
         <v>10000</v>
       </c>
       <c r="C34">
-        <v>6887.500465344624</v>
+        <v>9687.919785595546</v>
       </c>
       <c r="D34">
-        <v>6541.667183716248</v>
+        <v>6879.19785595547</v>
       </c>
       <c r="E34">
-        <v>-3458.332816283752</v>
+        <v>-3120.80214404453</v>
       </c>
       <c r="F34">
-        <v>3458.332816283752</v>
+        <v>3120.80214404453</v>
       </c>
       <c r="G34">
-        <v>15378382.46896021</v>
+        <v>11222590.33721137</v>
       </c>
       <c r="H34">
-        <v>3291.106909693812</v>
+        <v>2565.900429348799</v>
       </c>
       <c r="I34">
-        <v>34.58332816283752</v>
+        <v>31.2080214404453</v>
       </c>
       <c r="J34">
-        <v>74.62382160718366</v>
+        <v>57.87743883325409</v>
       </c>
       <c r="K34">
-        <v>4.039672885555301</v>
+        <v>-0.6369519637763855</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6065,31 +6065,31 @@
         <v>15000</v>
       </c>
       <c r="C35">
-        <v>7698.750418810162</v>
+        <v>14468.79197855955</v>
       </c>
       <c r="D35">
-        <v>6887.500465344624</v>
+        <v>9687.919785595546</v>
       </c>
       <c r="E35">
-        <v>-8112.499534655376</v>
+        <v>-5312.080214404454</v>
       </c>
       <c r="F35">
-        <v>8112.499534655376</v>
+        <v>5312.080214404454</v>
       </c>
       <c r="G35">
-        <v>16906693.56686395</v>
+        <v>11737608.69681912</v>
       </c>
       <c r="H35">
-        <v>3437.209716510829</v>
+        <v>2649.11799859291</v>
       </c>
       <c r="I35">
-        <v>54.08333023103584</v>
+        <v>35.4138680960297</v>
       </c>
       <c r="J35">
-        <v>74.00138247457312</v>
+        <v>57.19672456848971</v>
       </c>
       <c r="K35">
-        <v>1.50776246994881</v>
+        <v>-2.622169165519418</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6100,31 +6100,31 @@
         <v>15000</v>
       </c>
       <c r="C36">
-        <v>8428.875376929147</v>
+        <v>14946.87919785595</v>
       </c>
       <c r="D36">
-        <v>7698.750418810162</v>
+        <v>14468.79197855955</v>
       </c>
       <c r="E36">
-        <v>-7301.249581189838</v>
+        <v>-531.208021440445</v>
       </c>
       <c r="F36">
-        <v>7301.249581189838</v>
+        <v>531.208021440445</v>
       </c>
       <c r="G36">
-        <v>17977327.44568633</v>
+        <v>11400684.3810904</v>
       </c>
       <c r="H36">
-        <v>3550.857947824918</v>
+        <v>2586.82652867666</v>
       </c>
       <c r="I36">
-        <v>48.67499720793225</v>
+        <v>3.541386809602967</v>
       </c>
       <c r="J36">
-        <v>73.25648879026015</v>
+        <v>55.6186263991107</v>
       </c>
       <c r="K36">
-        <v>-0.5966878428885797</v>
+        <v>-2.890662930149636</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -6135,31 +6135,31 @@
         <v>18000</v>
       </c>
       <c r="C37">
-        <v>9385.987839236233</v>
+        <v>17694.6879197856</v>
       </c>
       <c r="D37">
-        <v>8428.875376929147</v>
+        <v>14946.87919785595</v>
       </c>
       <c r="E37">
-        <v>-9571.124623070853</v>
+        <v>-3053.120802144045</v>
       </c>
       <c r="F37">
-        <v>9571.124623070853</v>
+        <v>3053.120802144045</v>
       </c>
       <c r="G37">
-        <v>20081015.99153395</v>
+        <v>11341280.44541595</v>
       </c>
       <c r="H37">
-        <v>3722.865567117659</v>
+        <v>2600.1492222043</v>
       </c>
       <c r="I37">
-        <v>53.17291457261584</v>
+        <v>16.96178223413359</v>
       </c>
       <c r="J37">
-        <v>72.68267238404174</v>
+        <v>54.5141451372542</v>
       </c>
       <c r="K37">
-        <v>-3.140021626247677</v>
+        <v>-4.050061537002781</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -6170,31 +6170,31 @@
         <v>8000</v>
       </c>
       <c r="C38">
-        <v>9247.389055312611</v>
+        <v>8969.468791978559</v>
       </c>
       <c r="D38">
-        <v>9385.987839236233</v>
+        <v>17694.6879197856</v>
       </c>
       <c r="E38">
-        <v>1385.987839236233</v>
+        <v>9694.687919785596</v>
       </c>
       <c r="F38">
-        <v>1385.987839236233</v>
+        <v>9694.687919785596</v>
       </c>
       <c r="G38">
-        <v>19576570.05539442</v>
+        <v>13636994.1514332</v>
       </c>
       <c r="H38">
-        <v>3657.95229689873</v>
+        <v>2797.219741581559</v>
       </c>
       <c r="I38">
-        <v>17.32484799045292</v>
+        <v>121.1835989973199</v>
       </c>
       <c r="J38">
-        <v>71.14495503977538</v>
+        <v>56.36607441114492</v>
       </c>
       <c r="K38">
-        <v>-2.816846617125609</v>
+        <v>-0.2988955151085185</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -6205,31 +6205,31 @@
         <v>5000</v>
       </c>
       <c r="C39">
-        <v>8822.65014978135</v>
+        <v>5396.946879197856</v>
       </c>
       <c r="D39">
-        <v>9247.389055312611</v>
+        <v>8969.468791978559</v>
       </c>
       <c r="E39">
-        <v>4247.389055312611</v>
+        <v>3969.468791978559</v>
       </c>
       <c r="F39">
-        <v>4247.389055312611</v>
+        <v>3969.468791978559</v>
       </c>
       <c r="G39">
-        <v>19535049.6157132</v>
+        <v>13694283.02546181</v>
       </c>
       <c r="H39">
-        <v>3673.883020099106</v>
+        <v>2828.902148349045</v>
       </c>
       <c r="I39">
-        <v>84.94778110625222</v>
+        <v>79.38937583957119</v>
       </c>
       <c r="J39">
-        <v>71.5180043929234</v>
+        <v>56.98832580110239</v>
       </c>
       <c r="K39">
-        <v>-1.648528672437167</v>
+        <v>1.107635468506918</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6240,31 +6240,31 @@
         <v>4000</v>
       </c>
       <c r="C40">
-        <v>8340.385134803215</v>
+        <v>4139.694687919786</v>
       </c>
       <c r="D40">
-        <v>8822.65014978135</v>
+        <v>5396.946879197856</v>
       </c>
       <c r="E40">
-        <v>4822.65014978135</v>
+        <v>1396.946879197856</v>
       </c>
       <c r="F40">
-        <v>4822.65014978135</v>
+        <v>1396.946879197856</v>
       </c>
       <c r="G40">
-        <v>19633020.79601512</v>
+        <v>13385261.38224704</v>
       </c>
       <c r="H40">
-        <v>3704.113734038111</v>
+        <v>2791.21911495033</v>
       </c>
       <c r="I40">
-        <v>120.5662537445337</v>
+        <v>34.92367197994641</v>
       </c>
       <c r="J40">
-        <v>72.80874779691314</v>
+        <v>56.40767701633513</v>
       </c>
       <c r="K40">
-        <v>-0.3331029867398189</v>
+        <v>1.623068289902169</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -6275,31 +6275,31 @@
         <v>4000</v>
       </c>
       <c r="C41">
-        <v>7906.346621322894</v>
+        <v>4013.969468791979</v>
       </c>
       <c r="D41">
-        <v>8340.385134803215</v>
+        <v>4139.694687919786</v>
       </c>
       <c r="E41">
-        <v>4340.385134803215</v>
+        <v>139.6946879197858</v>
       </c>
       <c r="F41">
-        <v>4340.385134803215</v>
+        <v>139.6946879197858</v>
       </c>
       <c r="G41">
-        <v>19612659.82992296</v>
+        <v>13042549.92644155</v>
       </c>
       <c r="H41">
-        <v>3720.428385339781</v>
+        <v>2723.231309129033</v>
       </c>
       <c r="I41">
-        <v>108.5096283700804</v>
+        <v>3.492367197994644</v>
       </c>
       <c r="J41">
-        <v>73.72415499109692</v>
+        <v>55.05087420048024</v>
       </c>
       <c r="K41">
-        <v>0.8349935719801315</v>
+        <v>1.714886982941627</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -6310,31 +6310,31 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>7315.711959190605</v>
+        <v>2201.396946879198</v>
       </c>
       <c r="D42">
-        <v>7906.346621322894</v>
+        <v>4013.969468791979</v>
       </c>
       <c r="E42">
-        <v>5906.346621322894</v>
+        <v>2013.969468791979</v>
       </c>
       <c r="F42">
-        <v>5906.346621322894</v>
+        <v>2013.969468791979</v>
       </c>
       <c r="G42">
-        <v>19994466.59445519</v>
+        <v>12817888.00381117</v>
       </c>
       <c r="H42">
-        <v>3775.076341239359</v>
+        <v>2705.499763120607</v>
       </c>
       <c r="I42">
-        <v>295.3173310661447</v>
+        <v>100.6984734395989</v>
       </c>
       <c r="J42">
-        <v>79.26398439297311</v>
+        <v>56.19206418145821</v>
       </c>
       <c r="K42">
-        <v>2.38746970746957</v>
+        <v>2.470524478866302</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -6345,31 +6345,31 @@
         <v>5000</v>
       </c>
       <c r="C43">
-        <v>7084.140763271545</v>
+        <v>4720.139694687919</v>
       </c>
       <c r="D43">
-        <v>7315.711959190605</v>
+        <v>2201.396946879198</v>
       </c>
       <c r="E43">
-        <v>2315.711959190605</v>
+        <v>-2798.603053120802</v>
       </c>
       <c r="F43">
-        <v>2315.711959190605</v>
+        <v>2798.603053120802</v>
       </c>
       <c r="G43">
-        <v>19637589.89405234</v>
+        <v>12696285.34637522</v>
       </c>
       <c r="H43">
-        <v>3739.482088018658</v>
+        <v>2707.770575071831</v>
       </c>
       <c r="I43">
-        <v>46.31423918381209</v>
+        <v>55.97206106241605</v>
       </c>
       <c r="J43">
-        <v>78.46033207079844</v>
+        <v>56.18669825172546</v>
       </c>
       <c r="K43">
-        <v>3.029454908630681</v>
+        <v>1.434907512108026</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -6380,31 +6380,31 @@
         <v>7000</v>
       </c>
       <c r="C44">
-        <v>7075.72668694439</v>
+        <v>6772.013969468791</v>
       </c>
       <c r="D44">
-        <v>7084.140763271545</v>
+        <v>4720.139694687919</v>
       </c>
       <c r="E44">
-        <v>84.14076327154453</v>
+        <v>-2279.860305312081</v>
       </c>
       <c r="F44">
-        <v>84.14076327154453</v>
+        <v>2279.860305312081</v>
       </c>
       <c r="G44">
-        <v>19170196.79343309</v>
+        <v>12517749.10031242</v>
       </c>
       <c r="H44">
-        <v>3652.450151715155</v>
+        <v>2697.582235315646</v>
       </c>
       <c r="I44">
-        <v>1.202010903879208</v>
+        <v>32.56943293302972</v>
       </c>
       <c r="J44">
-        <v>76.62084823349085</v>
+        <v>55.62438241080414</v>
       </c>
       <c r="K44">
-        <v>3.124678683211287</v>
+        <v>0.5951774195813142</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -6415,31 +6415,31 @@
         <v>10000</v>
       </c>
       <c r="C45">
-        <v>7368.154018249951</v>
+        <v>9677.201396946879</v>
       </c>
       <c r="D45">
-        <v>7075.72668694439</v>
+        <v>6772.013969468791</v>
       </c>
       <c r="E45">
-        <v>-2924.27331305561</v>
+        <v>-3227.986030531209</v>
       </c>
       <c r="F45">
-        <v>2924.27331305561</v>
+        <v>3227.986030531209</v>
       </c>
       <c r="G45">
-        <v>18923247.43566602</v>
+        <v>12468961.76805642</v>
       </c>
       <c r="H45">
-        <v>3635.51580663005</v>
+        <v>2709.917207297404</v>
       </c>
       <c r="I45">
-        <v>29.2427331305561</v>
+        <v>32.27986030531208</v>
       </c>
       <c r="J45">
-        <v>75.51903160319003</v>
+        <v>55.08148654788572</v>
       </c>
       <c r="K45">
-        <v>2.334870832364491</v>
+        <v>-0.5987068506147136</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -6450,31 +6450,31 @@
         <v>14000</v>
       </c>
       <c r="C46">
-        <v>8031.338616424956</v>
+        <v>13567.72013969469</v>
       </c>
       <c r="D46">
-        <v>7368.154018249951</v>
+        <v>9677.201396946879</v>
       </c>
       <c r="E46">
-        <v>-6631.845981750049</v>
+        <v>-4322.798603053121</v>
       </c>
       <c r="F46">
-        <v>6631.845981750049</v>
+        <v>4322.798603053121</v>
       </c>
       <c r="G46">
-        <v>19492750.47407485</v>
+        <v>12610271.44974964</v>
       </c>
       <c r="H46">
-        <v>3703.614219700959</v>
+        <v>2746.573602655488</v>
       </c>
       <c r="I46">
-        <v>47.37032844107178</v>
+        <v>30.87713287895086</v>
       </c>
       <c r="J46">
-        <v>74.87928834950553</v>
+        <v>54.53138760086447</v>
       </c>
       <c r="K46">
-        <v>0.5012978473498864</v>
+        <v>-2.164604143108595</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -6485,31 +6485,31 @@
         <v>16000</v>
       </c>
       <c r="C47">
-        <v>8828.20475478246</v>
+        <v>15756.77201396947</v>
       </c>
       <c r="D47">
-        <v>8031.338616424956</v>
+        <v>13567.72013969469</v>
       </c>
       <c r="E47">
-        <v>-7968.661383575044</v>
+        <v>-2432.279860305312</v>
       </c>
       <c r="F47">
-        <v>7968.661383575044</v>
+        <v>2432.279860305312</v>
       </c>
       <c r="G47">
-        <v>20470679.6690083</v>
+        <v>12461509.53572958</v>
       </c>
       <c r="H47">
-        <v>3798.393045564827</v>
+        <v>2739.589297269928</v>
       </c>
       <c r="I47">
-        <v>49.80413364734402</v>
+        <v>15.2017491269082</v>
       </c>
       <c r="J47">
-        <v>74.3220626894575</v>
+        <v>53.65739563477655</v>
       </c>
       <c r="K47">
-        <v>-1.609114031777523</v>
+        <v>-3.057949039410579</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -6520,31 +6520,31 @@
         <v>16000</v>
       </c>
       <c r="C48">
-        <v>9545.384279304215</v>
+        <v>15975.67720139695</v>
       </c>
       <c r="D48">
-        <v>8828.20475478246</v>
+        <v>15756.77201396947</v>
       </c>
       <c r="E48">
-        <v>-7171.79524521754</v>
+        <v>-243.2279860305316</v>
       </c>
       <c r="F48">
-        <v>7171.79524521754</v>
+        <v>243.2279860305316</v>
       </c>
       <c r="G48">
-        <v>21143809.39444996</v>
+        <v>12191893.23828303</v>
       </c>
       <c r="H48">
-        <v>3871.72787599206</v>
+        <v>2685.32057311255</v>
       </c>
       <c r="I48">
-        <v>44.82372028260963</v>
+        <v>1.520174912690823</v>
       </c>
       <c r="J48">
-        <v>73.68079437626514</v>
+        <v>52.52397779299208</v>
       </c>
       <c r="K48">
-        <v>-3.43098565253332</v>
+        <v>-3.210325252155766</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -6555,31 +6555,31 @@
         <v>20000</v>
       </c>
       <c r="C49">
-        <v>10590.84585137379</v>
+        <v>19597.56772013969</v>
       </c>
       <c r="D49">
-        <v>9545.384279304215</v>
+        <v>15975.67720139695</v>
       </c>
       <c r="E49">
-        <v>-10454.61572069579</v>
+        <v>-4024.322798603054</v>
       </c>
       <c r="F49">
-        <v>10454.61572069579</v>
+        <v>4024.322798603054</v>
       </c>
       <c r="G49">
-        <v>23019451.53217272</v>
+        <v>12277069.42443353</v>
       </c>
       <c r="H49">
-        <v>4011.789319496394</v>
+        <v>2713.80998216554</v>
       </c>
       <c r="I49">
-        <v>52.27307860347893</v>
+        <v>20.12161399301527</v>
       </c>
       <c r="J49">
-        <v>73.22531106195055</v>
+        <v>51.83456579724789</v>
       </c>
       <c r="K49">
-        <v>-5.917174762486723</v>
+        <v>-4.659528606534668</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -6590,31 +6590,31 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>10731.76126623641</v>
+        <v>12759.75677201397</v>
       </c>
       <c r="D50">
-        <v>10590.84585137379</v>
+        <v>19597.56772013969</v>
       </c>
       <c r="E50">
-        <v>-1409.154148626207</v>
+        <v>7597.567720139694</v>
       </c>
       <c r="F50">
-        <v>1409.154148626207</v>
+        <v>7597.567720139694</v>
       </c>
       <c r="G50">
-        <v>22581248.69638976</v>
+        <v>13223860.37938509</v>
       </c>
       <c r="H50">
-        <v>3957.567753436599</v>
+        <v>2815.554935040002</v>
       </c>
       <c r="I50">
-        <v>11.74295123855172</v>
+        <v>63.31306433449745</v>
       </c>
       <c r="J50">
-        <v>71.94442856562976</v>
+        <v>52.0737011834406</v>
       </c>
       <c r="K50">
-        <v>-6.35431007858977</v>
+        <v>-1.792722088865321</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -6625,31 +6625,31 @@
         <v>5000</v>
       </c>
       <c r="C51">
-        <v>10158.58513961277</v>
+        <v>5775.975677201397</v>
       </c>
       <c r="D51">
-        <v>10731.76126623641</v>
+        <v>12759.75677201397</v>
       </c>
       <c r="E51">
-        <v>5731.761266236414</v>
+        <v>7759.756772013969</v>
       </c>
       <c r="F51">
-        <v>5731.761266236414</v>
+        <v>7759.756772013969</v>
       </c>
       <c r="G51">
-        <v>22790878.05387422</v>
+        <v>14182839.25247553</v>
       </c>
       <c r="H51">
-        <v>3993.775784310065</v>
+        <v>2916.457013345593</v>
       </c>
       <c r="I51">
-        <v>114.6352253247283</v>
+        <v>155.1951354402794</v>
       </c>
       <c r="J51">
-        <v>72.81566931581544</v>
+        <v>54.1782202499067</v>
       </c>
       <c r="K51">
-        <v>-4.861527648198152</v>
+        <v>0.929980875817078</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -6660,31 +6660,31 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>9342.726625651496</v>
+        <v>2377.59756772014</v>
       </c>
       <c r="D52">
-        <v>10158.58513961277</v>
+        <v>5775.975677201397</v>
       </c>
       <c r="E52">
-        <v>8158.585139612773</v>
+        <v>3775.975677201397</v>
       </c>
       <c r="F52">
-        <v>8158.585139612773</v>
+        <v>3775.975677201397</v>
       </c>
       <c r="G52">
-        <v>23666310.72240294</v>
+        <v>14184342.31372236</v>
       </c>
       <c r="H52">
-        <v>4077.07197141612</v>
+        <v>2933.647386622709</v>
       </c>
       <c r="I52">
-        <v>407.9292569806387</v>
+        <v>188.7987838600698</v>
       </c>
       <c r="J52">
-        <v>79.51794106911191</v>
+        <v>56.87063152210996</v>
       </c>
       <c r="K52">
-        <v>-2.761115412099237</v>
+        <v>2.211658072589564</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -6695,31 +6695,31 @@
         <v>3000</v>
       </c>
       <c r="C53">
-        <v>8708.453963086347</v>
+        <v>2937.759756772014</v>
       </c>
       <c r="D53">
-        <v>9342.726625651496</v>
+        <v>2377.59756772014</v>
       </c>
       <c r="E53">
-        <v>6342.726625651496</v>
+        <v>-622.4024322798605</v>
       </c>
       <c r="F53">
-        <v>6342.726625651496</v>
+        <v>622.4024322798605</v>
       </c>
       <c r="G53">
-        <v>23991092.49348814</v>
+        <v>13913813.7347809</v>
       </c>
       <c r="H53">
-        <v>4121.496572479558</v>
+        <v>2888.328858106182</v>
       </c>
       <c r="I53">
-        <v>211.4242208550499</v>
+        <v>20.74674774266202</v>
       </c>
       <c r="J53">
-        <v>82.10433871197343</v>
+        <v>56.16232007545412</v>
       </c>
       <c r="K53">
-        <v>-1.192416284822167</v>
+        <v>2.030870714743206</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -6730,31 +6730,31 @@
         <v>2000</v>
       </c>
       <c r="C54">
-        <v>8037.608566777712</v>
+        <v>2093.775975677201</v>
       </c>
       <c r="D54">
-        <v>8708.453963086347</v>
+        <v>2937.759756772014</v>
       </c>
       <c r="E54">
-        <v>6708.453963086347</v>
+        <v>937.759756772014</v>
       </c>
       <c r="F54">
-        <v>6708.453963086347</v>
+        <v>937.759756772014</v>
       </c>
       <c r="G54">
-        <v>24395174.45659123</v>
+        <v>13663151.80452398</v>
       </c>
       <c r="H54">
-        <v>4171.24575306815</v>
+        <v>2850.817913849756</v>
       </c>
       <c r="I54">
-        <v>335.4226981543173</v>
+        <v>46.8879878386007</v>
       </c>
       <c r="J54">
-        <v>86.9758456243262</v>
+        <v>55.98396753243771</v>
       </c>
       <c r="K54">
-        <v>0.4300668045999126</v>
+        <v>2.386536936012149</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -6765,31 +6765,31 @@
         <v>7000</v>
       </c>
       <c r="C55">
-        <v>7933.847710099942</v>
+        <v>6509.37759756772</v>
       </c>
       <c r="D55">
-        <v>8037.608566777712</v>
+        <v>2093.775975677201</v>
       </c>
       <c r="E55">
-        <v>1037.608566777712</v>
+        <v>-4906.224024322799</v>
       </c>
       <c r="F55">
-        <v>1037.608566777712</v>
+        <v>4906.224024322799</v>
       </c>
       <c r="G55">
-        <v>23955201.94869046</v>
+        <v>13859526.94362432</v>
       </c>
       <c r="H55">
-        <v>4112.120523138143</v>
+        <v>2889.599161217172</v>
       </c>
       <c r="I55">
-        <v>14.82297952539589</v>
+        <v>70.08891463318284</v>
       </c>
       <c r="J55">
-        <v>85.61447079227089</v>
+        <v>56.25009860981026</v>
       </c>
       <c r="K55">
-        <v>0.6885797444574476</v>
+        <v>0.6566164090819886</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -6800,31 +6800,31 @@
         <v>6000</v>
       </c>
       <c r="C56">
-        <v>7740.462939089947</v>
+        <v>6050.937759756772</v>
       </c>
       <c r="D56">
-        <v>7933.847710099942</v>
+        <v>6509.37759756772</v>
       </c>
       <c r="E56">
-        <v>1933.847710099942</v>
+        <v>509.3775975677199</v>
       </c>
       <c r="F56">
-        <v>1933.847710099942</v>
+        <v>509.3775975677199</v>
       </c>
       <c r="G56">
-        <v>23580842.04160099</v>
+        <v>13607673.95461098</v>
       </c>
       <c r="H56">
-        <v>4071.782137711509</v>
+        <v>2845.520984112552</v>
       </c>
       <c r="I56">
-        <v>32.23079516833236</v>
+        <v>8.489626626128665</v>
       </c>
       <c r="J56">
-        <v>84.62588420664241</v>
+        <v>55.36564542492726</v>
       </c>
       <c r="K56">
-        <v>1.170340270655773</v>
+        <v>0.8457979526174771</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -6835,31 +6835,31 @@
         <v>8000</v>
       </c>
       <c r="C57">
-        <v>7766.416645180952</v>
+        <v>7805.093775975677</v>
       </c>
       <c r="D57">
-        <v>7740.462939089947</v>
+        <v>6050.937759756772</v>
       </c>
       <c r="E57">
-        <v>-259.5370609100528</v>
+        <v>-1949.062240243228</v>
       </c>
       <c r="F57">
-        <v>259.5370609100528</v>
+        <v>1949.062240243228</v>
       </c>
       <c r="G57">
-        <v>23153324.17695344</v>
+        <v>13429331.58482427</v>
       </c>
       <c r="H57">
-        <v>4002.468590860574</v>
+        <v>2829.221734224019</v>
       </c>
       <c r="I57">
-        <v>3.24421326137566</v>
+        <v>24.36327800304035</v>
       </c>
       <c r="J57">
-        <v>83.14621746218302</v>
+        <v>54.80196601725659</v>
       </c>
       <c r="K57">
-        <v>1.125763624598931</v>
+        <v>0.1617666005859258</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -6870,31 +6870,31 @@
         <v>10000</v>
       </c>
       <c r="C58">
-        <v>7989.774980662857</v>
+        <v>9780.509377597567</v>
       </c>
       <c r="D58">
-        <v>7766.416645180952</v>
+        <v>7805.093775975677</v>
       </c>
       <c r="E58">
-        <v>-2233.583354819048</v>
+        <v>-2194.906224024323</v>
       </c>
       <c r="F58">
-        <v>2233.583354819048</v>
+        <v>2194.906224024323</v>
       </c>
       <c r="G58">
-        <v>22828959.3631315</v>
+        <v>13275550.90174277</v>
       </c>
       <c r="H58">
-        <v>3970.881354502688</v>
+        <v>2817.894671541882</v>
       </c>
       <c r="I58">
-        <v>22.33583354819048</v>
+        <v>21.94906224024323</v>
       </c>
       <c r="J58">
-        <v>82.06031774943315</v>
+        <v>54.21530702123849</v>
       </c>
       <c r="K58">
-        <v>0.5722281756907598</v>
+        <v>-0.6165002046810044</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -6905,31 +6905,31 @@
         <v>20000</v>
       </c>
       <c r="C59">
-        <v>9190.797482596572</v>
+        <v>18978.05093775976</v>
       </c>
       <c r="D59">
-        <v>7989.774980662857</v>
+        <v>9780.509377597567</v>
       </c>
       <c r="E59">
-        <v>-12010.22501933714</v>
+        <v>-10219.49062240243</v>
       </c>
       <c r="F59">
-        <v>12010.22501933714</v>
+        <v>10219.49062240243</v>
       </c>
       <c r="G59">
-        <v>24959074.19913115</v>
+        <v>14874891.91366608</v>
       </c>
       <c r="H59">
-        <v>4111.922471429609</v>
+        <v>2947.747232083295</v>
       </c>
       <c r="I59">
-        <v>60.05112509668572</v>
+        <v>51.09745311201216</v>
       </c>
       <c r="J59">
-        <v>81.67419156254284</v>
+        <v>54.16060782984856</v>
       </c>
       <c r="K59">
-        <v>-2.368229190512917</v>
+        <v>-4.056224066310871</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -6940,31 +6940,31 @@
         <v>20000</v>
       </c>
       <c r="C60">
-        <v>10271.71773433691</v>
+        <v>19897.80509377598</v>
       </c>
       <c r="D60">
-        <v>9190.797482596572</v>
+        <v>18978.05093775976</v>
       </c>
       <c r="E60">
-        <v>-10809.20251740343</v>
+        <v>-1021.949062240245</v>
       </c>
       <c r="F60">
-        <v>10809.20251740343</v>
+        <v>1021.949062240245</v>
       </c>
       <c r="G60">
-        <v>26543208.4209089</v>
+        <v>14636434.80973759</v>
       </c>
       <c r="H60">
-        <v>4227.392817049847</v>
+        <v>2914.543815361863</v>
       </c>
       <c r="I60">
-        <v>54.04601258701715</v>
+        <v>5.109745311201222</v>
       </c>
       <c r="J60">
-        <v>81.19784364917172</v>
+        <v>53.31490330366498</v>
       </c>
       <c r="K60">
-        <v>-4.860484519086689</v>
+        <v>-4.453071612102821</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -6975,31 +6975,31 @@
         <v>22000</v>
       </c>
       <c r="C61">
-        <v>11444.54596090322</v>
+        <v>21789.7805093776</v>
       </c>
       <c r="D61">
-        <v>10271.71773433691</v>
+        <v>19897.80509377598</v>
       </c>
       <c r="E61">
-        <v>-11728.28226566309</v>
+        <v>-2102.194906224024</v>
       </c>
       <c r="F61">
-        <v>11728.28226566309</v>
+        <v>2102.194906224024</v>
       </c>
       <c r="G61">
-        <v>28424723.61552176</v>
+        <v>14463261.73539889</v>
       </c>
       <c r="H61">
-        <v>4354.526536517867</v>
+        <v>2900.775189783256</v>
       </c>
       <c r="I61">
-        <v>53.3103739348322</v>
+        <v>9.555431391927382</v>
       </c>
       <c r="J61">
-        <v>80.72517467096257</v>
+        <v>52.57321733905926</v>
       </c>
       <c r="K61">
-        <v>-7.411933154698712</v>
+        <v>-5.198909341805497</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -7010,91 +7010,91 @@
         <v>8000</v>
       </c>
       <c r="C62">
-        <v>11100.0913648129</v>
+        <v>9378.97805093776</v>
       </c>
       <c r="D62">
-        <v>11444.54596090322</v>
+        <v>21789.7805093776</v>
       </c>
       <c r="E62">
-        <v>3444.545960903224</v>
+        <v>13789.7805093776</v>
       </c>
       <c r="F62">
-        <v>3444.545960903224</v>
+        <v>13789.7805093776</v>
       </c>
       <c r="G62">
-        <v>28148726.5032093</v>
+        <v>17391508.14808908</v>
       </c>
       <c r="H62">
-        <v>4339.360193590957</v>
+        <v>3082.258611776495</v>
       </c>
       <c r="I62">
-        <v>43.0568245112903</v>
+        <v>172.37225636722</v>
       </c>
       <c r="J62">
-        <v>80.09736883496802</v>
+        <v>54.5698679895286</v>
       </c>
       <c r="K62">
-        <v>-6.644047131812402</v>
+        <v>-0.4188768321812082</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="D63">
-        <v>11444.54596090322</v>
+        <v>9378.97805093776</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="D64">
-        <v>11444.54596090322</v>
+        <v>9378.97805093776</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65">
-        <v>11444.54596090322</v>
+        <v>9378.97805093776</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66">
-        <v>11444.54596090322</v>
+        <v>9378.97805093776</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67">
-        <v>11444.54596090322</v>
+        <v>9378.97805093776</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68">
-        <v>11444.54596090322</v>
+        <v>9378.97805093776</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69">
-        <v>11444.54596090322</v>
+        <v>9378.97805093776</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70">
-        <v>11444.54596090322</v>
+        <v>9378.97805093776</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71">
-        <v>11444.54596090322</v>
+        <v>9378.97805093776</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72">
-        <v>11444.54596090322</v>
+        <v>9378.97805093776</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73">
-        <v>11444.54596090322</v>
+        <v>9378.97805093776</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74">
-        <v>11444.54596090322</v>
+        <v>9378.97805093776</v>
       </c>
     </row>
   </sheetData>
@@ -7167,10 +7167,10 @@
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>4621.7</v>
+        <v>2291.3</v>
       </c>
       <c r="D3">
-        <v>82.86999999999998</v>
+        <v>-150.17</v>
       </c>
       <c r="E3">
         <v>4913</v>
@@ -7205,34 +7205,34 @@
         <v>3000</v>
       </c>
       <c r="C4">
-        <v>4534.113</v>
+        <v>2914.113</v>
       </c>
       <c r="D4">
-        <v>65.82430000000004</v>
+        <v>-72.8717</v>
       </c>
       <c r="E4">
-        <v>4704.57</v>
+        <v>2141.13</v>
       </c>
       <c r="F4">
-        <v>1704.57</v>
+        <v>-858.8700000000003</v>
       </c>
       <c r="G4">
-        <v>1704.57</v>
+        <v>858.8700000000003</v>
       </c>
       <c r="H4">
-        <v>5695563.94245</v>
+        <v>4611613.338450001</v>
       </c>
       <c r="I4">
-        <v>2308.785</v>
+        <v>1885.935</v>
       </c>
       <c r="J4">
-        <v>56.81899999999999</v>
+        <v>28.62900000000001</v>
       </c>
       <c r="K4">
-        <v>101.2345</v>
+        <v>87.1395</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1.08918387961409</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -7243,34 +7243,34 @@
         <v>3000</v>
       </c>
       <c r="C5">
-        <v>4439.94357</v>
+        <v>2984.12413</v>
       </c>
       <c r="D5">
-        <v>49.82492700000005</v>
+        <v>-58.58341699999997</v>
       </c>
       <c r="E5">
-        <v>4599.937300000001</v>
+        <v>2841.2413</v>
       </c>
       <c r="F5">
-        <v>1599.937300000001</v>
+        <v>-158.7587000000003</v>
       </c>
       <c r="G5">
-        <v>1599.937300000001</v>
+        <v>158.7587000000003</v>
       </c>
       <c r="H5">
-        <v>4650309.082943764</v>
+        <v>3082810.333908563</v>
       </c>
       <c r="I5">
-        <v>2072.502433333334</v>
+        <v>1310.209566666667</v>
       </c>
       <c r="J5">
-        <v>53.33124333333335</v>
+        <v>5.291956666666677</v>
       </c>
       <c r="K5">
-        <v>85.26674777777777</v>
+        <v>59.85698555555555</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>1.446616898716482</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -7281,34 +7281,34 @@
         <v>3000</v>
       </c>
       <c r="C6">
-        <v>4340.7916473</v>
+        <v>2992.5540713</v>
       </c>
       <c r="D6">
-        <v>34.92724203000005</v>
+        <v>-51.88208116999999</v>
       </c>
       <c r="E6">
-        <v>4489.768497</v>
+        <v>2925.540713</v>
       </c>
       <c r="F6">
-        <v>1489.768497</v>
+        <v>-74.45928699999968</v>
       </c>
       <c r="G6">
-        <v>1489.768497</v>
+        <v>74.45928699999968</v>
       </c>
       <c r="H6">
-        <v>4042584.355871232</v>
+        <v>2313493.79678656</v>
       </c>
       <c r="I6">
-        <v>1926.81894925</v>
+        <v>1001.27199675</v>
       </c>
       <c r="J6">
-        <v>49.6589499</v>
+        <v>2.481976233333322</v>
       </c>
       <c r="K6">
-        <v>76.36479830833332</v>
+        <v>45.51323322499999</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>1.81859876128609</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -7319,34 +7319,34 @@
         <v>4000</v>
       </c>
       <c r="C7">
-        <v>4338.147000397001</v>
+        <v>3894.067199013</v>
       </c>
       <c r="D7">
-        <v>31.17005313670007</v>
+        <v>43.45743971830001</v>
       </c>
       <c r="E7">
-        <v>4375.718889330001</v>
+        <v>2940.67199013</v>
       </c>
       <c r="F7">
-        <v>375.7188893300008</v>
+        <v>-1059.32800987</v>
       </c>
       <c r="G7">
-        <v>375.7188893300008</v>
+        <v>1059.32800987</v>
       </c>
       <c r="H7">
-        <v>3262300.421456859</v>
+        <v>2075230.203928275</v>
       </c>
       <c r="I7">
-        <v>1616.598937266</v>
+        <v>1012.883199374</v>
       </c>
       <c r="J7">
-        <v>9.392972233250021</v>
+        <v>26.48320024674999</v>
       </c>
       <c r="K7">
-        <v>62.97043309331666</v>
+        <v>41.70722662934999</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>0.7518971620821507</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -7357,34 +7357,34 @@
         <v>6000</v>
       </c>
       <c r="C8">
-        <v>4532.385348180331</v>
+        <v>5793.75246387313</v>
       </c>
       <c r="D8">
-        <v>47.47688260136307</v>
+        <v>229.0802222324831</v>
       </c>
       <c r="E8">
-        <v>4369.317053533701</v>
+        <v>3937.5246387313</v>
       </c>
       <c r="F8">
-        <v>-1630.682946466299</v>
+        <v>-2062.4753612687</v>
       </c>
       <c r="G8">
-        <v>1630.682946466299</v>
+        <v>2062.4753612687</v>
       </c>
       <c r="H8">
-        <v>3161771.496530051</v>
+        <v>2438325.939246971</v>
       </c>
       <c r="I8">
-        <v>1618.946272132717</v>
+        <v>1187.81522635645</v>
       </c>
       <c r="J8">
-        <v>27.17804910777165</v>
+        <v>34.37458935447834</v>
       </c>
       <c r="K8">
-        <v>57.00503576239249</v>
+        <v>40.48512041687138</v>
       </c>
       <c r="L8">
-        <v>3.985500847636999</v>
+        <v>-1.095196735378704</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -7395,34 +7395,34 @@
         <v>7000</v>
       </c>
       <c r="C9">
-        <v>4821.876007703525</v>
+        <v>6902.283268610561</v>
       </c>
       <c r="D9">
-        <v>71.67826029354617</v>
+        <v>317.0252804829778</v>
       </c>
       <c r="E9">
-        <v>4579.862230781694</v>
+        <v>6022.832686105613</v>
       </c>
       <c r="F9">
-        <v>-2420.137769218306</v>
+        <v>-977.167313894387</v>
       </c>
       <c r="G9">
-        <v>2420.137769218306</v>
+        <v>977.167313894387</v>
       </c>
       <c r="H9">
-        <v>3546813.685882466</v>
+        <v>2226401.656403628</v>
       </c>
       <c r="I9">
-        <v>1733.402200287801</v>
+        <v>1157.722667433298</v>
       </c>
       <c r="J9">
-        <v>34.57339670311866</v>
+        <v>13.9595330556341</v>
       </c>
       <c r="K9">
-        <v>53.80051589678194</v>
+        <v>36.69575079383748</v>
       </c>
       <c r="L9">
-        <v>2.326161793250248</v>
+        <v>-1.967706719506152</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -7433,34 +7433,34 @@
         <v>6000</v>
       </c>
       <c r="C10">
-        <v>5004.198841197364</v>
+        <v>6121.930854909354</v>
       </c>
       <c r="D10">
-        <v>82.74271761357551</v>
+        <v>207.2875110645593</v>
       </c>
       <c r="E10">
-        <v>4893.554267997071</v>
+        <v>7219.308549093539</v>
       </c>
       <c r="F10">
-        <v>-1106.445732002929</v>
+        <v>1219.308549093539</v>
       </c>
       <c r="G10">
-        <v>1106.445732002929</v>
+        <v>1219.308549093539</v>
       </c>
       <c r="H10">
-        <v>3256489.744880595</v>
+        <v>2133940.616589749</v>
       </c>
       <c r="I10">
-        <v>1655.032641752192</v>
+        <v>1165.420902640828</v>
       </c>
       <c r="J10">
-        <v>18.44076220004881</v>
+        <v>20.32180915155899</v>
       </c>
       <c r="K10">
-        <v>49.3805466846903</v>
+        <v>34.64900808855268</v>
       </c>
       <c r="L10">
-        <v>1.767776758496427</v>
+        <v>-0.9084701677655123</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -7471,34 +7471,34 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>5578.247402929846</v>
+        <v>9632.92183659739</v>
       </c>
       <c r="D11">
-        <v>131.8733020254661</v>
+        <v>537.6578581269071</v>
       </c>
       <c r="E11">
-        <v>5086.94155881094</v>
+        <v>6329.218365973913</v>
       </c>
       <c r="F11">
-        <v>-4913.05844118906</v>
+        <v>-3670.781634026087</v>
       </c>
       <c r="G11">
-        <v>4913.05844118906</v>
+        <v>3670.781634026087</v>
       </c>
       <c r="H11">
-        <v>5576673.467287093</v>
+        <v>3394018.081935691</v>
       </c>
       <c r="I11">
-        <v>2017.035508356288</v>
+        <v>1443.79431723919</v>
       </c>
       <c r="J11">
-        <v>49.1305844118906</v>
+        <v>36.70781634026087</v>
       </c>
       <c r="K11">
-        <v>49.35277309882367</v>
+        <v>34.8777645609647</v>
       </c>
       <c r="L11">
-        <v>-0.9852727898509318</v>
+        <v>-3.27576559936141</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -7509,34 +7509,34 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>6339.108634459781</v>
+        <v>11817.05796947243</v>
       </c>
       <c r="D12">
-        <v>194.772094975913</v>
+        <v>702.3056856017203</v>
       </c>
       <c r="E12">
-        <v>5710.120704955311</v>
+        <v>10170.5796947243</v>
       </c>
       <c r="F12">
-        <v>-6289.879295044689</v>
+        <v>-1829.420305275702</v>
       </c>
       <c r="G12">
-        <v>6289.879295044689</v>
+        <v>1829.420305275702</v>
       </c>
       <c r="H12">
-        <v>8975264.275181571</v>
+        <v>3389294.139077626</v>
       </c>
       <c r="I12">
-        <v>2444.319887025128</v>
+        <v>1482.356916042841</v>
       </c>
       <c r="J12">
-        <v>52.41566079203908</v>
+        <v>15.24516921063085</v>
       </c>
       <c r="K12">
-        <v>49.65906186814521</v>
+        <v>32.91450502593132</v>
       </c>
       <c r="L12">
-        <v>-3.386303708253628</v>
+        <v>-4.424678018672108</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -7547,34 +7547,34 @@
         <v>14000</v>
       </c>
       <c r="C13">
-        <v>7280.492656492124</v>
+        <v>13851.93636550742</v>
       </c>
       <c r="D13">
-        <v>269.4332876815561</v>
+        <v>835.5629566450468</v>
       </c>
       <c r="E13">
-        <v>6533.880729435694</v>
+        <v>12519.36365507415</v>
       </c>
       <c r="F13">
-        <v>-7466.119270564306</v>
+        <v>-1480.63634492585</v>
       </c>
       <c r="G13">
-        <v>7466.119270564306</v>
+        <v>1480.63634492585</v>
       </c>
       <c r="H13">
-        <v>13226870.88310067</v>
+        <v>3280475.034244694</v>
       </c>
       <c r="I13">
-        <v>2900.847103710508</v>
+        <v>1482.200500486751</v>
       </c>
       <c r="J13">
-        <v>53.32942336117361</v>
+        <v>10.5759738923275</v>
       </c>
       <c r="K13">
-        <v>49.99273109478415</v>
+        <v>30.88372946833097</v>
       </c>
       <c r="L13">
-        <v>-5.42714876217299</v>
+        <v>-5.424089658940881</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -7585,34 +7585,34 @@
         <v>8000</v>
       </c>
       <c r="C14">
-        <v>7594.933349756312</v>
+        <v>8668.749932215245</v>
       </c>
       <c r="D14">
-        <v>273.9340282398193</v>
+        <v>233.6880176513251</v>
       </c>
       <c r="E14">
-        <v>7549.92594417368</v>
+        <v>14687.49932215246</v>
       </c>
       <c r="F14">
-        <v>-450.0740558263196</v>
+        <v>6687.499322152462</v>
       </c>
       <c r="G14">
-        <v>450.0740558263196</v>
+        <v>6687.499322152462</v>
       </c>
       <c r="H14">
-        <v>12141512.19748628</v>
+        <v>6733989.380040106</v>
       </c>
       <c r="I14">
-        <v>2696.616016386826</v>
+        <v>1915.975402292227</v>
       </c>
       <c r="J14">
-        <v>5.625925697828996</v>
+        <v>83.59374152690577</v>
       </c>
       <c r="K14">
-        <v>46.29549731170456</v>
+        <v>35.2762304732122</v>
       </c>
       <c r="L14">
-        <v>-6.005082935641433</v>
+        <v>-0.7056922982399029</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -7623,34 +7623,34 @@
         <v>3000</v>
       </c>
       <c r="C15">
-        <v>7381.980640196518</v>
+        <v>3590.243794986657</v>
       </c>
       <c r="D15">
-        <v>225.2453544598579</v>
+        <v>-297.5313978366662</v>
       </c>
       <c r="E15">
-        <v>7868.867377996131</v>
+        <v>8902.437949866571</v>
       </c>
       <c r="F15">
-        <v>4868.867377996131</v>
+        <v>5902.437949866571</v>
       </c>
       <c r="G15">
-        <v>4868.867377996131</v>
+        <v>5902.437949866571</v>
       </c>
       <c r="H15">
-        <v>13031078.14725771</v>
+        <v>8895895.870192798</v>
       </c>
       <c r="I15">
-        <v>2863.712274972157</v>
+        <v>2222.626367490254</v>
       </c>
       <c r="J15">
-        <v>162.2955792665377</v>
+        <v>196.747931662219</v>
       </c>
       <c r="K15">
-        <v>55.21858053899942</v>
+        <v>47.69713056467427</v>
       </c>
       <c r="L15">
-        <v>-3.954494850952119</v>
+        <v>2.047284659000069</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -7661,34 +7661,34 @@
         <v>4000</v>
       </c>
       <c r="C16">
-        <v>7246.503395190738</v>
+        <v>3929.271239714999</v>
       </c>
       <c r="D16">
-        <v>189.1730945132942</v>
+        <v>-233.8755135801654</v>
       </c>
       <c r="E16">
-        <v>7607.225994656375</v>
+        <v>3292.712397149991</v>
       </c>
       <c r="F16">
-        <v>3607.225994656375</v>
+        <v>-707.2876028500091</v>
       </c>
       <c r="G16">
-        <v>3607.225994656375</v>
+        <v>707.2876028500091</v>
       </c>
       <c r="H16">
-        <v>13029721.09220535</v>
+        <v>8296207.290403692</v>
       </c>
       <c r="I16">
-        <v>2916.820397806744</v>
+        <v>2114.387884301665</v>
       </c>
       <c r="J16">
-        <v>90.1806498664094</v>
+        <v>17.68219007125023</v>
       </c>
       <c r="K16">
-        <v>57.71587120524298</v>
+        <v>45.55320624371541</v>
       </c>
       <c r="L16">
-        <v>-2.645795214930719</v>
+        <v>1.817576278475089</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -7699,34 +7699,34 @@
         <v>3000</v>
       </c>
       <c r="C17">
-        <v>6992.108840733629</v>
+        <v>3069.539572613483</v>
       </c>
       <c r="D17">
-        <v>144.8163296162539</v>
+        <v>-296.4611289323004</v>
       </c>
       <c r="E17">
-        <v>7435.676489704032</v>
+        <v>3695.395726134834</v>
       </c>
       <c r="F17">
-        <v>4435.676489704032</v>
+        <v>695.3957261348337</v>
       </c>
       <c r="G17">
-        <v>4435.676489704032</v>
+        <v>695.3957261348337</v>
       </c>
       <c r="H17">
-        <v>13472754.7474792</v>
+        <v>7775365.152105218</v>
       </c>
       <c r="I17">
-        <v>3018.077470599897</v>
+        <v>2019.788407090543</v>
       </c>
       <c r="J17">
-        <v>147.8558829901344</v>
+        <v>23.17985753782779</v>
       </c>
       <c r="K17">
-        <v>63.72520532423574</v>
+        <v>44.0616496633229</v>
       </c>
       <c r="L17">
-        <v>-1.087325621556389</v>
+        <v>2.246996255748497</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -7737,34 +7737,34 @@
         <v>5000</v>
       </c>
       <c r="C18">
-        <v>6923.232653314895</v>
+        <v>4777.307844368118</v>
       </c>
       <c r="D18">
-        <v>123.4470779127551</v>
+        <v>-96.0381888636069</v>
       </c>
       <c r="E18">
-        <v>7136.925170349883</v>
+        <v>2773.078443681183</v>
       </c>
       <c r="F18">
-        <v>2136.925170349883</v>
+        <v>-2226.921556318817</v>
       </c>
       <c r="G18">
-        <v>2136.925170349883</v>
+        <v>2226.921556318817</v>
       </c>
       <c r="H18">
-        <v>12916110.64974143</v>
+        <v>7599353.556223481</v>
       </c>
       <c r="I18">
-        <v>2963.00545183427</v>
+        <v>2032.73422891731</v>
       </c>
       <c r="J18">
-        <v>42.73850340699767</v>
+        <v>44.53843112637635</v>
       </c>
       <c r="K18">
-        <v>62.41353645440837</v>
+        <v>44.09144850476374</v>
       </c>
       <c r="L18">
-        <v>-0.3863333395376796</v>
+        <v>1.137155757469111</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -7775,34 +7775,34 @@
         <v>5000</v>
       </c>
       <c r="C19">
-        <v>6842.011758104885</v>
+        <v>4968.126965550451</v>
       </c>
       <c r="D19">
-        <v>102.9802806004786</v>
+        <v>-67.3524578590129</v>
       </c>
       <c r="E19">
-        <v>7046.67973122765</v>
+        <v>4681.269655504511</v>
       </c>
       <c r="F19">
-        <v>2046.67973122765</v>
+        <v>-318.7303444954887</v>
       </c>
       <c r="G19">
-        <v>2046.67973122765</v>
+        <v>318.7303444954887</v>
       </c>
       <c r="H19">
-        <v>12402745.19518124</v>
+        <v>7158308.584239878</v>
       </c>
       <c r="I19">
-        <v>2909.10393885741</v>
+        <v>1931.910471010144</v>
       </c>
       <c r="J19">
-        <v>40.933594624553</v>
+        <v>6.374606889909773</v>
       </c>
       <c r="K19">
-        <v>61.15001046441688</v>
+        <v>41.87281076271351</v>
       </c>
       <c r="L19">
-        <v>0.3100514656435505</v>
+        <v>1.031520413200297</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -7813,34 +7813,34 @@
         <v>8000</v>
       </c>
       <c r="C20">
-        <v>7050.492834834828</v>
+        <v>7690.077450769144</v>
       </c>
       <c r="D20">
-        <v>113.530360213425</v>
+        <v>211.5778364487577</v>
       </c>
       <c r="E20">
-        <v>6944.992038705363</v>
+        <v>4900.774507691438</v>
       </c>
       <c r="F20">
-        <v>-1055.007961294637</v>
+        <v>-3099.225492308562</v>
       </c>
       <c r="G20">
-        <v>1055.007961294637</v>
+        <v>3099.225492308562</v>
       </c>
       <c r="H20">
-        <v>11775539.45091534</v>
+        <v>7294246.921347398</v>
       </c>
       <c r="I20">
-        <v>2806.098606770589</v>
+        <v>1996.761305526723</v>
       </c>
       <c r="J20">
-        <v>13.18759951618296</v>
+        <v>38.74031865385702</v>
       </c>
       <c r="K20">
-        <v>58.48543207840388</v>
+        <v>41.69878342333259</v>
       </c>
       <c r="L20">
-        <v>-0.0545369364331046</v>
+        <v>-0.5541074949338202</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -7851,34 +7851,34 @@
         <v>3000</v>
       </c>
       <c r="C21">
-        <v>6747.620875543427</v>
+        <v>3490.16552872179</v>
       </c>
       <c r="D21">
-        <v>71.89012826294243</v>
+        <v>-229.5711394008535</v>
       </c>
       <c r="E21">
-        <v>7164.023195048252</v>
+        <v>7901.655287217902</v>
       </c>
       <c r="F21">
-        <v>4164.023195048252</v>
+        <v>4901.655287217902</v>
       </c>
       <c r="G21">
-        <v>4164.023195048252</v>
+        <v>4901.655287217902</v>
       </c>
       <c r="H21">
-        <v>12068357.85712505</v>
+        <v>8174877.323103389</v>
       </c>
       <c r="I21">
-        <v>2877.568321943098</v>
+        <v>2149.650462457838</v>
       </c>
       <c r="J21">
-        <v>138.8007731682751</v>
+        <v>163.3885095739301</v>
       </c>
       <c r="K21">
-        <v>62.71255529366027</v>
+        <v>48.1035058523114</v>
       </c>
       <c r="L21">
-        <v>1.393880778822772</v>
+        <v>1.765512555884253</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -7889,34 +7889,34 @@
         <v>8000</v>
       </c>
       <c r="C22">
-        <v>6937.559903425733</v>
+        <v>7526.059438932094</v>
       </c>
       <c r="D22">
-        <v>83.69501822487875</v>
+        <v>196.9753655602623</v>
       </c>
       <c r="E22">
-        <v>6819.511003806369</v>
+        <v>3260.594389320936</v>
       </c>
       <c r="F22">
-        <v>-1180.488996193631</v>
+        <v>-4739.405610679063</v>
       </c>
       <c r="G22">
-        <v>1180.488996193631</v>
+        <v>4739.405610679063</v>
       </c>
       <c r="H22">
-        <v>11534617.67777551</v>
+        <v>8889231.734075028</v>
       </c>
       <c r="I22">
-        <v>2792.714355655624</v>
+        <v>2279.138219868899</v>
       </c>
       <c r="J22">
-        <v>14.75611245242038</v>
+        <v>59.24257013348829</v>
       </c>
       <c r="K22">
-        <v>60.31473315159828</v>
+        <v>48.66045906637024</v>
       </c>
       <c r="L22">
-        <v>1.013529425872005</v>
+        <v>-0.4142665504954188</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -7927,34 +7927,34 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>7519.129429485551</v>
+        <v>11572.30348044924</v>
       </c>
       <c r="D23">
-        <v>133.4824690083726</v>
+        <v>581.9022331559504</v>
       </c>
       <c r="E23">
-        <v>7021.254921650611</v>
+        <v>7723.034804492357</v>
       </c>
       <c r="F23">
-        <v>-4978.745078349389</v>
+        <v>-4276.965195507643</v>
       </c>
       <c r="G23">
-        <v>4978.745078349389</v>
+        <v>4276.965195507643</v>
       </c>
       <c r="H23">
-        <v>12165726.48146183</v>
+        <v>9337003.141194489</v>
       </c>
       <c r="I23">
-        <v>2896.81105673628</v>
+        <v>2374.272837756458</v>
       </c>
       <c r="J23">
-        <v>41.48954231957823</v>
+        <v>35.64137662923036</v>
       </c>
       <c r="K23">
-        <v>59.41829549293065</v>
+        <v>48.04050275983977</v>
       </c>
       <c r="L23">
-        <v>-0.7415902724624303</v>
+        <v>-2.199046310485805</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -7965,34 +7965,34 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>8087.350708644531</v>
+        <v>12015.42057136052</v>
       </c>
       <c r="D24">
-        <v>176.9563500234334</v>
+        <v>568.0237189314836</v>
       </c>
       <c r="E24">
-        <v>7652.611898493923</v>
+        <v>12154.20571360519</v>
       </c>
       <c r="F24">
-        <v>-4347.388101506077</v>
+        <v>154.2057136051862</v>
       </c>
       <c r="G24">
-        <v>4347.388101506077</v>
+        <v>154.2057136051862</v>
       </c>
       <c r="H24">
-        <v>12471819.97344614</v>
+        <v>8913674.789417854</v>
       </c>
       <c r="I24">
-        <v>2962.746376953089</v>
+        <v>2273.360695749582</v>
       </c>
       <c r="J24">
-        <v>36.2282341792173</v>
+        <v>1.285047613376552</v>
       </c>
       <c r="K24">
-        <v>58.36420179685277</v>
+        <v>45.9152547986369</v>
       </c>
       <c r="L24">
-        <v>-2.192437075570227</v>
+        <v>-2.228828104498889</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -8003,34 +8003,34 @@
         <v>16000</v>
       </c>
       <c r="C25">
-        <v>9037.876352801168</v>
+        <v>15658.3444290292</v>
       </c>
       <c r="D25">
-        <v>254.3132794367538</v>
+        <v>875.5137328052033</v>
       </c>
       <c r="E25">
-        <v>8264.307058667964</v>
+        <v>12583.444290292</v>
       </c>
       <c r="F25">
-        <v>-7735.692941332036</v>
+        <v>-3416.555709707998</v>
       </c>
       <c r="G25">
-        <v>7735.692941332036</v>
+        <v>3416.555709707998</v>
       </c>
       <c r="H25">
-        <v>14531347.16079954</v>
+        <v>9033639.055857873</v>
       </c>
       <c r="I25">
-        <v>3170.265792795652</v>
+        <v>2323.064826791252</v>
       </c>
       <c r="J25">
-        <v>48.34808088332522</v>
+        <v>21.35347318567499</v>
       </c>
       <c r="K25">
-        <v>57.92871827887332</v>
+        <v>44.84735125024725</v>
       </c>
       <c r="L25">
-        <v>-4.489001514010491</v>
+        <v>-3.65185070266665</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -8041,34 +8041,34 @@
         <v>10000</v>
       </c>
       <c r="C26">
-        <v>9362.97066901413</v>
+        <v>10653.38581618344</v>
       </c>
       <c r="D26">
-        <v>261.3913831143747</v>
+        <v>287.4664982401069</v>
       </c>
       <c r="E26">
-        <v>9292.189632237922</v>
+        <v>16533.8581618344</v>
       </c>
       <c r="F26">
-        <v>-707.8103677620784</v>
+        <v>6533.858161834403</v>
       </c>
       <c r="G26">
-        <v>707.8103677620784</v>
+        <v>6533.858161834403</v>
       </c>
       <c r="H26">
-        <v>13946749.1756292</v>
+        <v>10436041.69848755</v>
       </c>
       <c r="I26">
-        <v>3067.663483419253</v>
+        <v>2498.514549084717</v>
       </c>
       <c r="J26">
-        <v>7.078103677620784</v>
+        <v>65.33858161834404</v>
       </c>
       <c r="K26">
-        <v>55.80994267048779</v>
+        <v>45.70115251558462</v>
       </c>
       <c r="L26">
-        <v>-4.869875197257977</v>
+        <v>-0.7803147509937933</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -8079,34 +8079,34 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>8861.925846915654</v>
+        <v>2894.085231442355</v>
       </c>
       <c r="D27">
-        <v>185.1477625930896</v>
+        <v>-517.2102100580123</v>
       </c>
       <c r="E27">
-        <v>9624.362052128505</v>
+        <v>10940.85231442355</v>
       </c>
       <c r="F27">
-        <v>7624.362052128505</v>
+        <v>8940.852314423546</v>
       </c>
       <c r="G27">
-        <v>7624.362052128505</v>
+        <v>8940.852314423546</v>
       </c>
       <c r="H27">
-        <v>15714115.07668152</v>
+        <v>13216153.63488136</v>
       </c>
       <c r="I27">
-        <v>3249.931426167623</v>
+        <v>2756.20805969827</v>
       </c>
       <c r="J27">
-        <v>381.2181026064252</v>
+        <v>447.0426157211773</v>
       </c>
       <c r="K27">
-        <v>68.82626906792528</v>
+        <v>61.75481104380833</v>
       </c>
       <c r="L27">
-        <v>-2.25074787745126</v>
+        <v>2.536537302254854</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -8117,34 +8117,34 @@
         <v>5000</v>
       </c>
       <c r="C28">
-        <v>8642.366248557868</v>
+        <v>4737.687502138434</v>
       </c>
       <c r="D28">
-        <v>144.677026498002</v>
+        <v>-281.1289619826031</v>
       </c>
       <c r="E28">
-        <v>9047.073609508743</v>
+        <v>2376.875021384342</v>
       </c>
       <c r="F28">
-        <v>4047.073609508743</v>
+        <v>-2623.124978615658</v>
       </c>
       <c r="G28">
-        <v>4047.073609508743</v>
+        <v>2623.124978615658</v>
       </c>
       <c r="H28">
-        <v>15739680.06607001</v>
+        <v>12972485.59713352</v>
       </c>
       <c r="I28">
-        <v>3280.590740911513</v>
+        <v>2751.089479656631</v>
       </c>
       <c r="J28">
-        <v>80.94147219017486</v>
+        <v>52.46249957231316</v>
       </c>
       <c r="K28">
-        <v>69.29223841878104</v>
+        <v>61.39741444875082</v>
       </c>
       <c r="L28">
-        <v>-0.9960714114837287</v>
+        <v>1.587770812212792</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -8155,34 +8155,34 @@
         <v>5000</v>
       </c>
       <c r="C29">
-        <v>8408.338947550285</v>
+        <v>4945.655854015583</v>
       </c>
       <c r="D29">
-        <v>106.8065937474435</v>
+        <v>-232.2192305966279</v>
       </c>
       <c r="E29">
-        <v>8787.04327505587</v>
+        <v>4456.558540155831</v>
       </c>
       <c r="F29">
-        <v>3787.04327505587</v>
+        <v>-543.441459844169</v>
       </c>
       <c r="G29">
-        <v>3787.04327505587</v>
+        <v>543.441459844169</v>
       </c>
       <c r="H29">
-        <v>15687902.90685059</v>
+        <v>12502961.26465737</v>
       </c>
       <c r="I29">
-        <v>3299.348242176118</v>
+        <v>2669.324738182095</v>
       </c>
       <c r="J29">
-        <v>75.74086550111741</v>
+        <v>10.86882919688338</v>
       </c>
       <c r="K29">
-        <v>69.53107645886757</v>
+        <v>59.52598536534833</v>
       </c>
       <c r="L29">
-        <v>0.1574070353098442</v>
+        <v>1.432818593793514</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -8193,34 +8193,34 @@
         <v>3000</v>
       </c>
       <c r="C30">
-        <v>7963.630987167956</v>
+        <v>3171.343662341895</v>
       </c>
       <c r="D30">
-        <v>51.65513833446626</v>
+        <v>-386.4285267043339</v>
       </c>
       <c r="E30">
-        <v>8515.145541297728</v>
+        <v>4713.436623418955</v>
       </c>
       <c r="F30">
-        <v>5515.145541297728</v>
+        <v>1713.436623418955</v>
       </c>
       <c r="G30">
-        <v>5515.145541297728</v>
+        <v>1713.436623418955</v>
       </c>
       <c r="H30">
-        <v>16213936.02952365</v>
+        <v>12161279.25743651</v>
       </c>
       <c r="I30">
-        <v>3378.48386000189</v>
+        <v>2635.185876940554</v>
       </c>
       <c r="J30">
-        <v>183.8381847099243</v>
+        <v>57.11455411396516</v>
       </c>
       <c r="K30">
-        <v>73.61347318211961</v>
+        <v>59.43986282065607</v>
       </c>
       <c r="L30">
-        <v>1.786152137056544</v>
+        <v>2.101595485017163</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -8231,34 +8231,34 @@
         <v>4000</v>
       </c>
       <c r="C31">
-        <v>7613.75751295218</v>
+        <v>3878.491513563756</v>
       </c>
       <c r="D31">
-        <v>11.50227707944205</v>
+        <v>-277.0708889117144</v>
       </c>
       <c r="E31">
-        <v>8015.286125502422</v>
+        <v>2784.915135637561</v>
       </c>
       <c r="F31">
-        <v>4015.286125502422</v>
+        <v>-1215.084864362439</v>
       </c>
       <c r="G31">
-        <v>4015.286125502422</v>
+        <v>1215.084864362439</v>
       </c>
       <c r="H31">
-        <v>16210783.8447005</v>
+        <v>11792836.221925</v>
       </c>
       <c r="I31">
-        <v>3400.442558812253</v>
+        <v>2586.216876506826</v>
       </c>
       <c r="J31">
-        <v>100.3821531375605</v>
+        <v>30.37712160906096</v>
       </c>
       <c r="K31">
-        <v>74.53653111161758</v>
+        <v>58.43769933060106</v>
       </c>
       <c r="L31">
-        <v>2.955430688282569</v>
+        <v>1.671557368628676</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -8269,34 +8269,34 @@
         <v>6000</v>
       </c>
       <c r="C32">
-        <v>7462.73381102846</v>
+        <v>5760.142062465204</v>
       </c>
       <c r="D32">
-        <v>-4.750320820874173</v>
+        <v>-61.19874513039821</v>
       </c>
       <c r="E32">
-        <v>7625.259790031622</v>
+        <v>3601.420624652042</v>
       </c>
       <c r="F32">
-        <v>1625.259790031622</v>
+        <v>-2398.579375347958</v>
       </c>
       <c r="G32">
-        <v>1625.259790031622</v>
+        <v>2398.579375347958</v>
       </c>
       <c r="H32">
-        <v>15758473.3627136</v>
+        <v>11591514.44852232</v>
       </c>
       <c r="I32">
-        <v>3341.269799852898</v>
+        <v>2579.962293134864</v>
       </c>
       <c r="J32">
-        <v>27.0876631671937</v>
+        <v>39.97632292246598</v>
       </c>
       <c r="K32">
-        <v>72.95490218013677</v>
+        <v>57.82232011699656</v>
       </c>
       <c r="L32">
-        <v>3.494190167642692</v>
+        <v>0.7459141967189479</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -8307,34 +8307,34 @@
         <v>7000</v>
       </c>
       <c r="C33">
-        <v>7412.185141186827</v>
+        <v>6869.894331733481</v>
       </c>
       <c r="D33">
-        <v>-9.33015572295001</v>
+        <v>55.89635630946931</v>
       </c>
       <c r="E33">
-        <v>7457.983490207585</v>
+        <v>5698.943317334805</v>
       </c>
       <c r="F33">
-        <v>457.9834902075854</v>
+        <v>-1301.056682665195</v>
       </c>
       <c r="G33">
-        <v>457.9834902075854</v>
+        <v>1301.056682665195</v>
       </c>
       <c r="H33">
-        <v>15256901.6051197</v>
+        <v>11272199.41765088</v>
       </c>
       <c r="I33">
-        <v>3248.260564057888</v>
+        <v>2538.707273442294</v>
       </c>
       <c r="J33">
-        <v>6.542621288679791</v>
+        <v>18.58652403807421</v>
       </c>
       <c r="K33">
-        <v>70.81257053847686</v>
+        <v>56.55664927574099</v>
       </c>
       <c r="L33">
-        <v>3.735234699625785</v>
+        <v>0.2455477341971862</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -8345,34 +8345,34 @@
         <v>10000</v>
       </c>
       <c r="C34">
-        <v>7662.56948691749</v>
+        <v>9692.579068804294</v>
       </c>
       <c r="D34">
-        <v>16.64129442241128</v>
+        <v>332.5751943856038</v>
       </c>
       <c r="E34">
-        <v>7402.854985463878</v>
+        <v>6925.79068804295</v>
       </c>
       <c r="F34">
-        <v>-2597.145014536122</v>
+        <v>-3074.20931195705</v>
       </c>
       <c r="G34">
-        <v>2597.145014536122</v>
+        <v>3074.20931195705</v>
       </c>
       <c r="H34">
-        <v>14990909.74953877</v>
+        <v>11215279.52627815</v>
       </c>
       <c r="I34">
-        <v>3227.913203135334</v>
+        <v>2555.441712145881</v>
       </c>
       <c r="J34">
-        <v>25.97145014536122</v>
+        <v>30.7420931195705</v>
       </c>
       <c r="K34">
-        <v>69.41128552619199</v>
+        <v>55.74994439586067</v>
       </c>
       <c r="L34">
-        <v>2.954190511844169</v>
+        <v>-0.9590653081714541</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -8383,34 +8383,34 @@
         <v>15000</v>
       </c>
       <c r="C35">
-        <v>8411.289703205912</v>
+        <v>14502.51542631899</v>
       </c>
       <c r="D35">
-        <v>89.84918660901231</v>
+        <v>780.3113106985129</v>
       </c>
       <c r="E35">
-        <v>7679.210781339902</v>
+        <v>10025.1542631899</v>
       </c>
       <c r="F35">
-        <v>-7320.789218660098</v>
+        <v>-4974.845736810103</v>
       </c>
       <c r="G35">
-        <v>7320.789218660098</v>
+        <v>4974.845736810103</v>
       </c>
       <c r="H35">
-        <v>16160698.9930088</v>
+        <v>11625394.99836238</v>
       </c>
       <c r="I35">
-        <v>3351.939749060326</v>
+        <v>2628.756985620555</v>
       </c>
       <c r="J35">
-        <v>48.80526145773399</v>
+        <v>33.16563824540069</v>
       </c>
       <c r="K35">
-        <v>68.78686055442054</v>
+        <v>55.06557148221037</v>
       </c>
       <c r="L35">
-        <v>0.6608356667866103</v>
+        <v>-2.824788016009987</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -8421,34 +8421,34 @@
         <v>15000</v>
       </c>
       <c r="C36">
-        <v>9151.025000833431</v>
+        <v>15028.28267370175</v>
       </c>
       <c r="D36">
-        <v>154.837797710863</v>
+        <v>754.8569043669377</v>
       </c>
       <c r="E36">
-        <v>8501.138889814923</v>
+        <v>15282.8267370175</v>
       </c>
       <c r="F36">
-        <v>-6498.861110185077</v>
+        <v>282.8267370175017</v>
       </c>
       <c r="G36">
-        <v>6498.861110185077</v>
+        <v>282.8267370175017</v>
       </c>
       <c r="H36">
-        <v>16927595.95584607</v>
+        <v>11285824.29144501</v>
       </c>
       <c r="I36">
-        <v>3444.496259681643</v>
+        <v>2559.759037132229</v>
       </c>
       <c r="J36">
-        <v>43.32574073456718</v>
+        <v>1.885511580116678</v>
       </c>
       <c r="K36">
-        <v>68.03800408913074</v>
+        <v>53.50145207332526</v>
       </c>
       <c r="L36">
-        <v>-1.243659289524727</v>
+        <v>-2.790440189623598</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -8459,34 +8459,34 @@
         <v>18000</v>
       </c>
       <c r="C37">
-        <v>10175.27651868987</v>
+        <v>17778.31395780687</v>
       </c>
       <c r="D37">
-        <v>241.7791697254201</v>
+        <v>954.3743423407559</v>
       </c>
       <c r="E37">
-        <v>9305.862798544294</v>
+        <v>15783.13957806869</v>
       </c>
       <c r="F37">
-        <v>-8694.137201455706</v>
+        <v>-2216.860421931313</v>
       </c>
       <c r="G37">
-        <v>8694.137201455706</v>
+        <v>2216.860421931313</v>
       </c>
       <c r="H37">
-        <v>18603608.11932864</v>
+        <v>11103785.60112731</v>
       </c>
       <c r="I37">
-        <v>3594.486000875188</v>
+        <v>2549.961933840775</v>
       </c>
       <c r="J37">
-        <v>48.30076223030947</v>
+        <v>12.31589123295174</v>
       </c>
       <c r="K37">
-        <v>67.47408289316441</v>
+        <v>52.3247217636003</v>
       </c>
       <c r="L37">
-        <v>-3.610507029205869</v>
+        <v>-3.670531230558257</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -8497,34 +8497,34 @@
         <v>8000</v>
       </c>
       <c r="C38">
-        <v>10175.35011957376</v>
+        <v>9073.268830014762</v>
       </c>
       <c r="D38">
-        <v>217.6086128412673</v>
+        <v>-11.56760467253048</v>
       </c>
       <c r="E38">
-        <v>10417.05568841528</v>
+        <v>18732.68830014762</v>
       </c>
       <c r="F38">
-        <v>2417.055688415285</v>
+        <v>10732.68830014762</v>
       </c>
       <c r="G38">
-        <v>2417.055688415285</v>
+        <v>10732.68830014762</v>
       </c>
       <c r="H38">
-        <v>18249123.39937231</v>
+        <v>13995085.94965504</v>
       </c>
       <c r="I38">
-        <v>3561.779603306857</v>
+        <v>2777.259888460409</v>
       </c>
       <c r="J38">
-        <v>30.21319610519106</v>
+        <v>134.1586037518453</v>
       </c>
       <c r="K38">
-        <v>66.43905826016515</v>
+        <v>54.59788515216266</v>
       </c>
       <c r="L38">
-        <v>-2.965051873036072</v>
+        <v>0.4943625877272322</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -8535,34 +8535,34 @@
         <v>5000</v>
       </c>
       <c r="C39">
-        <v>9853.662859173523</v>
+        <v>5406.170122534223</v>
       </c>
       <c r="D39">
-        <v>163.6790255171171</v>
+        <v>-377.1207149533313</v>
       </c>
       <c r="E39">
-        <v>10392.95873241503</v>
+        <v>9061.701225342231</v>
       </c>
       <c r="F39">
-        <v>5392.958732415025</v>
+        <v>4061.701225342231</v>
       </c>
       <c r="G39">
-        <v>5392.958732415025</v>
+        <v>4061.701225342231</v>
       </c>
       <c r="H39">
-        <v>18541958.00721445</v>
+        <v>14062716.51436562</v>
       </c>
       <c r="I39">
-        <v>3611.270931120591</v>
+        <v>2811.974519186945</v>
       </c>
       <c r="J39">
-        <v>107.8591746483005</v>
+        <v>81.23402450684462</v>
       </c>
       <c r="K39">
-        <v>67.55852086524989</v>
+        <v>55.31778081039731</v>
       </c>
       <c r="L39">
-        <v>-1.431048140746401</v>
+        <v>1.932689849609287</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -8573,34 +8573,34 @@
         <v>4000</v>
       </c>
       <c r="C40">
-        <v>9415.607696221576</v>
+        <v>4102.904940758089</v>
       </c>
       <c r="D40">
-        <v>103.5056066702107</v>
+        <v>-469.7351616356117</v>
       </c>
       <c r="E40">
-        <v>10017.34188469064</v>
+        <v>5029.049407580892</v>
       </c>
       <c r="F40">
-        <v>6017.341884690639</v>
+        <v>1029.049407580892</v>
       </c>
       <c r="G40">
-        <v>6017.341884690639</v>
+        <v>1029.049407580892</v>
       </c>
       <c r="H40">
-        <v>19006864.4637944</v>
+        <v>13720511.93986239</v>
       </c>
       <c r="I40">
-        <v>3674.588587793487</v>
+        <v>2765.055437302575</v>
       </c>
       <c r="J40">
-        <v>150.433547117266</v>
+        <v>25.7262351895223</v>
       </c>
       <c r="K40">
-        <v>69.73944260872399</v>
+        <v>54.53905592563744</v>
       </c>
       <c r="L40">
-        <v>0.2311658333128012</v>
+        <v>2.337647170097639</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -8611,34 +8611,34 @@
         <v>4000</v>
       </c>
       <c r="C41">
-        <v>8967.201972602608</v>
+        <v>3963.316977912248</v>
       </c>
       <c r="D41">
-        <v>48.31447364129293</v>
+        <v>-436.7204417566346</v>
       </c>
       <c r="E41">
-        <v>9519.113302891787</v>
+        <v>3633.169779122477</v>
       </c>
       <c r="F41">
-        <v>5519.113302891787</v>
+        <v>-366.8302208775231</v>
       </c>
       <c r="G41">
-        <v>5519.113302891787</v>
+        <v>366.8302208775231</v>
       </c>
       <c r="H41">
-        <v>19300550.28908575</v>
+        <v>13372154.31091589</v>
       </c>
       <c r="I41">
-        <v>3721.884093308828</v>
+        <v>2703.562483035266</v>
       </c>
       <c r="J41">
-        <v>137.9778325722947</v>
+        <v>9.170755521938077</v>
       </c>
       <c r="K41">
-        <v>71.48914491548221</v>
+        <v>53.37576617169643</v>
       </c>
       <c r="L41">
-        <v>1.711109877741789</v>
+        <v>2.255133304872245</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -8649,34 +8649,34 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>8313.96480161951</v>
+        <v>2152.659653615561</v>
       </c>
       <c r="D42">
-        <v>-21.84069082114623</v>
+        <v>-574.1141300106398</v>
       </c>
       <c r="E42">
-        <v>9015.516446243901</v>
+        <v>3526.596536155613</v>
       </c>
       <c r="F42">
-        <v>7015.516446243901</v>
+        <v>1526.596536155613</v>
       </c>
       <c r="G42">
-        <v>7015.516446243901</v>
+        <v>1526.596536155613</v>
       </c>
       <c r="H42">
-        <v>20048473.30704657</v>
+        <v>13096112.87774805</v>
       </c>
       <c r="I42">
-        <v>3804.224902132205</v>
+        <v>2674.138334363274</v>
       </c>
       <c r="J42">
-        <v>350.775822312195</v>
+        <v>76.32982680778066</v>
       </c>
       <c r="K42">
-        <v>78.47131185040004</v>
+        <v>53.94961768759854</v>
       </c>
       <c r="L42">
-        <v>3.518211837216336</v>
+        <v>2.850821229211665</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -8687,34 +8687,34 @@
         <v>5000</v>
       </c>
       <c r="C43">
-        <v>7962.911699718528</v>
+        <v>4657.854552360492</v>
       </c>
       <c r="D43">
-        <v>-54.76193192912974</v>
+        <v>-266.1832271350828</v>
       </c>
       <c r="E43">
-        <v>8292.124110798364</v>
+        <v>1578.545523604922</v>
       </c>
       <c r="F43">
-        <v>3292.124110798364</v>
+        <v>-3421.454476395078</v>
       </c>
       <c r="G43">
-        <v>3292.124110798364</v>
+        <v>3421.454476395078</v>
       </c>
       <c r="H43">
-        <v>19823829.59616495</v>
+        <v>13062216.24009673</v>
       </c>
       <c r="I43">
-        <v>3791.73463892894</v>
+        <v>2692.36555733966</v>
       </c>
       <c r="J43">
-        <v>65.84248221596728</v>
+        <v>68.42908952790157</v>
       </c>
       <c r="K43">
-        <v>78.16329161541388</v>
+        <v>54.30277553736202</v>
       </c>
       <c r="L43">
-        <v>4.398038043512351</v>
+        <v>1.560722631293991</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -8725,34 +8725,34 @@
         <v>7000</v>
       </c>
       <c r="C44">
-        <v>7817.334791010459</v>
+        <v>6739.167132522541</v>
       </c>
       <c r="D44">
-        <v>-63.84342960702375</v>
+        <v>-31.43364640536961</v>
       </c>
       <c r="E44">
-        <v>7908.149767789399</v>
+        <v>4391.671325225409</v>
       </c>
       <c r="F44">
-        <v>908.1497677893985</v>
+        <v>-2608.328674774591</v>
       </c>
       <c r="G44">
-        <v>908.1497677893985</v>
+        <v>2608.328674774591</v>
       </c>
       <c r="H44">
-        <v>19371470.2248452</v>
+        <v>12913196.29332422</v>
       </c>
       <c r="I44">
-        <v>3723.07785628276</v>
+        <v>2690.364679183349</v>
       </c>
       <c r="J44">
-        <v>12.97356811127712</v>
+        <v>37.26183821106559</v>
       </c>
       <c r="K44">
-        <v>76.61115534150586</v>
+        <v>53.89703893435496</v>
       </c>
       <c r="L44">
-        <v>4.723066140298021</v>
+        <v>0.5923758940983564</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -8763,34 +8763,34 @@
         <v>10000</v>
       </c>
       <c r="C45">
-        <v>7978.142225263092</v>
+        <v>9670.773348611718</v>
       </c>
       <c r="D45">
-        <v>-41.37834322105804</v>
+        <v>264.8703398440851</v>
       </c>
       <c r="E45">
-        <v>7753.491361403435</v>
+        <v>6707.733486117171</v>
       </c>
       <c r="F45">
-        <v>-2246.508638596565</v>
+        <v>-3292.266513882829</v>
       </c>
       <c r="G45">
-        <v>2246.508638596565</v>
+        <v>3292.266513882829</v>
       </c>
       <c r="H45">
-        <v>19038338.38387878</v>
+        <v>12864959.60739655</v>
       </c>
       <c r="I45">
-        <v>3688.739037266802</v>
+        <v>2704.362396269383</v>
       </c>
       <c r="J45">
-        <v>22.46508638596565</v>
+        <v>32.92266513882829</v>
       </c>
       <c r="K45">
-        <v>75.35194443556307</v>
+        <v>53.40926279957527</v>
       </c>
       <c r="L45">
-        <v>4.158015562269365</v>
+        <v>-0.6280812563967333</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -8801,34 +8801,34 @@
         <v>14000</v>
       </c>
       <c r="C46">
-        <v>8543.087493837829</v>
+        <v>13593.56436884558</v>
       </c>
       <c r="D46">
-        <v>19.25401795852151</v>
+        <v>630.6624078830629</v>
       </c>
       <c r="E46">
-        <v>7936.763882042033</v>
+        <v>9935.643688455802</v>
       </c>
       <c r="F46">
-        <v>-6063.236117957967</v>
+        <v>-4064.356311544198</v>
       </c>
       <c r="G46">
-        <v>6063.236117957967</v>
+        <v>4064.356311544198</v>
       </c>
       <c r="H46">
-        <v>19441167.78929313</v>
+        <v>12948005.80330092</v>
       </c>
       <c r="I46">
-        <v>3742.704880009784</v>
+        <v>2735.271348889265</v>
       </c>
       <c r="J46">
-        <v>43.30882941398548</v>
+        <v>29.03111651102998</v>
       </c>
       <c r="K46">
-        <v>74.62369182143631</v>
+        <v>52.85521402029016</v>
       </c>
       <c r="L46">
-        <v>2.478046894288835</v>
+        <v>-2.106889923548297</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -8839,34 +8839,34 @@
         <v>16000</v>
       </c>
       <c r="C47">
-        <v>9306.107360616716</v>
+        <v>15822.42267767286</v>
       </c>
       <c r="D47">
-        <v>93.630602840558</v>
+        <v>790.4819979774851</v>
       </c>
       <c r="E47">
-        <v>8562.34151179635</v>
+        <v>14224.22677672864</v>
       </c>
       <c r="F47">
-        <v>-7437.65848820365</v>
+        <v>-1775.773223271357</v>
       </c>
       <c r="G47">
-        <v>7437.65848820365</v>
+        <v>1775.773223271357</v>
       </c>
       <c r="H47">
-        <v>20238447.70035657</v>
+        <v>12730347.24190507</v>
       </c>
       <c r="I47">
-        <v>3824.81496019187</v>
+        <v>2713.949168319979</v>
       </c>
       <c r="J47">
-        <v>46.48536555127281</v>
+        <v>11.09858264544598</v>
       </c>
       <c r="K47">
-        <v>73.99839568209934</v>
+        <v>51.92728887862696</v>
       </c>
       <c r="L47">
-        <v>0.4802689110618079</v>
+        <v>-2.777756103325693</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -8877,34 +8877,34 @@
         <v>16000</v>
       </c>
       <c r="C48">
-        <v>10059.76416711155</v>
+        <v>16061.29046756504</v>
       </c>
       <c r="D48">
-        <v>159.6332232059854</v>
+        <v>735.3205771689537</v>
       </c>
       <c r="E48">
-        <v>9399.737963457274</v>
+        <v>16612.90467565035</v>
       </c>
       <c r="F48">
-        <v>-6600.262036542726</v>
+        <v>612.9046756503485</v>
       </c>
       <c r="G48">
-        <v>6600.262036542726</v>
+        <v>612.9046756503485</v>
       </c>
       <c r="H48">
-        <v>20745513.16232767</v>
+        <v>12461766.91363396</v>
       </c>
       <c r="I48">
-        <v>3885.150766199497</v>
+        <v>2668.274288044552</v>
       </c>
       <c r="J48">
-        <v>41.25163772839204</v>
+        <v>3.830654222814679</v>
       </c>
       <c r="K48">
-        <v>73.28650963962744</v>
+        <v>50.88170986437017</v>
       </c>
       <c r="L48">
-        <v>-1.226032812430084</v>
+        <v>-2.595604290682473</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -8915,34 +8915,34 @@
         <v>20000</v>
       </c>
       <c r="C49">
-        <v>11197.45765128578</v>
+        <v>19679.6611044734</v>
       </c>
       <c r="D49">
-        <v>257.43924930281</v>
+        <v>1023.625583142895</v>
       </c>
       <c r="E49">
-        <v>10219.39739031753</v>
+        <v>16796.61104473399</v>
       </c>
       <c r="F49">
-        <v>-9780.602609682468</v>
+        <v>-3203.388955266011</v>
       </c>
       <c r="G49">
-        <v>9780.602609682468</v>
+        <v>3203.388955266011</v>
       </c>
       <c r="H49">
-        <v>22339442.40160851</v>
+        <v>12414956.99629537</v>
       </c>
       <c r="I49">
-        <v>4010.585911805518</v>
+        <v>2679.659706496072</v>
       </c>
       <c r="J49">
-        <v>48.90301304841234</v>
+        <v>16.01694477633006</v>
       </c>
       <c r="K49">
-        <v>72.76771183981435</v>
+        <v>50.13990635185868</v>
       </c>
       <c r="L49">
-        <v>-3.626384087040647</v>
+        <v>-3.780022187696771</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -8953,34 +8953,34 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>11509.40721052973</v>
+        <v>12870.32866876163</v>
       </c>
       <c r="D50">
-        <v>262.8902802969241</v>
+        <v>240.3297812574283</v>
       </c>
       <c r="E50">
-        <v>11454.89690058859</v>
+        <v>20703.28668761629</v>
       </c>
       <c r="F50">
-        <v>-545.1030994114117</v>
+        <v>8703.286687616292</v>
       </c>
       <c r="G50">
-        <v>545.1030994114117</v>
+        <v>8703.286687616292</v>
       </c>
       <c r="H50">
-        <v>21880227.71384558</v>
+        <v>13734378.7081817</v>
       </c>
       <c r="I50">
-        <v>3938.388353213973</v>
+        <v>2805.15193526941</v>
       </c>
       <c r="J50">
-        <v>4.542525828428431</v>
+        <v>72.52738906346909</v>
       </c>
       <c r="K50">
-        <v>71.34635379791048</v>
+        <v>50.6063122416839</v>
       </c>
       <c r="L50">
-        <v>-3.831269716552648</v>
+        <v>-0.50830988528218</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -8991,34 +8991,34 @@
         <v>5000</v>
       </c>
       <c r="C51">
-        <v>11095.06774174399</v>
+        <v>5811.065845001905</v>
       </c>
       <c r="D51">
-        <v>195.1673053886575</v>
+        <v>-489.6294792442869</v>
       </c>
       <c r="E51">
-        <v>11772.29749082665</v>
+        <v>13110.65845001906</v>
       </c>
       <c r="F51">
-        <v>6772.297490826653</v>
+        <v>8110.658450019058</v>
       </c>
       <c r="G51">
-        <v>6772.297490826653</v>
+        <v>8110.658450019058</v>
       </c>
       <c r="H51">
-        <v>22369692.7258948</v>
+        <v>14796590.98950178</v>
       </c>
       <c r="I51">
-        <v>3996.223233573416</v>
+        <v>2913.427578427566</v>
       </c>
       <c r="J51">
-        <v>135.4459498165331</v>
+        <v>162.2131690003812</v>
       </c>
       <c r="K51">
-        <v>72.65450881869869</v>
+        <v>52.88400319594302</v>
       </c>
       <c r="L51">
-        <v>-2.081147636847326</v>
+        <v>2.294469936750953</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -9029,34 +9029,34 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>10361.21154241938</v>
+        <v>2332.143636575762</v>
       </c>
       <c r="D52">
-        <v>102.264954917331</v>
+        <v>-788.5587521624726</v>
       </c>
       <c r="E52">
-        <v>11290.23504713264</v>
+        <v>5321.436365757619</v>
       </c>
       <c r="F52">
-        <v>9290.235047132644</v>
+        <v>3321.436365757619</v>
       </c>
       <c r="G52">
-        <v>9290.235047132644</v>
+        <v>3321.436365757619</v>
       </c>
       <c r="H52">
-        <v>23648468.21599633</v>
+        <v>14721297.96034729</v>
       </c>
       <c r="I52">
-        <v>4102.103469844601</v>
+        <v>2921.587754174167</v>
       </c>
       <c r="J52">
-        <v>464.5117523566322</v>
+        <v>166.0718182878809</v>
       </c>
       <c r="K52">
-        <v>80.49165368945737</v>
+        <v>55.14775949778178</v>
       </c>
       <c r="L52">
-        <v>0.2373183698127996</v>
+        <v>3.424921378132354</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -9067,34 +9067,34 @@
         <v>3000</v>
       </c>
       <c r="C53">
-        <v>9717.12884760304</v>
+        <v>2854.358488441329</v>
       </c>
       <c r="D53">
-        <v>27.63018994396394</v>
+        <v>-657.4813917596687</v>
       </c>
       <c r="E53">
-        <v>10463.47649733671</v>
+        <v>1543.584884413289</v>
       </c>
       <c r="F53">
-        <v>7463.476497336711</v>
+        <v>-1456.415115586711</v>
       </c>
       <c r="G53">
-        <v>7463.476497336711</v>
+        <v>1456.415115586711</v>
       </c>
       <c r="H53">
-        <v>24276997.88678655</v>
+        <v>14474236.13737792</v>
       </c>
       <c r="I53">
-        <v>4168.012744893465</v>
+        <v>2892.858878907746</v>
       </c>
       <c r="J53">
-        <v>248.7825499112237</v>
+        <v>48.54717051955703</v>
       </c>
       <c r="K53">
-        <v>83.7914751840018</v>
+        <v>55.01833618448325</v>
       </c>
       <c r="L53">
-        <v>2.024221498828289</v>
+        <v>2.955482309943243</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -9105,34 +9105,34 @@
         <v>2000</v>
       </c>
       <c r="C54">
-        <v>8970.283133792303</v>
+        <v>2019.687709668166</v>
       </c>
       <c r="D54">
-        <v>-49.81740043150614</v>
+        <v>-675.2003304610182</v>
       </c>
       <c r="E54">
-        <v>9744.759037547004</v>
+        <v>2196.87709668166</v>
       </c>
       <c r="F54">
-        <v>7744.759037547004</v>
+        <v>196.8770966816601</v>
       </c>
       <c r="G54">
-        <v>7744.759037547004</v>
+        <v>196.8770966816601</v>
       </c>
       <c r="H54">
-        <v>24963618.93799577</v>
+        <v>14196630.83841291</v>
       </c>
       <c r="I54">
-        <v>4236.796327444496</v>
+        <v>2841.013075403398</v>
       </c>
       <c r="J54">
-        <v>387.2379518773502</v>
+        <v>9.843854834083004</v>
       </c>
       <c r="K54">
-        <v>89.62698435118158</v>
+        <v>54.14959615851402</v>
       </c>
       <c r="L54">
-        <v>3.819333947759294</v>
+        <v>3.078715270331446</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -9143,34 +9143,34 @@
         <v>7000</v>
       </c>
       <c r="C55">
-        <v>8728.419160024718</v>
+        <v>6434.448737920715</v>
       </c>
       <c r="D55">
-        <v>-69.02205776511411</v>
+        <v>-166.2041945896614</v>
       </c>
       <c r="E55">
-        <v>8920.465733360797</v>
+        <v>1344.487379207148</v>
       </c>
       <c r="F55">
-        <v>1920.465733360797</v>
+        <v>-5655.512620792852</v>
       </c>
       <c r="G55">
-        <v>1920.465733360797</v>
+        <v>5655.512620792852</v>
       </c>
       <c r="H55">
-        <v>24562195.72469421</v>
+        <v>14532257.10568715</v>
       </c>
       <c r="I55">
-        <v>4193.091976612727</v>
+        <v>2894.116840410747</v>
       </c>
       <c r="J55">
-        <v>27.43522476229711</v>
+        <v>80.7930374398979</v>
       </c>
       <c r="K55">
-        <v>88.45355492497622</v>
+        <v>54.65230259778541</v>
       </c>
       <c r="L55">
-        <v>4.317149701813798</v>
+        <v>1.068083248921002</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -9181,34 +9181,34 @@
         <v>6000</v>
       </c>
       <c r="C56">
-        <v>8393.457392033644</v>
+        <v>6026.824454333106</v>
       </c>
       <c r="D56">
-        <v>-95.61602878771005</v>
+        <v>-190.3462034894562</v>
       </c>
       <c r="E56">
-        <v>8659.397102259603</v>
+        <v>6268.244543331053</v>
       </c>
       <c r="F56">
-        <v>2659.397102259603</v>
+        <v>268.2445433310531</v>
       </c>
       <c r="G56">
-        <v>2659.397102259603</v>
+        <v>268.2445433310531</v>
       </c>
       <c r="H56">
-        <v>24238310.48807962</v>
+        <v>14264473.73586011</v>
       </c>
       <c r="I56">
-        <v>4164.690219680262</v>
+        <v>2845.489575650011</v>
       </c>
       <c r="J56">
-        <v>44.32328503766006</v>
+        <v>4.470742388850885</v>
       </c>
       <c r="K56">
-        <v>87.63632770484072</v>
+        <v>53.72301444576811</v>
       </c>
       <c r="L56">
-        <v>4.985149382938981</v>
+        <v>1.180606068545003</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -9219,34 +9219,34 @@
         <v>8000</v>
       </c>
       <c r="C57">
-        <v>8268.057226921341</v>
+        <v>7783.647825084365</v>
       </c>
       <c r="D57">
-        <v>-98.5944424201694</v>
+        <v>4.370753934615323</v>
       </c>
       <c r="E57">
-        <v>8297.841363245934</v>
+        <v>5836.478250843649</v>
       </c>
       <c r="F57">
-        <v>297.8413632459342</v>
+        <v>-2163.521749156351</v>
       </c>
       <c r="G57">
-        <v>297.8413632459342</v>
+        <v>2163.521749156351</v>
       </c>
       <c r="H57">
-        <v>23799226.83334472</v>
+        <v>14090225.6017367</v>
       </c>
       <c r="I57">
-        <v>4094.383876836001</v>
+        <v>2833.090160622854</v>
       </c>
       <c r="J57">
-        <v>3.723017040574177</v>
+        <v>27.04402186445439</v>
       </c>
       <c r="K57">
-        <v>86.1106311473086</v>
+        <v>53.23794185338058</v>
       </c>
       <c r="L57">
-        <v>5.143495303691703</v>
+        <v>0.4221117027827606</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -9257,34 +9257,34 @@
         <v>10000</v>
       </c>
       <c r="C58">
-        <v>8352.516506051055</v>
+        <v>9778.801857901897</v>
       </c>
       <c r="D58">
-        <v>-80.28907026518101</v>
+        <v>203.4490818229071</v>
       </c>
       <c r="E58">
-        <v>8169.462784501171</v>
+        <v>7788.01857901898</v>
       </c>
       <c r="F58">
-        <v>-1830.537215498829</v>
+        <v>-2211.98142098102</v>
       </c>
       <c r="G58">
-        <v>1830.537215498829</v>
+        <v>2211.98142098102</v>
       </c>
       <c r="H58">
-        <v>23434077.54163012</v>
+        <v>13925986.96254078</v>
       </c>
       <c r="I58">
-        <v>4053.958043597838</v>
+        <v>2821.99893312925</v>
       </c>
       <c r="J58">
-        <v>18.30537215498829</v>
+        <v>22.1198142098102</v>
       </c>
       <c r="K58">
-        <v>84.89982295101717</v>
+        <v>52.68226100260254</v>
       </c>
       <c r="L58">
-        <v>4.743242732096149</v>
+        <v>-0.3600642428367945</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -9295,34 +9295,34 @@
         <v>20000</v>
       </c>
       <c r="C59">
-        <v>9445.004692207287</v>
+        <v>18998.22509397248</v>
       </c>
       <c r="D59">
-        <v>36.98865537696027</v>
+        <v>1105.046497247675</v>
       </c>
       <c r="E59">
-        <v>8272.227435785875</v>
+        <v>9982.250939724805</v>
       </c>
       <c r="F59">
-        <v>-11727.77256421412</v>
+        <v>-10017.7490602752</v>
       </c>
       <c r="G59">
-        <v>11727.77256421412</v>
+        <v>10017.7490602752</v>
       </c>
       <c r="H59">
-        <v>25435947.22191614</v>
+        <v>15442290.63398119</v>
       </c>
       <c r="I59">
-        <v>4188.586368520931</v>
+        <v>2948.240163430056</v>
       </c>
       <c r="J59">
-        <v>58.63886282107062</v>
+        <v>50.08874530137597</v>
       </c>
       <c r="K59">
-        <v>84.43910435224618</v>
+        <v>52.63676072714243</v>
       </c>
       <c r="L59">
-        <v>1.790851089684666</v>
+        <v>-3.74252074382623</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -9333,34 +9333,34 @@
         <v>20000</v>
       </c>
       <c r="C60">
-        <v>10533.79401282582</v>
+        <v>20010.32715912201</v>
       </c>
       <c r="D60">
-        <v>142.1687219011179</v>
+        <v>1095.752054037861</v>
       </c>
       <c r="E60">
-        <v>9481.993347584248</v>
+        <v>20103.27159122015</v>
       </c>
       <c r="F60">
-        <v>-10518.00665241575</v>
+        <v>103.2715912201529</v>
       </c>
       <c r="G60">
-        <v>10518.00665241575</v>
+        <v>103.2715912201529</v>
       </c>
       <c r="H60">
-        <v>26904783.71706004</v>
+        <v>15176228.12342209</v>
       </c>
       <c r="I60">
-        <v>4297.714304450152</v>
+        <v>2899.188981150575</v>
       </c>
       <c r="J60">
-        <v>52.59003326207876</v>
+        <v>0.5163579561007645</v>
       </c>
       <c r="K60">
-        <v>83.88998243689846</v>
+        <v>51.73813309315895</v>
       </c>
       <c r="L60">
-        <v>-0.7019713215901358</v>
+        <v>-3.770219343845791</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -9371,34 +9371,34 @@
         <v>22000</v>
       </c>
       <c r="C61">
-        <v>11808.36646125425</v>
+        <v>21910.60792131599</v>
       </c>
       <c r="D61">
-        <v>255.4090945538485</v>
+        <v>1176.204924853472</v>
       </c>
       <c r="E61">
-        <v>10675.96273472694</v>
+        <v>21106.07921315988</v>
       </c>
       <c r="F61">
-        <v>-11324.03726527306</v>
+        <v>-893.9207868401245</v>
       </c>
       <c r="G61">
-        <v>11324.03726527306</v>
+        <v>893.9207868401245</v>
       </c>
       <c r="H61">
-        <v>28622225.00974195</v>
+        <v>14932547.89036654</v>
       </c>
       <c r="I61">
-        <v>4416.804524125117</v>
+        <v>2865.201384636839</v>
       </c>
       <c r="J61">
-        <v>51.47289666033208</v>
+        <v>4.063276303818748</v>
       </c>
       <c r="K61">
-        <v>83.34054030509226</v>
+        <v>50.93008467300064</v>
       </c>
       <c r="L61">
-        <v>-3.246897021829468</v>
+        <v>-4.126934751756494</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -9409,94 +9409,94 @@
         <v>8000</v>
       </c>
       <c r="C62">
-        <v>11657.39800022729</v>
+        <v>9508.681284616945</v>
       </c>
       <c r="D62">
-        <v>214.7713389957675</v>
+        <v>-181.6082313017796</v>
       </c>
       <c r="E62">
-        <v>12063.7755558081</v>
+        <v>23086.81284616946</v>
       </c>
       <c r="F62">
-        <v>4063.775555808095</v>
+        <v>15086.81284616946</v>
       </c>
       <c r="G62">
-        <v>4063.775555808095</v>
+        <v>15086.81284616946</v>
       </c>
       <c r="H62">
-        <v>28420425.78904597</v>
+        <v>18477204.12311616</v>
       </c>
       <c r="I62">
-        <v>4410.9207079865</v>
+        <v>3068.894908995715</v>
       </c>
       <c r="J62">
-        <v>50.79719444760119</v>
+        <v>188.5851605771182</v>
       </c>
       <c r="K62">
-        <v>82.7981512074674</v>
+        <v>53.22433593806927</v>
       </c>
       <c r="L62">
-        <v>-2.329929413822535</v>
+        <v>1.063025544331345</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="E63">
-        <v>12278.54689480386</v>
+        <v>22905.20461486768</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="E64">
-        <v>12708.0895727954</v>
+        <v>22541.98815226412</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65">
-        <v>13352.4035897827</v>
+        <v>21997.16345835878</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66">
-        <v>14211.48894576577</v>
+        <v>21270.73053315166</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67">
-        <v>15285.34564074461</v>
+        <v>20362.68937664276</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68">
-        <v>16573.97367471921</v>
+        <v>19273.03998883209</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69">
-        <v>18077.37304768958</v>
+        <v>18001.78236971963</v>
       </c>
     </row>
     <row r="70" spans="5:5">
       <c r="E70">
-        <v>19795.54375965572</v>
+        <v>16548.91651930539</v>
       </c>
     </row>
     <row r="71" spans="5:5">
       <c r="E71">
-        <v>21728.48581061763</v>
+        <v>14914.44243758938</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72">
-        <v>23876.19920057531</v>
+        <v>13098.36012457158</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73">
-        <v>26238.68392952875</v>
+        <v>11100.669580252</v>
       </c>
     </row>
     <row r="74" spans="5:5">
       <c r="E74">
-        <v>28815.93999747796</v>
+        <v>8921.370804630649</v>
       </c>
     </row>
   </sheetData>
@@ -9575,10 +9575,10 @@
         <v>5943.363229779768</v>
       </c>
       <c r="D3">
-        <v>57.83147724535762</v>
+        <v>-41.48298066383259</v>
       </c>
       <c r="E3">
-        <v>0.4175986545536549</v>
+        <v>0.3455196769486833</v>
       </c>
       <c r="F3">
         <v>2588.449924639433</v>
@@ -9613,37 +9613,37 @@
         <v>3000</v>
       </c>
       <c r="C4">
-        <v>6030.051729519032</v>
+        <v>5939.675572821669</v>
       </c>
       <c r="D4">
-        <v>60.71717949474831</v>
+        <v>-7.46718932867242</v>
       </c>
       <c r="E4">
-        <v>0.4768424550386773</v>
+        <v>0.5020249084292848</v>
       </c>
       <c r="F4">
-        <v>2847.844530786419</v>
+        <v>2800.715225774266</v>
       </c>
       <c r="G4">
-        <v>-152.155469213581</v>
+        <v>-199.2847742257341</v>
       </c>
       <c r="H4">
-        <v>152.155469213581</v>
+        <v>199.2847742257341</v>
       </c>
       <c r="I4">
-        <v>184712.3003098799</v>
+        <v>192993.8675231783</v>
       </c>
       <c r="J4">
-        <v>370.3026969265072</v>
+        <v>393.8673494325838</v>
       </c>
       <c r="K4">
-        <v>5.071848973786033</v>
+        <v>6.642825807524469</v>
       </c>
       <c r="L4">
-        <v>17.24717260287886</v>
+        <v>18.03266101974807</v>
       </c>
       <c r="M4">
-        <v>1.178210310232881</v>
+        <v>0.988061465298765</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9654,37 +9654,37 @@
         <v>3000</v>
       </c>
       <c r="C5">
-        <v>6126.228713206215</v>
+        <v>5981.938634982302</v>
       </c>
       <c r="D5">
-        <v>64.26315991399174</v>
+        <v>37.29003701170257</v>
       </c>
       <c r="E5">
-        <v>0.4653301572448232</v>
+        <v>0.4976209577993</v>
       </c>
       <c r="F5">
-        <v>2817.727680627593</v>
+        <v>2744.37398941242</v>
       </c>
       <c r="G5">
-        <v>-182.2723193724073</v>
+        <v>-255.6260105875799</v>
       </c>
       <c r="H5">
-        <v>182.2723193724073</v>
+        <v>255.6260105875799</v>
       </c>
       <c r="I5">
-        <v>134215.9330097189</v>
+        <v>150444.1307784261</v>
       </c>
       <c r="J5">
-        <v>307.6259044084739</v>
+        <v>347.7869031509158</v>
       </c>
       <c r="K5">
-        <v>6.075743979080244</v>
+        <v>8.520867019585996</v>
       </c>
       <c r="L5">
-        <v>13.52336306161265</v>
+        <v>14.86206301969405</v>
       </c>
       <c r="M5">
-        <v>0.825750147868392</v>
+        <v>0.3839682823483799</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9695,37 +9695,37 @@
         <v>3000</v>
       </c>
       <c r="C6">
-        <v>6311.398396717946</v>
+        <v>6155.548883693102</v>
       </c>
       <c r="D6">
-        <v>76.35381227376567</v>
+        <v>159.9782275408903</v>
       </c>
       <c r="E6">
-        <v>0.4059132792265963</v>
+        <v>0.4784486600076384</v>
       </c>
       <c r="F6">
-        <v>2465.055457530236</v>
+        <v>2396.858406752516</v>
       </c>
       <c r="G6">
-        <v>-534.9445424697637</v>
+        <v>-603.1415932474838</v>
       </c>
       <c r="H6">
-        <v>534.9445424697637</v>
+        <v>603.1415932474838</v>
       </c>
       <c r="I6">
-        <v>172203.3656368354</v>
+        <v>203778.0434600979</v>
       </c>
       <c r="J6">
-        <v>364.4555639237964</v>
+        <v>411.6255756750578</v>
       </c>
       <c r="K6">
-        <v>17.83148474899212</v>
+        <v>20.10471977491613</v>
       </c>
       <c r="L6">
-        <v>14.60039348345752</v>
+        <v>16.17272720849957</v>
       </c>
       <c r="M6">
-        <v>-0.7708001584386742</v>
+        <v>-1.140848579807573</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9736,37 +9736,37 @@
         <v>4000</v>
       </c>
       <c r="C7">
-        <v>6392.270282877734</v>
+        <v>6326.545443918209</v>
       </c>
       <c r="D7">
-        <v>76.80561966236792</v>
+        <v>169.894726956686</v>
       </c>
       <c r="E7">
-        <v>0.6217595259902424</v>
+        <v>0.6311624739607045</v>
       </c>
       <c r="F7">
-        <v>3968.809451872494</v>
+        <v>3923.934879211433</v>
       </c>
       <c r="G7">
-        <v>-31.19054812750619</v>
+        <v>-76.06512078856713</v>
       </c>
       <c r="H7">
-        <v>31.19054812750619</v>
+        <v>76.06512078856713</v>
       </c>
       <c r="I7">
-        <v>137957.2625679672</v>
+        <v>164179.6152881942</v>
       </c>
       <c r="J7">
-        <v>297.8025607645383</v>
+        <v>344.5134846977597</v>
       </c>
       <c r="K7">
-        <v>0.7797637031876548</v>
+        <v>1.901628019714178</v>
       </c>
       <c r="L7">
-        <v>11.83626752740355</v>
+        <v>13.31850737074249</v>
       </c>
       <c r="M7">
-        <v>-1.048053293237465</v>
+        <v>-1.583878711420087</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9777,37 +9777,37 @@
         <v>6000</v>
       </c>
       <c r="C8">
-        <v>6534.042389774485</v>
+        <v>6558.943873959148</v>
       </c>
       <c r="D8">
-        <v>83.30226838580624</v>
+        <v>226.1480597325131</v>
       </c>
       <c r="E8">
-        <v>0.84277319487376</v>
+        <v>0.9067417710567979</v>
       </c>
       <c r="F8">
-        <v>5397.699365410037</v>
+        <v>5420.531698196181</v>
       </c>
       <c r="G8">
-        <v>-602.300634589963</v>
+        <v>-579.4683018038186</v>
       </c>
       <c r="H8">
-        <v>602.300634589963</v>
+        <v>579.4683018038186</v>
       </c>
       <c r="I8">
-        <v>175425.3945445514</v>
+        <v>192780.2648727287</v>
       </c>
       <c r="J8">
-        <v>348.5522397354425</v>
+        <v>383.6726208821028</v>
       </c>
       <c r="K8">
-        <v>10.03834390983272</v>
+        <v>9.657805030063644</v>
       </c>
       <c r="L8">
-        <v>11.53661359114174</v>
+        <v>12.70839031396268</v>
       </c>
       <c r="M8">
-        <v>-2.62346209517358</v>
+        <v>-2.932541481398769</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9818,37 +9818,37 @@
         <v>7000</v>
       </c>
       <c r="C9">
-        <v>6760.455235626022</v>
+        <v>6913.105256359569</v>
       </c>
       <c r="D9">
-        <v>97.61332613237931</v>
+        <v>341.36005013363</v>
       </c>
       <c r="E9">
-        <v>0.8711374778628178</v>
+        <v>0.9966008502439456</v>
       </c>
       <c r="F9">
-        <v>5643.816756004559</v>
+        <v>5786.885453998184</v>
       </c>
       <c r="G9">
-        <v>-1356.183243995441</v>
+        <v>-1213.114546001816</v>
       </c>
       <c r="H9">
-        <v>1356.183243995441</v>
+        <v>1213.114546001816</v>
       </c>
       <c r="I9">
-        <v>413112.1940801867</v>
+        <v>375475.4987082235</v>
       </c>
       <c r="J9">
-        <v>492.4995260582995</v>
+        <v>502.1643244706333</v>
       </c>
       <c r="K9">
-        <v>19.37404634279202</v>
+        <v>17.33020780002594</v>
       </c>
       <c r="L9">
-        <v>12.6562468413775</v>
+        <v>13.36864995482886</v>
       </c>
       <c r="M9">
-        <v>-4.610353336381583</v>
+        <v>-4.65634516048204</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -9859,37 +9859,37 @@
         <v>6000</v>
       </c>
       <c r="C10">
-        <v>6709.936987572555</v>
+        <v>7070.65802528122</v>
       </c>
       <c r="D10">
-        <v>82.8001687137947</v>
+        <v>175.9334970428493</v>
       </c>
       <c r="E10">
-        <v>1.125457985532318</v>
+        <v>0.8788349574047548</v>
       </c>
       <c r="F10">
-        <v>7894.691288256654</v>
+        <v>8351.004884303398</v>
       </c>
       <c r="G10">
-        <v>1894.691288256654</v>
+        <v>2351.004884303398</v>
       </c>
       <c r="H10">
-        <v>1894.691288256654</v>
+        <v>2351.004884303398</v>
       </c>
       <c r="I10">
-        <v>810205.0545446207</v>
+        <v>1019444.057122</v>
       </c>
       <c r="J10">
-        <v>667.7734963330938</v>
+        <v>733.2693944497289</v>
       </c>
       <c r="K10">
-        <v>31.5781881376109</v>
+        <v>39.18341473838997</v>
       </c>
       <c r="L10">
-        <v>15.02148950340667</v>
+        <v>16.595495552774</v>
       </c>
       <c r="M10">
-        <v>-0.5629237262885751</v>
+        <v>0.01739396514347037</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9900,37 +9900,37 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>6700.721456374573</v>
+        <v>7113.728929468897</v>
       </c>
       <c r="D11">
-        <v>73.598598722617</v>
+        <v>56.35716347319433</v>
       </c>
       <c r="E11">
-        <v>1.708937650472951</v>
+        <v>1.438459254812428</v>
       </c>
       <c r="F11">
-        <v>11771.8134091947</v>
+        <v>12558.34302001586</v>
       </c>
       <c r="G11">
-        <v>1771.813409194696</v>
+        <v>2558.343020015864</v>
       </c>
       <c r="H11">
-        <v>1771.813409194696</v>
+        <v>2558.343020015864</v>
       </c>
       <c r="I11">
-        <v>1068995.910373233</v>
+        <v>1633407.940559988</v>
       </c>
       <c r="J11">
-        <v>790.4445977621607</v>
+        <v>936.0553528459661</v>
       </c>
       <c r="K11">
-        <v>17.71813409194696</v>
+        <v>25.58343020015863</v>
       </c>
       <c r="L11">
-        <v>15.32111667991115</v>
+        <v>17.59415495803896</v>
       </c>
       <c r="M11">
-        <v>1.765978119496415</v>
+        <v>2.74673658399215</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -9941,37 +9941,37 @@
         <v>12000</v>
       </c>
       <c r="C12">
-        <v>6772.028566828938</v>
+        <v>7132.175661267798</v>
       </c>
       <c r="D12">
-        <v>73.36944989579182</v>
+        <v>22.23777496633038</v>
       </c>
       <c r="E12">
-        <v>1.777469976130866</v>
+        <v>1.692072274215259</v>
       </c>
       <c r="F12">
-        <v>12045.2716178742</v>
+        <v>12748.97462927603</v>
       </c>
       <c r="G12">
-        <v>45.27161787420118</v>
+        <v>748.9746292760337</v>
       </c>
       <c r="H12">
-        <v>45.27161787420118</v>
+        <v>748.9746292760337</v>
       </c>
       <c r="I12">
-        <v>962301.2712744044</v>
+        <v>1526163.446033906</v>
       </c>
       <c r="J12">
-        <v>715.9272997733648</v>
+        <v>917.3472804889728</v>
       </c>
       <c r="K12">
-        <v>0.3772634822850099</v>
+        <v>6.241455243966948</v>
       </c>
       <c r="L12">
-        <v>13.82673136014853</v>
+        <v>16.45888498663176</v>
       </c>
       <c r="M12">
-        <v>2.013024901624151</v>
+        <v>3.619209629977902</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -9982,37 +9982,37 @@
         <v>14000</v>
       </c>
       <c r="C13">
-        <v>6822.621306740525</v>
+        <v>7103.825338494078</v>
       </c>
       <c r="D13">
-        <v>71.09177889737136</v>
+        <v>-23.29151299971506</v>
       </c>
       <c r="E13">
-        <v>2.11651370382668</v>
+        <v>1.986060477415071</v>
       </c>
       <c r="F13">
-        <v>14537.44992885985</v>
+        <v>15193.70047519592</v>
       </c>
       <c r="G13">
-        <v>537.4499288598454</v>
+        <v>1193.700475195921</v>
       </c>
       <c r="H13">
-        <v>537.4499288598454</v>
+        <v>1193.700475195921</v>
       </c>
       <c r="I13">
-        <v>901078.6489795907</v>
+        <v>1516959.571347457</v>
       </c>
       <c r="J13">
-        <v>699.7020842357721</v>
+        <v>942.4702981896045</v>
       </c>
       <c r="K13">
-        <v>3.83892806328461</v>
+        <v>8.52643196568515</v>
       </c>
       <c r="L13">
-        <v>12.91874924225181</v>
+        <v>15.73775289381843</v>
       </c>
       <c r="M13">
-        <v>2.827816946146822</v>
+        <v>4.789299562486136</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10023,37 +10023,37 @@
         <v>8000</v>
       </c>
       <c r="C14">
-        <v>6930.981295089457</v>
+        <v>7100.988168358842</v>
       </c>
       <c r="D14">
-        <v>74.81859984252746</v>
+        <v>-4.882604421684078</v>
       </c>
       <c r="E14">
-        <v>1.100671829786836</v>
+        <v>1.123415394275144</v>
       </c>
       <c r="F14">
-        <v>7546.68603697735</v>
+        <v>7751.202449450312</v>
       </c>
       <c r="G14">
-        <v>-453.3139630226497</v>
+        <v>-248.7975505496879</v>
       </c>
       <c r="H14">
-        <v>453.3139630226497</v>
+        <v>248.7975505496879</v>
       </c>
       <c r="I14">
-        <v>843113.2239872332</v>
+        <v>1395704.625498463</v>
       </c>
       <c r="J14">
-        <v>679.1697408013453</v>
+        <v>884.6642358862782</v>
       </c>
       <c r="K14">
-        <v>5.66642453778312</v>
+        <v>3.109969381871099</v>
       </c>
       <c r="L14">
-        <v>12.31438885021276</v>
+        <v>14.68543760115615</v>
       </c>
       <c r="M14">
-        <v>2.245853070888897</v>
+        <v>4.821009896430601</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -10064,37 +10064,37 @@
         <v>3000</v>
       </c>
       <c r="C15">
-        <v>7021.831711628186</v>
+        <v>7238.88768057837</v>
       </c>
       <c r="D15">
-        <v>76.42178151214756</v>
+        <v>123.6213005554071</v>
       </c>
       <c r="E15">
-        <v>0.4185626839907288</v>
+        <v>0.4075374482188977</v>
       </c>
       <c r="F15">
-        <v>2925.612610195734</v>
+        <v>2451.844102045321</v>
       </c>
       <c r="G15">
-        <v>-74.38738980426615</v>
+        <v>-548.1558979546789</v>
       </c>
       <c r="H15">
-        <v>74.38738980426615</v>
+        <v>548.1558979546789</v>
       </c>
       <c r="I15">
-        <v>778684.0132006685</v>
+        <v>1311456.184188004</v>
       </c>
       <c r="J15">
-        <v>632.6480214938776</v>
+        <v>858.778979122309</v>
       </c>
       <c r="K15">
-        <v>2.479579660142205</v>
+        <v>18.27186326515596</v>
       </c>
       <c r="L15">
-        <v>11.55786506636118</v>
+        <v>14.96131649838691</v>
       </c>
       <c r="M15">
-        <v>2.293420684068784</v>
+        <v>4.328027616686606</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -10105,37 +10105,37 @@
         <v>4000</v>
       </c>
       <c r="C16">
-        <v>7214.377012388379</v>
+        <v>7416.979065795203</v>
       </c>
       <c r="D16">
-        <v>88.03413343695209</v>
+        <v>172.6443767506907</v>
       </c>
       <c r="E16">
-        <v>0.4846030524246569</v>
+        <v>0.5355753047695686</v>
       </c>
       <c r="F16">
-        <v>3384.748622155903</v>
+        <v>3696.162897063472</v>
       </c>
       <c r="G16">
-        <v>-615.2513778440966</v>
+        <v>-303.837102936528</v>
       </c>
       <c r="H16">
-        <v>615.2513778440966</v>
+        <v>303.837102936528</v>
       </c>
       <c r="I16">
-        <v>750101.8878248392</v>
+        <v>1224374.812826066</v>
       </c>
       <c r="J16">
-        <v>631.4054040903219</v>
+        <v>819.1402736804675</v>
       </c>
       <c r="K16">
-        <v>15.38128444610242</v>
+        <v>7.595927573413201</v>
       </c>
       <c r="L16">
-        <v>11.83096645062841</v>
+        <v>14.43521728946022</v>
       </c>
       <c r="M16">
-        <v>1.323518416173727</v>
+        <v>4.166541610754816</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -10146,37 +10146,37 @@
         <v>3000</v>
       </c>
       <c r="C17">
-        <v>7225.427329388639</v>
+        <v>7449.138981998698</v>
       </c>
       <c r="D17">
-        <v>80.33575179328291</v>
+        <v>46.20836225821412</v>
       </c>
       <c r="E17">
-        <v>0.4603171771284471</v>
+        <v>0.4122200934793576</v>
       </c>
       <c r="F17">
-        <v>3398.032126753251</v>
+        <v>3776.755686815709</v>
       </c>
       <c r="G17">
-        <v>398.0321267532509</v>
+        <v>776.7556868157089</v>
       </c>
       <c r="H17">
-        <v>398.0321267532509</v>
+        <v>776.7556868157089</v>
       </c>
       <c r="I17">
-        <v>710657.0668983643</v>
+        <v>1182973.118437697</v>
       </c>
       <c r="J17">
-        <v>615.8471856011838</v>
+        <v>816.3146345561504</v>
       </c>
       <c r="K17">
-        <v>13.2677375584417</v>
+        <v>25.8918562271903</v>
       </c>
       <c r="L17">
-        <v>11.92675119114929</v>
+        <v>15.19899321864222</v>
       </c>
       <c r="M17">
-        <v>2.00327099966215</v>
+        <v>5.132503503907564</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -10187,37 +10187,37 @@
         <v>5000</v>
       </c>
       <c r="C18">
-        <v>7756.855585203256</v>
+        <v>7761.305868656021</v>
       </c>
       <c r="D18">
-        <v>125.4450021954163</v>
+        <v>285.5710342174119</v>
       </c>
       <c r="E18">
-        <v>0.4297810603472692</v>
+        <v>0.6276442034000562</v>
       </c>
       <c r="F18">
-        <v>2965.506249535156</v>
+        <v>3586.138893151531</v>
       </c>
       <c r="G18">
-        <v>-2034.493750464844</v>
+        <v>-1413.861106848469</v>
       </c>
       <c r="H18">
-        <v>2034.493750464844</v>
+        <v>1413.861106848469</v>
       </c>
       <c r="I18">
-        <v>924938.8015097483</v>
+        <v>1233975.000376515</v>
       </c>
       <c r="J18">
-        <v>704.5125959051625</v>
+        <v>853.6612890744201</v>
       </c>
       <c r="K18">
-        <v>40.68987500929688</v>
+        <v>28.27722213696939</v>
       </c>
       <c r="L18">
-        <v>13.72444642978352</v>
+        <v>16.01638252603767</v>
       </c>
       <c r="M18">
-        <v>-1.136650995285024</v>
+        <v>3.251730693225802</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -10228,37 +10228,37 @@
         <v>5000</v>
       </c>
       <c r="C19">
-        <v>7896.646016303473</v>
+        <v>8035.628125698542</v>
       </c>
       <c r="D19">
-        <v>126.8795450858963</v>
+        <v>275.4471347600104</v>
       </c>
       <c r="E19">
-        <v>0.6229015946077824</v>
+        <v>0.6231222518562149</v>
       </c>
       <c r="F19">
-        <v>4900.895476933608</v>
+        <v>5078.886733674847</v>
       </c>
       <c r="G19">
-        <v>-99.10452306639218</v>
+        <v>78.88673367484716</v>
       </c>
       <c r="H19">
-        <v>99.10452306639218</v>
+        <v>78.88673367484716</v>
       </c>
       <c r="I19">
-        <v>871108.3841557759</v>
+        <v>1161754.301339654</v>
       </c>
       <c r="J19">
-        <v>668.9003563264113</v>
+        <v>808.0863152273863</v>
       </c>
       <c r="K19">
-        <v>1.982090461327844</v>
+        <v>1.577734673496943</v>
       </c>
       <c r="L19">
-        <v>13.03371960810965</v>
+        <v>15.16705029941762</v>
       </c>
       <c r="M19">
-        <v>-1.345326636294541</v>
+        <v>3.532745568366103</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -10269,37 +10269,37 @@
         <v>8000</v>
       </c>
       <c r="C20">
-        <v>8155.730638912728</v>
+        <v>8357.130358214137</v>
       </c>
       <c r="D20">
-        <v>140.1000528382322</v>
+        <v>316.8967227400366</v>
       </c>
       <c r="E20">
-        <v>0.8565864126318186</v>
+        <v>0.9522139271615342</v>
       </c>
       <c r="F20">
-        <v>6762.012271523397</v>
+        <v>7535.999101054525</v>
       </c>
       <c r="G20">
-        <v>-1237.987728476603</v>
+        <v>-464.0008989454745</v>
       </c>
       <c r="H20">
-        <v>1237.987728476603</v>
+        <v>464.0008989454745</v>
       </c>
       <c r="I20">
-        <v>907858.6748059361</v>
+        <v>1109173.330944241</v>
       </c>
       <c r="J20">
-        <v>700.5163214458663</v>
+        <v>788.9704587672801</v>
       </c>
       <c r="K20">
-        <v>15.47484660595753</v>
+        <v>5.800011236818432</v>
       </c>
       <c r="L20">
-        <v>13.16933777465676</v>
+        <v>14.64665924038433</v>
       </c>
       <c r="M20">
-        <v>-3.051859220720015</v>
+        <v>3.030230629631931</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -10310,37 +10310,37 @@
         <v>3000</v>
       </c>
       <c r="C21">
-        <v>7859.145527847467</v>
+        <v>8164.28554438187</v>
       </c>
       <c r="D21">
-        <v>96.43153644788291</v>
+        <v>-141.870660175037</v>
       </c>
       <c r="E21">
-        <v>0.8221958187516984</v>
+        <v>0.4303687533239697</v>
       </c>
       <c r="F21">
-        <v>7226.809025588886</v>
+        <v>8644.54276391794</v>
       </c>
       <c r="G21">
-        <v>4226.809025588886</v>
+        <v>5644.54276391794</v>
       </c>
       <c r="H21">
-        <v>4226.809025588886</v>
+        <v>5644.54276391794</v>
       </c>
       <c r="I21">
-        <v>1800387.930805606</v>
+        <v>2727683.31424709</v>
       </c>
       <c r="J21">
-        <v>886.1106742954989</v>
+        <v>1044.526895880473</v>
       </c>
       <c r="K21">
-        <v>140.8936341862962</v>
+        <v>188.1514254639313</v>
       </c>
       <c r="L21">
-        <v>19.89166916474305</v>
+        <v>23.77848904162365</v>
       </c>
       <c r="M21">
-        <v>2.357416394267291</v>
+        <v>7.692770043203179</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -10351,37 +10351,37 @@
         <v>8000</v>
       </c>
       <c r="C22">
-        <v>7879.31469165155</v>
+        <v>8119.663999533695</v>
       </c>
       <c r="D22">
-        <v>88.80529918350291</v>
+        <v>-54.34645638086064</v>
       </c>
       <c r="E22">
-        <v>1.114443859631739</v>
+        <v>0.974619695712973</v>
       </c>
       <c r="F22">
-        <v>8953.66773652896</v>
+        <v>7050.378643045183</v>
       </c>
       <c r="G22">
-        <v>953.6677365289597</v>
+        <v>-949.6213569548172</v>
       </c>
       <c r="H22">
-        <v>953.6677365289597</v>
+        <v>949.6213569548172</v>
       </c>
       <c r="I22">
-        <v>1755842.641850139</v>
+        <v>2636388.184613971</v>
       </c>
       <c r="J22">
-        <v>889.4885274071719</v>
+        <v>1039.78161893419</v>
       </c>
       <c r="K22">
-        <v>11.920846706612</v>
+        <v>11.87026696193522</v>
       </c>
       <c r="L22">
-        <v>19.4931280418365</v>
+        <v>23.18307793763923</v>
       </c>
       <c r="M22">
-        <v>3.420616987739555</v>
+        <v>6.814588494320132</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -10392,37 +10392,37 @@
         <v>12000</v>
       </c>
       <c r="C23">
-        <v>7882.96075580743</v>
+        <v>8090.242295254517</v>
       </c>
       <c r="D23">
-        <v>80.28937568074068</v>
+        <v>-31.914179489347</v>
       </c>
       <c r="E23">
-        <v>1.690270953043106</v>
+        <v>1.478787402615363</v>
       </c>
       <c r="F23">
-        <v>13617.02025582421</v>
+        <v>11601.63066294923</v>
       </c>
       <c r="G23">
-        <v>1617.020255824211</v>
+        <v>-398.3693370507663</v>
       </c>
       <c r="H23">
-        <v>1617.020255824211</v>
+        <v>398.3693370507663</v>
       </c>
       <c r="I23">
-        <v>1796743.20689279</v>
+        <v>2518402.943856271</v>
       </c>
       <c r="J23">
-        <v>924.1328954270308</v>
+        <v>1009.238176939741</v>
       </c>
       <c r="K23">
-        <v>13.47516879853509</v>
+        <v>3.319744475423053</v>
       </c>
       <c r="L23">
-        <v>19.20655855406024</v>
+        <v>22.23720491562894</v>
       </c>
       <c r="M23">
-        <v>5.042153402535757</v>
+        <v>6.626101422581248</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -10433,37 +10433,37 @@
         <v>12000</v>
       </c>
       <c r="C24">
-        <v>7854.162819462396</v>
+        <v>7971.349193793499</v>
       </c>
       <c r="D24">
-        <v>69.38064447816321</v>
+        <v>-110.1952092638509</v>
       </c>
       <c r="E24">
-        <v>1.752508199245115</v>
+        <v>1.524059428402621</v>
       </c>
       <c r="F24">
-        <v>14154.43802114039</v>
+        <v>13635.27358121553</v>
       </c>
       <c r="G24">
-        <v>2154.438021140391</v>
+        <v>1635.27358121553</v>
       </c>
       <c r="H24">
-        <v>2154.438021140391</v>
+        <v>1635.27358121553</v>
       </c>
       <c r="I24">
-        <v>1926055.024167451</v>
+        <v>2525480.977563779</v>
       </c>
       <c r="J24">
-        <v>980.055855686729</v>
+        <v>1037.69433167955</v>
       </c>
       <c r="K24">
-        <v>17.95365017616993</v>
+        <v>13.62727984346275</v>
       </c>
       <c r="L24">
-        <v>19.14960817324704</v>
+        <v>21.84584468507593</v>
       </c>
       <c r="M24">
-        <v>6.952723974531408</v>
+        <v>8.020269406009776</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -10474,37 +10474,37 @@
         <v>16000</v>
       </c>
       <c r="C25">
-        <v>7890.78867994774</v>
+        <v>7878.703575389043</v>
       </c>
       <c r="D25">
-        <v>66.10516607888127</v>
+        <v>-94.40057749039502</v>
       </c>
       <c r="E25">
-        <v>2.107630404532515</v>
+        <v>2.026317912036255</v>
       </c>
       <c r="F25">
-        <v>16770.28832429651</v>
+        <v>15612.72723554834</v>
       </c>
       <c r="G25">
-        <v>770.2883242965145</v>
+        <v>-387.2727644516599</v>
       </c>
       <c r="H25">
-        <v>770.2883242965145</v>
+        <v>387.2727644516599</v>
       </c>
       <c r="I25">
-        <v>1868111.071053541</v>
+        <v>2422198.334803877</v>
       </c>
       <c r="J25">
-        <v>970.9355282349806</v>
+        <v>1009.415133104424</v>
       </c>
       <c r="K25">
-        <v>4.814302026853215</v>
+        <v>2.420454777822874</v>
       </c>
       <c r="L25">
-        <v>18.52633399296905</v>
+        <v>21.00126251519536</v>
       </c>
       <c r="M25">
-        <v>7.8113797960373</v>
+        <v>7.861300149426911</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -10515,37 +10515,37 @@
         <v>10000</v>
       </c>
       <c r="C26">
-        <v>8058.455814972745</v>
+        <v>7884.844148248599</v>
       </c>
       <c r="D26">
-        <v>76.26136297349368</v>
+        <v>-3.913542175439546</v>
       </c>
       <c r="E26">
-        <v>1.114697900275149</v>
+        <v>1.253771836689522</v>
       </c>
       <c r="F26">
-        <v>8757.92890892574</v>
+        <v>8745.005821541492</v>
       </c>
       <c r="G26">
-        <v>-1242.07109107426</v>
+        <v>-1254.994178458508</v>
       </c>
       <c r="H26">
-        <v>1242.07109107426</v>
+        <v>1254.994178458508</v>
       </c>
       <c r="I26">
-        <v>1854553.96789641</v>
+        <v>2386898.837018914</v>
       </c>
       <c r="J26">
-        <v>982.232843353284</v>
+        <v>1019.647593327511</v>
       </c>
       <c r="K26">
-        <v>12.4207109107426</v>
+        <v>12.54994178458508</v>
       </c>
       <c r="L26">
-        <v>18.27193303120961</v>
+        <v>20.64912415141993</v>
       </c>
       <c r="M26">
-        <v>6.456997564633578</v>
+        <v>6.551598024616104</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -10556,37 +10556,37 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>7832.635745865207</v>
+        <v>7613.3240539203</v>
       </c>
       <c r="D27">
-        <v>46.05321976539051</v>
+        <v>-244.759439113013</v>
       </c>
       <c r="E27">
-        <v>0.4022406043997565</v>
+        <v>0.2771813534789957</v>
       </c>
       <c r="F27">
-        <v>3404.889055506665</v>
+        <v>3211.774348789266</v>
       </c>
       <c r="G27">
-        <v>1404.889055506665</v>
+        <v>1211.774348789266</v>
       </c>
       <c r="H27">
-        <v>1404.889055506665</v>
+        <v>1211.774348789266</v>
       </c>
       <c r="I27">
-        <v>1859320.33951185</v>
+        <v>2350158.766433503</v>
       </c>
       <c r="J27">
-        <v>999.1390918394193</v>
+        <v>1027.332663545981</v>
       </c>
       <c r="K27">
-        <v>70.24445277533323</v>
+        <v>60.58871743946332</v>
       </c>
       <c r="L27">
-        <v>20.35083382097456</v>
+        <v>22.24670788294166</v>
       </c>
       <c r="M27">
-        <v>7.753839476623193</v>
+        <v>7.682122633770535</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -10597,37 +10597,37 @@
         <v>5000</v>
       </c>
       <c r="C28">
-        <v>8098.202017604459</v>
+        <v>7545.611778146394</v>
       </c>
       <c r="D28">
-        <v>68.00452496277661</v>
+        <v>-85.41699210781687</v>
       </c>
       <c r="E28">
-        <v>0.4978848473314668</v>
+        <v>0.6499306453823518</v>
       </c>
       <c r="F28">
-        <v>3818.03672184905</v>
+        <v>3946.421239289672</v>
       </c>
       <c r="G28">
-        <v>-1181.96327815095</v>
+        <v>-1053.578760710328</v>
       </c>
       <c r="H28">
-        <v>1181.96327815095</v>
+        <v>1053.578760710328</v>
       </c>
       <c r="I28">
-        <v>1841540.218411292</v>
+        <v>2302461.437148365</v>
       </c>
       <c r="J28">
-        <v>1006.17079131294</v>
+        <v>1028.342128821533</v>
       </c>
       <c r="K28">
-        <v>23.639265563019</v>
+        <v>21.07157521420657</v>
       </c>
       <c r="L28">
-        <v>20.47731196489934</v>
+        <v>22.2015104726057</v>
       </c>
       <c r="M28">
-        <v>6.524936831275072</v>
+        <v>6.650040443412425</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -10638,37 +10638,37 @@
         <v>5000</v>
       </c>
       <c r="C29">
-        <v>8408.834762047776</v>
+        <v>7880.427097498963</v>
       </c>
       <c r="D29">
-        <v>92.26734691083068</v>
+        <v>292.7920882065309</v>
       </c>
       <c r="E29">
-        <v>0.4737467301087414</v>
+        <v>0.6122570489878786</v>
       </c>
       <c r="F29">
-        <v>3759.045143522405</v>
+        <v>3075.242192075038</v>
       </c>
       <c r="G29">
-        <v>-1240.954856477595</v>
+        <v>-1924.757807924962</v>
       </c>
       <c r="H29">
-        <v>1240.954856477595</v>
+        <v>1924.757807924962</v>
       </c>
       <c r="I29">
-        <v>1830370.91238922</v>
+        <v>2354395.925371318</v>
       </c>
       <c r="J29">
-        <v>1014.866497430149</v>
+        <v>1061.542709529067</v>
       </c>
       <c r="K29">
-        <v>24.81909712955189</v>
+        <v>38.49515615849924</v>
       </c>
       <c r="L29">
-        <v>20.63811882284944</v>
+        <v>22.8049788313425</v>
       </c>
       <c r="M29">
-        <v>5.246252597553942</v>
+        <v>4.628884824222434</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -10679,37 +10679,37 @@
         <v>3000</v>
       </c>
       <c r="C30">
-        <v>8364.229765123247</v>
+        <v>7867.809485410413</v>
       </c>
       <c r="D30">
-        <v>78.58011252729474</v>
+        <v>17.92335794095787</v>
       </c>
       <c r="E30">
-        <v>0.4226699747584565</v>
+        <v>0.4059349057218283</v>
       </c>
       <c r="F30">
-        <v>3653.612678508636</v>
+        <v>5129.873645026181</v>
       </c>
       <c r="G30">
-        <v>653.6126785086362</v>
+        <v>2129.873645026181</v>
       </c>
       <c r="H30">
-        <v>653.6126785086362</v>
+        <v>2129.873645026181</v>
       </c>
       <c r="I30">
-        <v>1780258.006000577</v>
+        <v>2432323.276028668</v>
       </c>
       <c r="J30">
-        <v>1001.964575325809</v>
+        <v>1099.697385796822</v>
       </c>
       <c r="K30">
-        <v>21.78708928362121</v>
+        <v>70.99578816753937</v>
       </c>
       <c r="L30">
-        <v>20.67915348216271</v>
+        <v>24.5260791647781</v>
       </c>
       <c r="M30">
-        <v>5.966137749808373</v>
+        <v>6.405064406264411</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -10720,37 +10720,37 @@
         <v>4000</v>
       </c>
       <c r="C31">
-        <v>8260.897393882306</v>
+        <v>7753.752635013887</v>
       </c>
       <c r="D31">
-        <v>60.38886415047108</v>
+        <v>-100.8588295627776</v>
       </c>
       <c r="E31">
-        <v>0.6090323246615289</v>
+        <v>0.5266035392705404</v>
       </c>
       <c r="F31">
-        <v>5259.039735758859</v>
+        <v>4913.775606885619</v>
       </c>
       <c r="G31">
-        <v>1259.039735758859</v>
+        <v>913.7756068856188</v>
       </c>
       <c r="H31">
-        <v>1259.039735758859</v>
+        <v>913.7756068856188</v>
       </c>
       <c r="I31">
-        <v>1773531.214628824</v>
+        <v>2377242.675466962</v>
       </c>
       <c r="J31">
-        <v>1010.829236030397</v>
+        <v>1093.286289972297</v>
       </c>
       <c r="K31">
-        <v>31.47599339397147</v>
+        <v>22.84439017214047</v>
       </c>
       <c r="L31">
-        <v>21.05145830670785</v>
+        <v>24.46808988916991</v>
       </c>
       <c r="M31">
-        <v>7.159367927465902</v>
+        <v>7.278430419644699</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -10761,37 +10761,37 @@
         <v>6000</v>
       </c>
       <c r="C32">
-        <v>8202.779747206065</v>
+        <v>7531.232818867117</v>
       </c>
       <c r="D32">
-        <v>48.53821306779989</v>
+        <v>-210.3537174883705</v>
       </c>
       <c r="E32">
-        <v>0.8440737070746839</v>
+        <v>0.8122354765819465</v>
       </c>
       <c r="F32">
-        <v>7127.900744250745</v>
+        <v>7287.192064638779</v>
       </c>
       <c r="G32">
-        <v>1127.900744250745</v>
+        <v>1287.192064638779</v>
       </c>
       <c r="H32">
-        <v>1127.900744250745</v>
+        <v>1287.192064638779</v>
       </c>
       <c r="I32">
-        <v>1756818.843770576</v>
+        <v>2353230.033327031</v>
       </c>
       <c r="J32">
-        <v>1014.731619637742</v>
+        <v>1099.749815794513</v>
       </c>
       <c r="K32">
-        <v>18.79834573751242</v>
+        <v>21.45320107731298</v>
       </c>
       <c r="L32">
-        <v>20.97635455440133</v>
+        <v>24.36759359544134</v>
       </c>
       <c r="M32">
-        <v>8.243361096619671</v>
+        <v>8.406093933532409</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -10802,37 +10802,37 @@
         <v>7000</v>
       </c>
       <c r="C33">
-        <v>8274.940165842814</v>
+        <v>8125.860904159818</v>
       </c>
       <c r="D33">
-        <v>50.90043362469485</v>
+        <v>514.129905014594</v>
       </c>
       <c r="E33">
-        <v>0.8245689935576525</v>
+        <v>0.8183393416562892</v>
       </c>
       <c r="F33">
-        <v>6784.199126127964</v>
+        <v>3150.677612095875</v>
       </c>
       <c r="G33">
-        <v>-215.8008738720364</v>
+        <v>-3849.322387904125</v>
       </c>
       <c r="H33">
-        <v>215.8008738720364</v>
+        <v>3849.322387904125</v>
       </c>
       <c r="I33">
-        <v>1701649.526783265</v>
+        <v>2755296.253091318</v>
       </c>
       <c r="J33">
-        <v>988.9596600969129</v>
+        <v>1188.445705217404</v>
       </c>
       <c r="K33">
-        <v>3.082869626743377</v>
+        <v>54.99031982720178</v>
       </c>
       <c r="L33">
-        <v>20.39914536318656</v>
+        <v>25.35542347388523</v>
       </c>
       <c r="M33">
-        <v>8.23997035648657</v>
+        <v>4.53977648567677</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -10843,37 +10843,37 @@
         <v>10000</v>
       </c>
       <c r="C34">
-        <v>8384.092637493026</v>
+        <v>8785.828751316534</v>
       </c>
       <c r="D34">
-        <v>56.72563742724654</v>
+        <v>645.3840529425037</v>
       </c>
       <c r="E34">
-        <v>1.122272964937981</v>
+        <v>1.121838867271628</v>
       </c>
       <c r="F34">
-        <v>9278.681932349202</v>
+        <v>8420.70521340045</v>
       </c>
       <c r="G34">
-        <v>-721.3180676507982</v>
+        <v>-1579.29478659955</v>
       </c>
       <c r="H34">
-        <v>721.3180676507982</v>
+        <v>1579.29478659955</v>
       </c>
       <c r="I34">
-        <v>1664732.346406272</v>
+        <v>2747136.120900355</v>
       </c>
       <c r="J34">
-        <v>980.5958603329718</v>
+        <v>1200.659739010596</v>
       </c>
       <c r="K34">
-        <v>7.213180676507982</v>
+        <v>15.7929478659955</v>
       </c>
       <c r="L34">
-        <v>19.98708396672785</v>
+        <v>25.05659611113867</v>
       </c>
       <c r="M34">
-        <v>7.574659975401739</v>
+        <v>3.17823856040557</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -10884,37 +10884,37 @@
         <v>15000</v>
       </c>
       <c r="C35">
-        <v>8479.833146695766</v>
+        <v>9495.3137819001</v>
       </c>
       <c r="D35">
-        <v>60.62712460479591</v>
+        <v>703.0749328194599</v>
       </c>
       <c r="E35">
-        <v>1.69813413070183</v>
+        <v>1.569632703330519</v>
       </c>
       <c r="F35">
-        <v>14267.26995001316</v>
+        <v>13946.75868632298</v>
       </c>
       <c r="G35">
-        <v>-732.7300499868415</v>
+        <v>-1053.241313677023</v>
       </c>
       <c r="H35">
-        <v>732.7300499868415</v>
+        <v>1053.241313677023</v>
       </c>
       <c r="I35">
-        <v>1630555.406398619</v>
+        <v>2697505.246474166</v>
       </c>
       <c r="J35">
-        <v>973.084775170968</v>
+        <v>1196.192514000488</v>
       </c>
       <c r="K35">
-        <v>4.884866999912277</v>
+        <v>7.021608757846819</v>
       </c>
       <c r="L35">
-        <v>19.5294410283395</v>
+        <v>24.5100813428571</v>
       </c>
       <c r="M35">
-        <v>6.88013042249651</v>
+        <v>2.309612988241637</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -10925,37 +10925,37 @@
         <v>15000</v>
       </c>
       <c r="C36">
-        <v>8542.143345554336</v>
+        <v>10166.32596056718</v>
       </c>
       <c r="D36">
-        <v>60.79543203017327</v>
+        <v>674.218454082317</v>
       </c>
       <c r="E36">
-        <v>1.752857335832767</v>
+        <v>1.480319296431655</v>
       </c>
       <c r="F36">
-        <v>14967.2266507814</v>
+        <v>15542.95047518323</v>
       </c>
       <c r="G36">
-        <v>-32.77334921860165</v>
+        <v>542.9504751832337</v>
       </c>
       <c r="H36">
-        <v>32.77334921860165</v>
+        <v>542.9504751832337</v>
       </c>
       <c r="I36">
-        <v>1582629.485399218</v>
+        <v>2626837.304474976</v>
       </c>
       <c r="J36">
-        <v>945.4285567606042</v>
+        <v>1176.979512858804</v>
       </c>
       <c r="K36">
-        <v>0.2184889947906777</v>
+        <v>3.619669834554891</v>
       </c>
       <c r="L36">
-        <v>18.96147185088219</v>
+        <v>23.89565747496586</v>
       </c>
       <c r="M36">
-        <v>7.046726871600419</v>
+        <v>2.808623434682285</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -10966,37 +10966,37 @@
         <v>18000</v>
       </c>
       <c r="C37">
-        <v>8597.310001205267</v>
+        <v>10664.37509935786</v>
       </c>
       <c r="D37">
-        <v>60.23255439224912</v>
+        <v>515.6660703198473</v>
       </c>
       <c r="E37">
-        <v>2.106235177935884</v>
+        <v>1.721708141113285</v>
       </c>
       <c r="F37">
-        <v>18131.8153359689</v>
+        <v>21966.38932362885</v>
       </c>
       <c r="G37">
-        <v>131.8153359688986</v>
+        <v>3966.38932362885</v>
       </c>
       <c r="H37">
-        <v>131.8153359688986</v>
+        <v>3966.38932362885</v>
       </c>
       <c r="I37">
-        <v>1537907.936753429</v>
+        <v>3001277.503392746</v>
       </c>
       <c r="J37">
-        <v>922.1824647379841</v>
+        <v>1256.676936023662</v>
       </c>
       <c r="K37">
-        <v>0.7323074220494366</v>
+        <v>22.0354962423825</v>
       </c>
       <c r="L37">
-        <v>18.44063858148697</v>
+        <v>23.84251001117777</v>
       </c>
       <c r="M37">
-        <v>7.367297050050284</v>
+        <v>5.786755018035993</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -11007,37 +11007,37 @@
         <v>8000</v>
       </c>
       <c r="C38">
-        <v>8524.2786410361</v>
+        <v>10748.10463083239</v>
       </c>
       <c r="D38">
-        <v>46.90616293610752</v>
+        <v>126.9231853590566</v>
       </c>
       <c r="E38">
-        <v>1.097077693735999</v>
+        <v>0.7952627353359716</v>
       </c>
       <c r="F38">
-        <v>9650.544508267296</v>
+        <v>14017.2207515713</v>
       </c>
       <c r="G38">
-        <v>1650.544508267296</v>
+        <v>6017.220751571296</v>
       </c>
       <c r="H38">
-        <v>1650.544508267296</v>
+        <v>6017.220751571296</v>
       </c>
       <c r="I38">
-        <v>1570863.193337259</v>
+        <v>3923657.171996843</v>
       </c>
       <c r="J38">
-        <v>942.4147437249093</v>
+        <v>1388.914264233319</v>
       </c>
       <c r="K38">
-        <v>20.6318063533412</v>
+        <v>75.21525939464119</v>
       </c>
       <c r="L38">
-        <v>18.50150435292736</v>
+        <v>25.26953082738508</v>
       </c>
       <c r="M38">
-        <v>8.960531142543864</v>
+        <v>9.568122856375171</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -11048,37 +11048,37 @@
         <v>5000</v>
       </c>
       <c r="C39">
-        <v>8918.511574154993</v>
+        <v>11519.7611437683</v>
       </c>
       <c r="D39">
-        <v>81.63883995438599</v>
+        <v>707.1831801782276</v>
       </c>
       <c r="E39">
-        <v>0.4180797105366963</v>
+        <v>0.4183512347532903</v>
       </c>
       <c r="F39">
-        <v>3447.67855597179</v>
+        <v>3014.354929213671</v>
       </c>
       <c r="G39">
-        <v>-1552.32144402821</v>
+        <v>-1985.645070786329</v>
       </c>
       <c r="H39">
-        <v>1552.32144402821</v>
+        <v>1985.645070786329</v>
       </c>
       <c r="I39">
-        <v>1593534.508803545</v>
+        <v>3924174.176730389</v>
       </c>
       <c r="J39">
-        <v>958.8987085979714</v>
+        <v>1405.042123869887</v>
       </c>
       <c r="K39">
-        <v>31.04642888056421</v>
+        <v>39.71290141572658</v>
       </c>
       <c r="L39">
-        <v>18.84055636718782</v>
+        <v>25.65989219463755</v>
       </c>
       <c r="M39">
-        <v>7.187636352528419</v>
+        <v>8.045066446290235</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -11089,37 +11089,37 @@
         <v>4000</v>
       </c>
       <c r="C40">
-        <v>8913.195636168135</v>
+        <v>11680.4245900024</v>
       </c>
       <c r="D40">
-        <v>72.94336216026164</v>
+        <v>215.3154196285118</v>
       </c>
       <c r="E40">
-        <v>0.4929736452618883</v>
+        <v>0.3732010386799748</v>
       </c>
       <c r="F40">
-        <v>4481.038514889085</v>
+        <v>7946.665815516651</v>
       </c>
       <c r="G40">
-        <v>481.0385148890855</v>
+        <v>3946.665815516651</v>
       </c>
       <c r="H40">
-        <v>481.0385148890855</v>
+        <v>3946.665815516651</v>
       </c>
       <c r="I40">
-        <v>1557688.812593102</v>
+        <v>4230805.673641898</v>
       </c>
       <c r="J40">
-        <v>946.3234403424744</v>
+        <v>1471.926957860591</v>
       </c>
       <c r="K40">
-        <v>12.02596287222714</v>
+        <v>98.66664538791626</v>
       </c>
       <c r="L40">
-        <v>18.66122495942569</v>
+        <v>27.5811225418291</v>
       </c>
       <c r="M40">
-        <v>7.791473207650906</v>
+        <v>10.36078793206737</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -11130,37 +11130,37 @@
         <v>4000</v>
       </c>
       <c r="C41">
-        <v>8937.28619251979</v>
+        <v>11413.11173914777</v>
       </c>
       <c r="D41">
-        <v>68.05808157940101</v>
+        <v>-219.0500238063115</v>
       </c>
       <c r="E41">
-        <v>0.4711283725367514</v>
+        <v>0.3766523897748981</v>
       </c>
       <c r="F41">
-        <v>4257.153966760719</v>
+        <v>7283.250673823661</v>
       </c>
       <c r="G41">
-        <v>257.1539667607185</v>
+        <v>3283.250673823661</v>
       </c>
       <c r="H41">
-        <v>257.1539667607185</v>
+        <v>3283.250673823661</v>
       </c>
       <c r="I41">
-        <v>1519443.667722016</v>
+        <v>4398726.938091169</v>
       </c>
       <c r="J41">
-        <v>928.6524281993526</v>
+        <v>1518.371155705798</v>
       </c>
       <c r="K41">
-        <v>6.428849169017963</v>
+        <v>82.08126684559151</v>
       </c>
       <c r="L41">
-        <v>18.34757429813319</v>
+        <v>28.97856213936147</v>
       </c>
       <c r="M41">
-        <v>8.216645395259905</v>
+        <v>12.20622090064348</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -11171,37 +11171,37 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>8620.727464198924</v>
+        <v>10630.01700864548</v>
       </c>
       <c r="D42">
-        <v>29.5964005893743</v>
+        <v>-726.6902598326996</v>
       </c>
       <c r="E42">
-        <v>0.4036028755314049</v>
+        <v>0.2099252986526446</v>
       </c>
       <c r="F42">
-        <v>3806.288637024717</v>
+        <v>4544.060387061464</v>
       </c>
       <c r="G42">
-        <v>1806.288637024717</v>
+        <v>2544.060387061464</v>
       </c>
       <c r="H42">
-        <v>1806.288637024717</v>
+        <v>2544.060387061464</v>
       </c>
       <c r="I42">
-        <v>1563024.542035081</v>
+        <v>4450564.845964273</v>
       </c>
       <c r="J42">
-        <v>950.5933334199868</v>
+        <v>1544.01338648969</v>
       </c>
       <c r="K42">
-        <v>90.31443185123582</v>
+        <v>127.2030193530732</v>
       </c>
       <c r="L42">
-        <v>20.14674573696075</v>
+        <v>31.43417356970426</v>
       </c>
       <c r="M42">
-        <v>9.927164438482947</v>
+        <v>13.65119908104665</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -11212,37 +11212,37 @@
         <v>5000</v>
       </c>
       <c r="C43">
-        <v>8610.671754806022</v>
+        <v>9866.560147301159</v>
       </c>
       <c r="D43">
-        <v>25.63118959114668</v>
+        <v>-759.7802011931553</v>
       </c>
       <c r="E43">
-        <v>0.6061965710446221</v>
+        <v>0.5087463588586616</v>
       </c>
       <c r="F43">
-        <v>5268.326852447119</v>
+        <v>5215.126916477422</v>
       </c>
       <c r="G43">
-        <v>268.3268524471187</v>
+        <v>215.1269164774221</v>
       </c>
       <c r="H43">
-        <v>268.3268524471187</v>
+        <v>215.1269164774221</v>
       </c>
       <c r="I43">
-        <v>1526658.072710913</v>
+        <v>4343143.254360098</v>
       </c>
       <c r="J43">
-        <v>933.9526875425998</v>
+        <v>1511.601521367439</v>
       </c>
       <c r="K43">
-        <v>5.366537048942373</v>
+        <v>4.302538329548443</v>
       </c>
       <c r="L43">
-        <v>19.78625284213103</v>
+        <v>30.77242636872485</v>
       </c>
       <c r="M43">
-        <v>10.3913434983186</v>
+        <v>14.08622625623394</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -11253,37 +11253,37 @@
         <v>7000</v>
       </c>
       <c r="C44">
-        <v>8605.415995148254</v>
+        <v>9062.806888418923</v>
       </c>
       <c r="D44">
-        <v>22.54249466625521</v>
+        <v>-799.3559531133279</v>
       </c>
       <c r="E44">
-        <v>0.8410104573713204</v>
+        <v>0.7763724212428864</v>
       </c>
       <c r="F44">
-        <v>7289.676241697325</v>
+        <v>7396.849749653947</v>
       </c>
       <c r="G44">
-        <v>289.6762416973252</v>
+        <v>396.8497496539467</v>
       </c>
       <c r="H44">
-        <v>289.6762416973252</v>
+        <v>396.8497496539467</v>
       </c>
       <c r="I44">
-        <v>1492306.983479793</v>
+        <v>4243484.836965819</v>
       </c>
       <c r="J44">
-        <v>918.6127721653313</v>
+        <v>1485.059812517118</v>
       </c>
       <c r="K44">
-        <v>4.138232024247503</v>
+        <v>5.669282137913524</v>
       </c>
       <c r="L44">
-        <v>19.41368091789571</v>
+        <v>30.17473245846744</v>
       </c>
       <c r="M44">
-        <v>10.88020952024327</v>
+        <v>14.60521024546486</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -11294,37 +11294,37 @@
         <v>10000</v>
       </c>
       <c r="C45">
-        <v>8942.92154041765</v>
+        <v>8619.528610334148</v>
       </c>
       <c r="D45">
-        <v>54.03879972656928</v>
+        <v>-478.8860455876309</v>
       </c>
       <c r="E45">
-        <v>0.8539323752454463</v>
+        <v>1.125974560279416</v>
       </c>
       <c r="F45">
-        <v>7114.347048403553</v>
+        <v>6762.306998207027</v>
       </c>
       <c r="G45">
-        <v>-2885.652951596447</v>
+        <v>-3237.693001792973</v>
       </c>
       <c r="H45">
-        <v>2885.652951596447</v>
+        <v>3237.693001792973</v>
       </c>
       <c r="I45">
-        <v>1651253.168911828</v>
+        <v>4388581.840149386</v>
       </c>
       <c r="J45">
-        <v>964.3578926172178</v>
+        <v>1525.818723895626</v>
       </c>
       <c r="K45">
-        <v>28.85652951596447</v>
+        <v>32.37693001792973</v>
       </c>
       <c r="L45">
-        <v>19.63328204808336</v>
+        <v>30.22594635519912</v>
       </c>
       <c r="M45">
-        <v>7.371792704719061</v>
+        <v>12.09312580723866</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -11335,37 +11335,37 @@
         <v>14000</v>
       </c>
       <c r="C46">
-        <v>9309.955421467181</v>
+        <v>8531.140685062641</v>
       </c>
       <c r="D46">
-        <v>85.33830785886541</v>
+        <v>-127.4377373031193</v>
       </c>
       <c r="E46">
-        <v>1.160422328333643</v>
+        <v>1.589125888405978</v>
       </c>
       <c r="F46">
-        <v>10097.04535636308</v>
+        <v>9132.48923369843</v>
       </c>
       <c r="G46">
-        <v>-3902.95464363692</v>
+        <v>-4867.51076630157</v>
       </c>
       <c r="H46">
-        <v>3902.95464363692</v>
+        <v>4867.51076630157</v>
       </c>
       <c r="I46">
-        <v>1959930.4821249</v>
+        <v>4827310.913329211</v>
       </c>
       <c r="J46">
-        <v>1031.14418241312</v>
+        <v>1601.766270313943</v>
       </c>
       <c r="K46">
-        <v>27.87824745454943</v>
+        <v>34.76793404501121</v>
       </c>
       <c r="L46">
-        <v>19.82066762550304</v>
+        <v>30.3291733481494</v>
       </c>
       <c r="M46">
-        <v>3.109256579806253</v>
+        <v>8.480892170457601</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -11376,37 +11376,37 @@
         <v>16000</v>
       </c>
       <c r="C47">
-        <v>9397.706845256962</v>
+        <v>8564.781760423444</v>
       </c>
       <c r="D47">
-        <v>85.579619451957</v>
+        <v>17.53319409441111</v>
       </c>
       <c r="E47">
-        <v>1.698575017573714</v>
+        <v>1.838267056325616</v>
       </c>
       <c r="F47">
-        <v>15954.46894973744</v>
+        <v>13190.72697587843</v>
       </c>
       <c r="G47">
-        <v>-45.53105026256162</v>
+        <v>-2809.273024121567</v>
       </c>
       <c r="H47">
-        <v>45.53105026256162</v>
+        <v>2809.273024121567</v>
       </c>
       <c r="I47">
-        <v>1916422.539778525</v>
+        <v>4895415.446900942</v>
       </c>
       <c r="J47">
-        <v>1009.24166836533</v>
+        <v>1628.59975373189</v>
       </c>
       <c r="K47">
-        <v>0.2845690641410101</v>
+        <v>17.55795640075979</v>
       </c>
       <c r="L47">
-        <v>19.38653210191722</v>
+        <v>30.0453685270963</v>
       </c>
       <c r="M47">
-        <v>3.131619395732577</v>
+        <v>6.616195275724507</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -11417,37 +11417,37 @@
         <v>16000</v>
       </c>
       <c r="C48">
-        <v>9451.306484863302</v>
+        <v>8782.669716861714</v>
       </c>
       <c r="D48">
-        <v>82.38162146739532</v>
+        <v>197.8524802038838</v>
       </c>
       <c r="E48">
-        <v>1.746860366989314</v>
+        <v>1.787624498216439</v>
       </c>
       <c r="F48">
-        <v>16622.84824746861</v>
+        <v>12704.56643522674</v>
       </c>
       <c r="G48">
-        <v>622.8482474686134</v>
+        <v>-3295.433564773261</v>
       </c>
       <c r="H48">
-        <v>622.8482474686134</v>
+        <v>3295.433564773261</v>
       </c>
       <c r="I48">
-        <v>1883194.657161051</v>
+        <v>5025077.771529927</v>
       </c>
       <c r="J48">
-        <v>1000.841811389314</v>
+        <v>1664.835271363224</v>
       </c>
       <c r="K48">
-        <v>3.892801546678834</v>
+        <v>20.59645977983288</v>
       </c>
       <c r="L48">
-        <v>19.04971187245551</v>
+        <v>29.83995746737318</v>
       </c>
       <c r="M48">
-        <v>3.780226793134333</v>
+        <v>4.492757067664196</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -11458,37 +11458,37 @@
         <v>20000</v>
       </c>
       <c r="C49">
-        <v>9530.261597302815</v>
+        <v>9217.748562100745</v>
       </c>
       <c r="D49">
-        <v>82.03897056460708</v>
+        <v>411.3562087355168</v>
       </c>
       <c r="E49">
-        <v>2.105469488238644</v>
+        <v>2.1249253157917</v>
       </c>
       <c r="F49">
-        <v>20080.18926502265</v>
+        <v>15461.8381781364</v>
       </c>
       <c r="G49">
-        <v>80.18926502265458</v>
+        <v>-4538.161821863598</v>
       </c>
       <c r="H49">
-        <v>80.18926502265458</v>
+        <v>4538.161821863598</v>
       </c>
       <c r="I49">
-        <v>1843263.501013473</v>
+        <v>5356350.855570148</v>
       </c>
       <c r="J49">
-        <v>981.2534593389598</v>
+        <v>1725.969878820679</v>
       </c>
       <c r="K49">
-        <v>0.4009463251132729</v>
+        <v>22.69080910931799</v>
       </c>
       <c r="L49">
-        <v>18.65292962676738</v>
+        <v>29.68784792784009</v>
       </c>
       <c r="M49">
-        <v>3.937411134049328</v>
+        <v>1.704281544044131</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -11499,37 +11499,37 @@
         <v>12000</v>
       </c>
       <c r="C50">
-        <v>9731.626985935232</v>
+        <v>10120.52709547797</v>
       </c>
       <c r="D50">
-        <v>93.97161237138812</v>
+        <v>853.636300913057</v>
       </c>
       <c r="E50">
-        <v>1.110679212905241</v>
+        <v>1.146664368033204</v>
       </c>
       <c r="F50">
-        <v>10545.44053849322</v>
+        <v>7657.6681988919</v>
       </c>
       <c r="G50">
-        <v>-1454.55946150678</v>
+        <v>-4342.3318011081</v>
       </c>
       <c r="H50">
-        <v>1454.55946150678</v>
+        <v>4342.3318011081</v>
       </c>
       <c r="I50">
-        <v>1848940.161972752</v>
+        <v>5637590.326723159</v>
       </c>
       <c r="J50">
-        <v>991.1140010507894</v>
+        <v>1780.477418868334</v>
       </c>
       <c r="K50">
-        <v>12.12132884588983</v>
+        <v>36.1860983425675</v>
       </c>
       <c r="L50">
-        <v>18.5168546104991</v>
+        <v>29.82322814481357</v>
       </c>
       <c r="M50">
-        <v>2.430637476682572</v>
+        <v>-0.7867514500398831</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -11540,37 +11540,37 @@
         <v>5000</v>
       </c>
       <c r="C51">
-        <v>10017.64449379446</v>
+        <v>11062.13987234883</v>
       </c>
       <c r="D51">
-        <v>113.1762019201724</v>
+        <v>932.8151292750807</v>
       </c>
       <c r="E51">
-        <v>0.4261836724039574</v>
+        <v>0.4486280271926557</v>
       </c>
       <c r="F51">
-        <v>4107.883417829801</v>
+        <v>4591.054807264549</v>
       </c>
       <c r="G51">
-        <v>-892.1165821701989</v>
+        <v>-408.9451927354512</v>
       </c>
       <c r="H51">
-        <v>892.1165821701989</v>
+        <v>408.9451927354512</v>
       </c>
       <c r="I51">
-        <v>1827448.974915819</v>
+        <v>5525950.445987206</v>
       </c>
       <c r="J51">
-        <v>989.0936455634305</v>
+        <v>1752.486965273785</v>
       </c>
       <c r="K51">
-        <v>17.84233164340398</v>
+        <v>8.178903854709024</v>
       </c>
       <c r="L51">
-        <v>18.50308883566042</v>
+        <v>29.38150724093389</v>
       </c>
       <c r="M51">
-        <v>1.533648769510147</v>
+        <v>-1.032668670098012</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -11581,37 +11581,37 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>9584.17791410238</v>
+        <v>11397.72282165554</v>
       </c>
       <c r="D52">
-        <v>58.51192375894681</v>
+        <v>395.3061673035409</v>
       </c>
       <c r="E52">
-        <v>0.4645440068768968</v>
+        <v>0.195246386877795</v>
       </c>
       <c r="F52">
-        <v>4994.227607861023</v>
+        <v>4476.529665525604</v>
       </c>
       <c r="G52">
-        <v>2994.227607861023</v>
+        <v>2476.529665525604</v>
       </c>
       <c r="H52">
-        <v>2994.227607861023</v>
+        <v>2476.529665525604</v>
       </c>
       <c r="I52">
-        <v>1970207.974771045</v>
+        <v>5538095.42075203</v>
       </c>
       <c r="J52">
-        <v>1029.196324809382</v>
+        <v>1766.967819278822</v>
       </c>
       <c r="K52">
-        <v>149.7113803930511</v>
+        <v>123.8264832762802</v>
       </c>
       <c r="L52">
-        <v>21.12725466680823</v>
+        <v>31.27040676164081</v>
       </c>
       <c r="M52">
-        <v>4.383177195220935</v>
+        <v>0.3773647003963945</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -11622,37 +11622,37 @@
         <v>3000</v>
       </c>
       <c r="C53">
-        <v>9347.93996200639</v>
+        <v>11448.49770986272</v>
       </c>
       <c r="D53">
-        <v>29.03693617345319</v>
+        <v>85.22801611681371</v>
       </c>
       <c r="E53">
-        <v>0.4561081675870187</v>
+        <v>0.273504042323189</v>
       </c>
       <c r="F53">
-        <v>4542.944770188278</v>
+        <v>4441.872551376087</v>
       </c>
       <c r="G53">
-        <v>1542.944770188278</v>
+        <v>1441.872551376087</v>
       </c>
       <c r="H53">
-        <v>1542.944770188278</v>
+        <v>1441.872551376087</v>
       </c>
       <c r="I53">
-        <v>1978256.417694189</v>
+        <v>5470269.950823789</v>
       </c>
       <c r="J53">
-        <v>1039.26982373838</v>
+        <v>1760.593402261121</v>
       </c>
       <c r="K53">
-        <v>51.43149233960928</v>
+        <v>48.06241837920292</v>
       </c>
       <c r="L53">
-        <v>21.72145540549061</v>
+        <v>31.59966189139693</v>
       </c>
       <c r="M53">
-        <v>5.825334761208254</v>
+        <v>1.197700633434252</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -11663,37 +11663,37 @@
         <v>2000</v>
       </c>
       <c r="C54">
-        <v>8979.031924722321</v>
+        <v>11353.13827974189</v>
       </c>
       <c r="D54">
-        <v>-10.75756117229903</v>
+        <v>-77.30068549705948</v>
       </c>
       <c r="E54">
-        <v>0.385516704127616</v>
+        <v>0.1795390000700581</v>
       </c>
       <c r="F54">
-        <v>3784.574839896939</v>
+        <v>2421.220817603943</v>
       </c>
       <c r="G54">
-        <v>1784.574839896939</v>
+        <v>421.2208176039426</v>
       </c>
       <c r="H54">
-        <v>1784.574839896939</v>
+        <v>421.2208176039426</v>
       </c>
       <c r="I54">
-        <v>2001457.3973384</v>
+        <v>5368484.509023004</v>
       </c>
       <c r="J54">
-        <v>1053.60261251066</v>
+        <v>1734.83623717156</v>
       </c>
       <c r="K54">
-        <v>89.22874199484697</v>
+        <v>21.06104088019713</v>
       </c>
       <c r="L54">
-        <v>23.01967245528592</v>
+        <v>31.39699610272002</v>
       </c>
       <c r="M54">
-        <v>7.439872848944355</v>
+        <v>1.458284416998877</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -11704,37 +11704,37 @@
         <v>7000</v>
       </c>
       <c r="C55">
-        <v>9200.396519394773</v>
+        <v>11499.35031192064</v>
       </c>
       <c r="D55">
-        <v>12.45465441217606</v>
+        <v>123.8607604111655</v>
       </c>
       <c r="E55">
-        <v>0.6216605912604118</v>
+        <v>0.5987316738151477</v>
       </c>
       <c r="F55">
-        <v>5436.537167371414</v>
+        <v>5736.541319153669</v>
       </c>
       <c r="G55">
-        <v>-1563.462832628586</v>
+        <v>-1263.458680846331</v>
       </c>
       <c r="H55">
-        <v>1563.462832628586</v>
+        <v>1263.458680846331</v>
       </c>
       <c r="I55">
-        <v>2009815.107369959</v>
+        <v>5297311.741649097</v>
       </c>
       <c r="J55">
-        <v>1063.222616663829</v>
+        <v>1725.94232101448</v>
       </c>
       <c r="K55">
-        <v>22.33518332326551</v>
+        <v>18.04940972637615</v>
       </c>
       <c r="L55">
-        <v>23.00675756600252</v>
+        <v>31.14515485033617</v>
       </c>
       <c r="M55">
-        <v>5.902062784797232</v>
+        <v>0.7337591496809337</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -11745,37 +11745,37 @@
         <v>6000</v>
       </c>
       <c r="C56">
-        <v>9025.779330924392</v>
+        <v>11272.66455675592</v>
       </c>
       <c r="D56">
-        <v>-6.252529876079716</v>
+        <v>-191.6311036071257</v>
       </c>
       <c r="E56">
-        <v>0.8233856657061511</v>
+        <v>0.5566721653061086</v>
       </c>
       <c r="F56">
-        <v>7748.104179377289</v>
+        <v>9023.940522843368</v>
       </c>
       <c r="G56">
-        <v>1748.104179377289</v>
+        <v>3023.940522843368</v>
       </c>
       <c r="H56">
-        <v>1748.104179377289</v>
+        <v>3023.940522843368</v>
       </c>
       <c r="I56">
-        <v>2029186.461343781</v>
+        <v>5368550.71468697</v>
       </c>
       <c r="J56">
-        <v>1075.90560856593</v>
+        <v>1749.979324752052</v>
       </c>
       <c r="K56">
-        <v>29.13506965628815</v>
+        <v>50.39900871405614</v>
       </c>
       <c r="L56">
-        <v>23.12024482693374</v>
+        <v>31.50170769966432</v>
       </c>
       <c r="M56">
-        <v>7.457262749878072</v>
+        <v>2.451666960875196</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -11786,37 +11786,37 @@
         <v>8000</v>
       </c>
       <c r="C57">
-        <v>9050.927490077662</v>
+        <v>10723.18650571281</v>
       </c>
       <c r="D57">
-        <v>-3.112460973144728</v>
+        <v>-513.6933562995117</v>
       </c>
       <c r="E57">
-        <v>0.8569278692489161</v>
+        <v>0.7840396617719315</v>
       </c>
       <c r="F57">
-        <v>7702.065944809147</v>
+        <v>12476.96176985072</v>
       </c>
       <c r="G57">
-        <v>-297.9340551908526</v>
+        <v>4476.961769850719</v>
       </c>
       <c r="H57">
-        <v>297.9340551908526</v>
+        <v>4476.961769850719</v>
       </c>
       <c r="I57">
-        <v>1993906.065705575</v>
+        <v>5635362.277850932</v>
       </c>
       <c r="J57">
-        <v>1061.760671231837</v>
+        <v>1799.560823753846</v>
       </c>
       <c r="K57">
-        <v>3.724175689885658</v>
+        <v>55.96202212313399</v>
       </c>
       <c r="L57">
-        <v>22.76758902444195</v>
+        <v>31.94644068918195</v>
       </c>
       <c r="M57">
-        <v>7.276005762192995</v>
+        <v>4.87192660944438</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -11827,37 +11827,37 @@
         <v>10000</v>
       </c>
       <c r="C58">
-        <v>9009.091375380074</v>
+        <v>9856.987855466356</v>
       </c>
       <c r="D58">
-        <v>-6.984826345589017</v>
+        <v>-830.9481208517641</v>
       </c>
       <c r="E58">
-        <v>1.155379080673499</v>
+        <v>1.071970424760412</v>
       </c>
       <c r="F58">
-        <v>10499.28658240559</v>
+        <v>16224.16987123617</v>
       </c>
       <c r="G58">
-        <v>499.286582405588</v>
+        <v>6224.169871236167</v>
       </c>
       <c r="H58">
-        <v>499.286582405588</v>
+        <v>6224.169871236167</v>
       </c>
       <c r="I58">
-        <v>1962752.155449587</v>
+        <v>6226521.711925094</v>
       </c>
       <c r="J58">
-        <v>1051.716491074226</v>
+        <v>1878.571699601744</v>
       </c>
       <c r="K58">
-        <v>4.99286582405588</v>
+        <v>62.24169871236167</v>
       </c>
       <c r="L58">
-        <v>22.45018325300649</v>
+        <v>32.48742743959587</v>
       </c>
       <c r="M58">
-        <v>7.820228563648032</v>
+        <v>7.980264014929196</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -11868,37 +11868,37 @@
         <v>20000</v>
       </c>
       <c r="C59">
-        <v>9251.628765916026</v>
+        <v>9192.879239546215</v>
       </c>
       <c r="D59">
-        <v>17.96739534256508</v>
+        <v>-680.7925664133028</v>
       </c>
       <c r="E59">
-        <v>1.744895666778065</v>
+        <v>2.141863957179067</v>
       </c>
       <c r="F59">
-        <v>15290.7532897267</v>
+        <v>16592.27149322801</v>
       </c>
       <c r="G59">
-        <v>-4709.246710273301</v>
+        <v>-3407.728506771986</v>
       </c>
       <c r="H59">
-        <v>4709.246710273301</v>
+        <v>3407.728506771986</v>
       </c>
       <c r="I59">
-        <v>2317388.162866611</v>
+        <v>6321014.551643362</v>
       </c>
       <c r="J59">
-        <v>1115.88368790228</v>
+        <v>1905.39901200824</v>
       </c>
       <c r="K59">
-        <v>23.54623355136651</v>
+        <v>17.03864253385993</v>
       </c>
       <c r="L59">
-        <v>22.46941220560929</v>
+        <v>32.21639612546016</v>
       </c>
       <c r="M59">
-        <v>3.150343241143331</v>
+        <v>6.079445593296078</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -11909,37 +11909,37 @@
         <v>20000</v>
       </c>
       <c r="C60">
-        <v>9465.752587259405</v>
+        <v>8752.921748018314</v>
       </c>
       <c r="D60">
-        <v>37.58303794264647</v>
+        <v>-464.040999016441</v>
       </c>
       <c r="E60">
-        <v>1.783462337404781</v>
+        <v>2.235218627334627</v>
       </c>
       <c r="F60">
-        <v>16192.69015209892</v>
+        <v>15216.41466783405</v>
       </c>
       <c r="G60">
-        <v>-3807.309847901079</v>
+        <v>-4783.585332165945</v>
       </c>
       <c r="H60">
-        <v>3807.309847901079</v>
+        <v>4783.585332165945</v>
       </c>
       <c r="I60">
-        <v>2527357.475195195</v>
+        <v>6606560.656444566</v>
       </c>
       <c r="J60">
-        <v>1162.287587212604</v>
+        <v>1955.022914079924</v>
       </c>
       <c r="K60">
-        <v>19.03654923950539</v>
+        <v>23.91792666082972</v>
       </c>
       <c r="L60">
-        <v>22.41022491309026</v>
+        <v>32.07331906572515</v>
       </c>
       <c r="M60">
-        <v>-0.2511368245066231</v>
+        <v>3.478314369557433</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -11950,37 +11950,37 @@
         <v>22000</v>
       </c>
       <c r="C61">
-        <v>9588.443252464807</v>
+        <v>8474.678935970611</v>
       </c>
       <c r="D61">
-        <v>46.09380066892204</v>
+        <v>-296.8226307445772</v>
       </c>
       <c r="E61">
-        <v>2.124365415810222</v>
+        <v>2.54886422773385</v>
       </c>
       <c r="F61">
-        <v>20008.98319535423</v>
+        <v>17613.25254313254</v>
       </c>
       <c r="G61">
-        <v>-1991.016804645769</v>
+        <v>-4386.747456867455</v>
       </c>
       <c r="H61">
-        <v>1991.016804645769</v>
+        <v>4386.747456867455</v>
       </c>
       <c r="I61">
-        <v>2551709.855554291</v>
+        <v>6820746.971595218</v>
       </c>
       <c r="J61">
-        <v>1176.3338451352</v>
+        <v>1996.238584296662</v>
       </c>
       <c r="K61">
-        <v>9.050076384753497</v>
+        <v>19.93976116757934</v>
       </c>
       <c r="L61">
-        <v>22.18378171769472</v>
+        <v>31.86766554202776</v>
       </c>
       <c r="M61">
-        <v>-1.940699086320538</v>
+        <v>1.208992180081081</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -11991,37 +11991,37 @@
         <v>8000</v>
       </c>
       <c r="C62">
-        <v>9415.680699332477</v>
+        <v>8069.757473218669</v>
       </c>
       <c r="D62">
-        <v>24.20816528879683</v>
+        <v>-394.1115795512058</v>
       </c>
       <c r="E62">
-        <v>1.084575940007766</v>
+        <v>1.006886559142169</v>
       </c>
       <c r="F62">
-        <v>10700.88003088095</v>
+        <v>9377.256432098358</v>
       </c>
       <c r="G62">
-        <v>2700.880030880951</v>
+        <v>1377.256432098358</v>
       </c>
       <c r="H62">
-        <v>2700.880030880951</v>
+        <v>1377.256432098358</v>
       </c>
       <c r="I62">
-        <v>2630760.573648578</v>
+        <v>6738681.776731237</v>
       </c>
       <c r="J62">
-        <v>1201.742948230962</v>
+        <v>1985.922215093357</v>
       </c>
       <c r="K62">
-        <v>33.76100038601189</v>
+        <v>17.21570540122948</v>
       </c>
       <c r="L62">
-        <v>22.37673536216667</v>
+        <v>31.62346620634779</v>
       </c>
       <c r="M62">
-        <v>0.347803174576078</v>
+        <v>1.908782348713971</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -12029,10 +12029,10 @@
         <v>61</v>
       </c>
       <c r="E63">
-        <v>0.4261836724039574</v>
+        <v>0.4486280271926557</v>
       </c>
       <c r="F63">
-        <v>4086.437957972398</v>
+        <v>3801.97849213565</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -12040,10 +12040,10 @@
         <v>62</v>
       </c>
       <c r="E64">
-        <v>0.4645440068768968</v>
+        <v>0.195246386877795</v>
       </c>
       <c r="F64">
-        <v>4475.666447066672</v>
+        <v>1596.696896001177</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -12051,10 +12051,10 @@
         <v>63</v>
       </c>
       <c r="E65">
-        <v>0.4561081675870187</v>
+        <v>0.273504042323189</v>
       </c>
       <c r="F65">
-        <v>4415.414799814283</v>
+        <v>2155.494567655854</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>64</v>
       </c>
       <c r="E66">
-        <v>0.385516704127616</v>
+        <v>0.1795390000700581</v>
       </c>
       <c r="F66">
-        <v>3749.814830748705</v>
+        <v>1361.661667112811</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -12073,10 +12073,10 @@
         <v>65</v>
       </c>
       <c r="E67">
-        <v>0.6216605912604118</v>
+        <v>0.5987316738151477</v>
       </c>
       <c r="F67">
-        <v>6075.376099103305</v>
+        <v>4363.190262251994</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -12084,10 +12084,10 @@
         <v>66</v>
       </c>
       <c r="E68">
-        <v>0.8233856657061511</v>
+        <v>0.5566721653061086</v>
       </c>
       <c r="F68">
-        <v>8084.751604259923</v>
+        <v>3891.453390718632</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -12095,10 +12095,10 @@
         <v>67</v>
       </c>
       <c r="E69">
-        <v>0.8569278692489161</v>
+        <v>0.7840396617719315</v>
       </c>
       <c r="F69">
-        <v>8453.598620105637</v>
+        <v>5248.160116492711</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -12106,10 +12106,10 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <v>1.155379080673499</v>
+        <v>1.071970424760412</v>
       </c>
       <c r="F70">
-        <v>11451.07744141405</v>
+        <v>6857.309607796162</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -12117,10 +12117,10 @@
         <v>69</v>
       </c>
       <c r="E71">
-        <v>1.744895666778065</v>
+        <v>2.141863957179067</v>
       </c>
       <c r="F71">
-        <v>17374.26406679349</v>
+        <v>13065.57980588505</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -12128,10 +12128,10 @@
         <v>70</v>
       </c>
       <c r="E72">
-        <v>1.783462337404781</v>
+        <v>2.235218627334627</v>
       </c>
       <c r="F72">
-        <v>17840.48643244178</v>
+        <v>12971.58895906918</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -12139,10 +12139,10 @@
         <v>71</v>
       </c>
       <c r="E73">
-        <v>2.124365415810222</v>
+        <v>2.54886422773385</v>
       </c>
       <c r="F73">
-        <v>21348.5579972382</v>
+        <v>14035.200126558</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -12150,10 +12150,10 @@
         <v>72</v>
       </c>
       <c r="E74">
-        <v>1.084575940007766</v>
+        <v>1.006886559142169</v>
       </c>
       <c r="F74">
-        <v>10949.30935283243</v>
+        <v>5245.506422868794</v>
       </c>
     </row>
   </sheetData>
